--- a/database/orang/sofi/exel_boomber_sofi/F2 Sofi Database Notel [Kenal Nama].xlsx
+++ b/database/orang/sofi/exel_boomber_sofi/F2 Sofi Database Notel [Kenal Nama].xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ucup_d\yabuki\database\orang\sofi\exel_boomber_sofi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4013491-C603-43CE-8400-ED381C41D138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339050D3-095B-4521-A801-14C2C45BB3F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="2160" windowWidth="12660" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,9 +20,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="598">
   <si>
     <t>Keterangan</t>
   </si>
@@ -58,189 +56,96 @@
     <t>Asal Daerah</t>
   </si>
   <si>
-    <t>0812-1145-5335</t>
-  </si>
-  <si>
     <t>ibu serli</t>
   </si>
   <si>
-    <t>0822-9236-9076</t>
-  </si>
-  <si>
     <t>bapak alfi</t>
   </si>
   <si>
     <t>ibu eka</t>
   </si>
   <si>
-    <t>0812-5608-0107</t>
-  </si>
-  <si>
     <t>ibu siska</t>
   </si>
   <si>
-    <t>0812-8564-4697</t>
-  </si>
-  <si>
     <t>bapak atim</t>
   </si>
   <si>
-    <t>0812-8564-5002</t>
-  </si>
-  <si>
     <t>sahabat yatim</t>
   </si>
   <si>
-    <t>0812-8564-4662</t>
-  </si>
-  <si>
     <t>bapak halim</t>
   </si>
   <si>
-    <t>0812-8564-3918</t>
-  </si>
-  <si>
     <t>bapak harianto</t>
   </si>
   <si>
-    <t>0812-8564-3557</t>
-  </si>
-  <si>
     <t>babak latif</t>
   </si>
   <si>
-    <t>0812-8564-4190</t>
-  </si>
-  <si>
     <t>bapak heru</t>
   </si>
   <si>
-    <t>0812-8564-4096</t>
-  </si>
-  <si>
     <t>ibu sumi</t>
   </si>
   <si>
-    <t>0812-8564-3909</t>
-  </si>
-  <si>
     <t>bapak arla</t>
   </si>
   <si>
-    <t>0812-8564-3239</t>
-  </si>
-  <si>
     <t>bapak suhaman</t>
   </si>
   <si>
-    <t>0812-8564-3292</t>
-  </si>
-  <si>
     <t>bapak dian</t>
   </si>
   <si>
-    <t>0812-8564-3326</t>
-  </si>
-  <si>
     <t>ibu ratna</t>
   </si>
   <si>
     <t>bapak rian</t>
   </si>
   <si>
-    <t>0812-8564-3300</t>
-  </si>
-  <si>
     <t>ibu iska</t>
   </si>
   <si>
-    <t>0812-8564-5006</t>
-  </si>
-  <si>
     <t>bapak dede</t>
   </si>
   <si>
-    <t>0812-8564-33479</t>
-  </si>
-  <si>
     <t>mba mia</t>
   </si>
   <si>
-    <t>0812-8564-4133</t>
-  </si>
-  <si>
     <t>ibu indah</t>
   </si>
   <si>
-    <t>0812-8564-3442</t>
-  </si>
-  <si>
     <t>bapak irun</t>
   </si>
   <si>
-    <t>0812-8564-3805</t>
-  </si>
-  <si>
     <t>ibu fuji</t>
   </si>
   <si>
-    <t>0812-8564-4386</t>
-  </si>
-  <si>
     <t>bapak dedi</t>
   </si>
   <si>
-    <t>0812-8564-3686</t>
-  </si>
-  <si>
     <t>bapak rohman</t>
   </si>
   <si>
-    <t>0812-1577-0828</t>
-  </si>
-  <si>
     <t>ibu retno</t>
   </si>
   <si>
-    <t>0812-8664-4988</t>
-  </si>
-  <si>
     <t>ibu tiara</t>
   </si>
   <si>
-    <t>0812-8564-696</t>
-  </si>
-  <si>
     <t>bapak abdul</t>
   </si>
   <si>
-    <t>0821-4315-3754</t>
-  </si>
-  <si>
     <t>ibu siti</t>
   </si>
   <si>
-    <t>0821-4315-3317</t>
-  </si>
-  <si>
     <t>mas rendi</t>
   </si>
   <si>
-    <t>0821-4315-3558</t>
-  </si>
-  <si>
-    <t>0821-4315-3600</t>
-  </si>
-  <si>
     <t>mas holik</t>
   </si>
   <si>
-    <t>0821-4315-3525</t>
-  </si>
-  <si>
-    <t>0821-4315-3789</t>
-  </si>
-  <si>
     <t>ibu jum</t>
   </si>
   <si>
@@ -1748,6 +1653,180 @@
   </si>
   <si>
     <t>ibu khalifa</t>
+  </si>
+  <si>
+    <t>+62 812-1145-5335</t>
+  </si>
+  <si>
+    <t>+62 822-9236-9076</t>
+  </si>
+  <si>
+    <t>+62 812-5608-0107</t>
+  </si>
+  <si>
+    <t>+62 812-8564-4697</t>
+  </si>
+  <si>
+    <t>+62 812-8564-5002</t>
+  </si>
+  <si>
+    <t>+62 812-8564-4662</t>
+  </si>
+  <si>
+    <t>+62 812-8564-3918</t>
+  </si>
+  <si>
+    <t>+62 812-8564-3557</t>
+  </si>
+  <si>
+    <t>+62 812-8564-4190</t>
+  </si>
+  <si>
+    <t>+62 812-8564-4096</t>
+  </si>
+  <si>
+    <t>+62 812-8564-3909</t>
+  </si>
+  <si>
+    <t>+62 812-8564-3239</t>
+  </si>
+  <si>
+    <t>+62 812-8564-3292</t>
+  </si>
+  <si>
+    <t>+62 812-8564-3326</t>
+  </si>
+  <si>
+    <t>+62 812-8564-3300</t>
+  </si>
+  <si>
+    <t>+62 812-8564-5006</t>
+  </si>
+  <si>
+    <t>+62 812-8564-33479</t>
+  </si>
+  <si>
+    <t>+62 812-8564-4133</t>
+  </si>
+  <si>
+    <t>+62 812-8564-3442</t>
+  </si>
+  <si>
+    <t>+62 812-8564-3805</t>
+  </si>
+  <si>
+    <t>+62 812-8564-4386</t>
+  </si>
+  <si>
+    <t>+62 812-1577-0828</t>
+  </si>
+  <si>
+    <t>+62 812-8664-4988</t>
+  </si>
+  <si>
+    <t>+62 812-8564-696</t>
+  </si>
+  <si>
+    <t>+62 821-4315-3754</t>
+  </si>
+  <si>
+    <t>+62 821-4315-3317</t>
+  </si>
+  <si>
+    <t>+62 821-4315-3558</t>
+  </si>
+  <si>
+    <t>+62 821-4315-3600</t>
+  </si>
+  <si>
+    <t>+62 821-4315-3525</t>
+  </si>
+  <si>
+    <t>+62 821-4315-3789</t>
+  </si>
+  <si>
+    <t>+62 812-2457-978</t>
+  </si>
+  <si>
+    <t>+62 857-2514-5753</t>
+  </si>
+  <si>
+    <t>mas reva</t>
+  </si>
+  <si>
+    <t>+62 857-2514-5799</t>
+  </si>
+  <si>
+    <t>+62 857-2514-5855</t>
+  </si>
+  <si>
+    <t>+62 857-2514-5840</t>
+  </si>
+  <si>
+    <t>ibu murni</t>
+  </si>
+  <si>
+    <t>+62 857-2514-5764</t>
+  </si>
+  <si>
+    <t>mas yusuf</t>
+  </si>
+  <si>
+    <t>+62 857-2514-5607</t>
+  </si>
+  <si>
+    <t>mas odel</t>
+  </si>
+  <si>
+    <t>+62 882-0055-30161</t>
+  </si>
+  <si>
+    <t>mas widodo</t>
+  </si>
+  <si>
+    <t>+62 811-2531-703</t>
+  </si>
+  <si>
+    <t>+62 811-2533-272</t>
+  </si>
+  <si>
+    <t>mas tegu</t>
+  </si>
+  <si>
+    <t>+62 811-2533-030</t>
+  </si>
+  <si>
+    <t>mas bekti</t>
+  </si>
+  <si>
+    <t>+62 811-2532-767</t>
+  </si>
+  <si>
+    <t>+62 811-2533-461</t>
+  </si>
+  <si>
+    <t>bapak cahyo</t>
+  </si>
+  <si>
+    <t>+62 811-2533-350</t>
+  </si>
+  <si>
+    <t>+62 811-2532-518</t>
+  </si>
+  <si>
+    <t>mas abdullah</t>
+  </si>
+  <si>
+    <t>+62 811-2533-849</t>
+  </si>
+  <si>
+    <t>mba ida</t>
+  </si>
+  <si>
+    <t>+62 811-2534-060</t>
+  </si>
+  <si>
+    <t>mas chaesar</t>
   </si>
 </sst>
 </file>
@@ -1821,7 +1900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1863,6 +1942,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2094,8 +2174,8 @@
   </sheetPr>
   <dimension ref="A1:G933"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F296" sqref="F296"/>
+    <sheetView tabSelected="1" topLeftCell="A322" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D331" sqref="D331"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2138,12 +2218,12 @@
         <v>44599</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="17"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
     </row>
@@ -2155,12 +2235,12 @@
         <v>44599</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>541</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="E3" s="17"/>
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2171,12 +2251,12 @@
         <v>44599</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>12</v>
+        <v>542</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="E4" s="17"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2187,12 +2267,12 @@
         <v>44600</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>14</v>
+        <v>543</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="6"/>
+        <v>11</v>
+      </c>
+      <c r="E5" s="17"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
     </row>
@@ -2204,12 +2284,12 @@
         <v>44600</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>544</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="E6" s="17"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2220,12 +2300,12 @@
         <v>44600</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>545</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="E7" s="17"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
     </row>
@@ -2237,12 +2317,12 @@
         <v>44600</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>20</v>
+        <v>546</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>14</v>
+      </c>
+      <c r="E8" s="17"/>
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2253,12 +2333,12 @@
         <v>44600</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>22</v>
+        <v>547</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="E9" s="17"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
     </row>
@@ -2270,12 +2350,12 @@
         <v>44600</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>24</v>
+        <v>548</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="E10" s="17"/>
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2286,12 +2366,12 @@
         <v>44600</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>26</v>
+        <v>549</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="6"/>
+        <v>17</v>
+      </c>
+      <c r="E11" s="17"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
     </row>
@@ -2303,12 +2383,12 @@
         <v>44600</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>28</v>
+        <v>550</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="E12" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="E12" s="17"/>
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2319,12 +2399,12 @@
         <v>44600</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>30</v>
+        <v>551</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="E13" s="17"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
     </row>
@@ -2336,12 +2416,12 @@
         <v>44600</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>32</v>
+        <v>552</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="E14" s="17"/>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2352,12 +2432,12 @@
         <v>44600</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>34</v>
+        <v>553</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="E15" s="17"/>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2368,12 +2448,12 @@
         <v>44600</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>37</v>
+        <v>554</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E16" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="E16" s="17"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
     </row>
@@ -2385,12 +2465,12 @@
         <v>44600</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>39</v>
+        <v>555</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="E17" s="17"/>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2401,12 +2481,12 @@
         <v>44600</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>41</v>
+        <v>556</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" s="6"/>
+        <v>25</v>
+      </c>
+      <c r="E18" s="17"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
     </row>
@@ -2418,12 +2498,12 @@
         <v>44600</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>43</v>
+        <v>557</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E19" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="E19" s="17"/>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2434,12 +2514,12 @@
         <v>44600</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>45</v>
+        <v>558</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="E20" s="17"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
     </row>
@@ -2451,12 +2531,12 @@
         <v>44601</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>47</v>
+        <v>559</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E21" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="E21" s="17"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
     </row>
@@ -2468,12 +2548,12 @@
         <v>44601</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>49</v>
+        <v>560</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="E22" s="17"/>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2484,12 +2564,12 @@
         <v>44601</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>51</v>
+        <v>355</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E23" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="E23" s="17"/>
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2500,12 +2580,12 @@
         <v>44601</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>53</v>
+        <v>561</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E24" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="E24" s="17"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2516,12 +2596,12 @@
         <v>44601</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>55</v>
+        <v>562</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E25" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="E25" s="17"/>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2532,12 +2612,12 @@
         <v>44601</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>57</v>
+        <v>563</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="E26" s="17"/>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2548,12 +2628,12 @@
         <v>44604</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>59</v>
+        <v>564</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E27" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="E27" s="17"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
     </row>
@@ -2565,12 +2645,12 @@
         <v>44604</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>61</v>
+        <v>565</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="E28" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="E28" s="17"/>
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2581,12 +2661,12 @@
         <v>44604</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>63</v>
+        <v>566</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="E29" s="17"/>
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2597,12 +2677,12 @@
         <v>44604</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>64</v>
+        <v>567</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="E30" s="17"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
     </row>
@@ -2614,12 +2694,12 @@
         <v>44604</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>66</v>
+        <v>568</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E31" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="E31" s="17"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
@@ -2631,12 +2711,12 @@
         <v>44604</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>67</v>
+        <v>569</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" s="6"/>
+        <v>37</v>
+      </c>
+      <c r="E32" s="17"/>
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2647,10 +2727,10 @@
         <v>44604</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -2663,10 +2743,10 @@
         <v>44604</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>71</v>
+        <v>40</v>
       </c>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
@@ -2680,10 +2760,10 @@
         <v>44604</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>73</v>
+        <v>42</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
@@ -2696,10 +2776,10 @@
         <v>44606</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>74</v>
+        <v>43</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
@@ -2713,10 +2793,10 @@
         <v>44606</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E37" s="6"/>
       <c r="F37" s="6"/>
@@ -2729,10 +2809,10 @@
         <v>44606</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>77</v>
+        <v>46</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
@@ -2746,10 +2826,10 @@
         <v>44606</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -2763,10 +2843,10 @@
         <v>44606</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>83</v>
+        <v>52</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="6"/>
@@ -2779,10 +2859,10 @@
         <v>44606</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
@@ -2796,10 +2876,10 @@
         <v>44607</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="6"/>
@@ -2812,10 +2892,10 @@
         <v>44607</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>89</v>
+        <v>58</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>90</v>
+        <v>59</v>
       </c>
       <c r="E43" s="6"/>
       <c r="F43" s="6"/>
@@ -2829,10 +2909,10 @@
         <v>44607</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
@@ -2846,10 +2926,10 @@
         <v>44607</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>93</v>
+        <v>62</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>94</v>
+        <v>63</v>
       </c>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
@@ -2862,10 +2942,10 @@
         <v>44607</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
@@ -2879,10 +2959,10 @@
         <v>44607</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
@@ -2896,10 +2976,10 @@
         <v>44608</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
@@ -2912,10 +2992,10 @@
         <v>44608</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
@@ -2929,10 +3009,10 @@
         <v>44608</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
@@ -2945,10 +3025,10 @@
         <v>44608</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>106</v>
+        <v>75</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
@@ -2962,10 +3042,10 @@
         <v>44609</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>108</v>
+        <v>77</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>109</v>
+        <v>78</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="6"/>
@@ -2979,10 +3059,10 @@
         <v>44609</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E53" s="6"/>
       <c r="F53" s="6"/>
@@ -2995,10 +3075,10 @@
         <v>44609</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
@@ -3011,10 +3091,10 @@
         <v>44610</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
@@ -3028,10 +3108,10 @@
         <v>44610</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="E56" s="6"/>
       <c r="F56" s="6"/>
@@ -3045,10 +3125,10 @@
         <v>44610</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
@@ -3061,10 +3141,10 @@
         <v>44610</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>120</v>
+        <v>89</v>
       </c>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
@@ -3078,10 +3158,10 @@
         <v>44610</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E59" s="6"/>
       <c r="F59" s="6"/>
@@ -3094,10 +3174,10 @@
         <v>44610</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
@@ -3111,10 +3191,10 @@
         <v>44611</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
@@ -3127,10 +3207,10 @@
         <v>44611</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="E62" s="6"/>
       <c r="F62" s="6"/>
@@ -3144,10 +3224,10 @@
         <v>44611</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
@@ -3160,10 +3240,10 @@
         <v>44611</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>128</v>
+        <v>97</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
@@ -3177,10 +3257,10 @@
         <v>44613</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
       <c r="E65" s="6"/>
       <c r="F65" s="6"/>
@@ -3193,10 +3273,10 @@
         <v>44613</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E66" s="6"/>
       <c r="F66" s="6"/>
@@ -3210,10 +3290,10 @@
         <v>44613</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>134</v>
+        <v>103</v>
       </c>
       <c r="E67" s="6"/>
       <c r="F67" s="6"/>
@@ -3226,10 +3306,10 @@
         <v>44613</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>135</v>
+        <v>104</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>136</v>
+        <v>105</v>
       </c>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
@@ -3243,10 +3323,10 @@
         <v>44614</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>138</v>
+        <v>107</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="E69" s="6"/>
       <c r="F69" s="6"/>
@@ -3260,10 +3340,10 @@
         <v>44614</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>140</v>
+        <v>109</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="E70" s="6"/>
       <c r="F70" s="6"/>
@@ -3276,10 +3356,10 @@
         <v>44614</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6"/>
@@ -3293,10 +3373,10 @@
         <v>44614</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
@@ -3309,10 +3389,10 @@
         <v>44614</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>145</v>
+        <v>114</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>146</v>
+        <v>115</v>
       </c>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
@@ -3326,10 +3406,10 @@
         <v>44614</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>147</v>
+        <v>116</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="E74" s="6"/>
       <c r="F74" s="6"/>
@@ -3342,10 +3422,10 @@
         <v>44614</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
@@ -3359,10 +3439,10 @@
         <v>44614</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
       <c r="E76" s="6"/>
       <c r="F76" s="6"/>
@@ -3375,10 +3455,10 @@
         <v>44615</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>155</v>
+        <v>124</v>
       </c>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
@@ -3392,10 +3472,10 @@
         <v>44615</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="E78" s="6"/>
       <c r="F78" s="6"/>
@@ -3408,10 +3488,10 @@
         <v>44615</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
@@ -3425,10 +3505,10 @@
         <v>44615</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>160</v>
+        <v>129</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>161</v>
+        <v>130</v>
       </c>
       <c r="E80" s="6"/>
       <c r="F80" s="6"/>
@@ -3441,10 +3521,10 @@
         <v>44615</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>163</v>
+        <v>132</v>
       </c>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
@@ -3457,10 +3537,10 @@
         <v>44615</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>164</v>
+        <v>133</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
@@ -3474,10 +3554,10 @@
         <v>44615</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>165</v>
+        <v>134</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>166</v>
+        <v>135</v>
       </c>
       <c r="E83" s="6"/>
       <c r="F83" s="6"/>
@@ -3490,10 +3570,10 @@
         <v>44615</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>167</v>
+        <v>136</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E84" s="6"/>
       <c r="F84" s="6"/>
@@ -3506,10 +3586,10 @@
         <v>44615</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>168</v>
+        <v>137</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
@@ -3523,10 +3603,10 @@
         <v>44615</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>170</v>
+        <v>139</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>171</v>
+        <v>140</v>
       </c>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
@@ -3539,10 +3619,10 @@
         <v>44615</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>173</v>
+        <v>142</v>
       </c>
       <c r="E87" s="6"/>
       <c r="F87" s="6"/>
@@ -3556,10 +3636,10 @@
         <v>44615</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>174</v>
+        <v>143</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>175</v>
+        <v>144</v>
       </c>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
@@ -3572,10 +3652,10 @@
         <v>44615</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
@@ -3589,10 +3669,10 @@
         <v>44615</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>179</v>
+        <v>148</v>
       </c>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
@@ -3605,10 +3685,10 @@
         <v>44615</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>180</v>
+        <v>149</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="E91" s="6"/>
       <c r="F91" s="6"/>
@@ -3622,10 +3702,10 @@
         <v>44615</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>181</v>
+        <v>150</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>182</v>
+        <v>151</v>
       </c>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
@@ -3638,10 +3718,10 @@
         <v>44615</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>183</v>
+        <v>152</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>107</v>
+        <v>76</v>
       </c>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
@@ -3655,10 +3735,10 @@
         <v>44616</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>184</v>
+        <v>153</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
       <c r="E94" s="6"/>
       <c r="F94" s="6"/>
@@ -3671,10 +3751,10 @@
         <v>44616</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="E95" s="6"/>
       <c r="F95" s="6"/>
@@ -3688,10 +3768,10 @@
         <v>44616</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>188</v>
+        <v>157</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>189</v>
+        <v>158</v>
       </c>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
@@ -3704,10 +3784,10 @@
         <v>44616</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>190</v>
+        <v>159</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>191</v>
+        <v>160</v>
       </c>
       <c r="E97" s="6"/>
       <c r="F97" s="6"/>
@@ -3721,10 +3801,10 @@
         <v>44616</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="E98" s="6"/>
       <c r="F98" s="6"/>
@@ -3738,10 +3818,10 @@
         <v>44616</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>195</v>
+        <v>164</v>
       </c>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
@@ -3754,10 +3834,10 @@
         <v>44616</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>196</v>
+        <v>165</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
@@ -3771,10 +3851,10 @@
         <v>44616</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>199</v>
+        <v>168</v>
       </c>
       <c r="E101" s="6"/>
       <c r="F101" s="6"/>
@@ -3787,10 +3867,10 @@
         <v>44616</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>200</v>
+        <v>169</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
@@ -3804,10 +3884,10 @@
         <v>44616</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
@@ -3820,10 +3900,10 @@
         <v>44616</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>204</v>
+        <v>173</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6"/>
@@ -3837,10 +3917,10 @@
         <v>44616</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>206</v>
+        <v>175</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6"/>
@@ -3853,10 +3933,10 @@
         <v>44616</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E106" s="6"/>
       <c r="F106" s="6"/>
@@ -3870,10 +3950,10 @@
         <v>44616</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>209</v>
+        <v>178</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>210</v>
+        <v>179</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6"/>
@@ -3886,10 +3966,10 @@
         <v>44616</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>211</v>
+        <v>180</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>212</v>
+        <v>181</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6"/>
@@ -3900,13 +3980,13 @@
         <v>162</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>213</v>
+        <v>182</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>214</v>
+        <v>183</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>215</v>
+        <v>184</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6"/>
@@ -3919,10 +3999,10 @@
         <v>44617</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>216</v>
+        <v>185</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6"/>
@@ -3936,10 +4016,10 @@
         <v>44617</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>219</v>
+        <v>188</v>
       </c>
       <c r="E111" s="6"/>
       <c r="F111" s="6"/>
@@ -3952,10 +4032,10 @@
         <v>44617</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E112" s="6"/>
       <c r="F112" s="6"/>
@@ -3969,10 +4049,10 @@
         <v>44617</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>221</v>
+        <v>190</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="6"/>
@@ -3985,10 +4065,10 @@
         <v>44617</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>222</v>
+        <v>191</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>223</v>
+        <v>192</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="6"/>
@@ -4002,10 +4082,10 @@
         <v>44617</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="6"/>
@@ -4018,10 +4098,10 @@
         <v>44617</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="6"/>
@@ -4035,10 +4115,10 @@
         <v>44617</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="6"/>
@@ -4051,10 +4131,10 @@
         <v>44617</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="D118" s="6" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="6"/>
@@ -4068,10 +4148,10 @@
         <v>44617</v>
       </c>
       <c r="C119" s="5" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="E119" s="6"/>
       <c r="F119" s="6"/>
@@ -4084,10 +4164,10 @@
         <v>44618</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>111</v>
+        <v>80</v>
       </c>
       <c r="E120" s="6"/>
       <c r="F120" s="6"/>
@@ -4100,10 +4180,10 @@
         <v>44618</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="D121" s="6" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="6"/>
@@ -4117,10 +4197,10 @@
         <v>44618</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="D122" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="6"/>
@@ -4133,10 +4213,10 @@
         <v>44621</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="D123" s="6" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="E123" s="6"/>
       <c r="F123" s="6"/>
@@ -4150,10 +4230,10 @@
         <v>44621</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="E124" s="6"/>
       <c r="F124" s="6"/>
@@ -4166,10 +4246,10 @@
         <v>44621</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="D125" s="6" t="s">
-        <v>187</v>
+        <v>156</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="6"/>
@@ -4183,10 +4263,10 @@
         <v>44621</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="D126" s="6" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="6"/>
@@ -4200,10 +4280,10 @@
         <v>44621</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E127" s="6"/>
       <c r="F127" s="6"/>
@@ -4216,10 +4296,10 @@
         <v>44622</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
       <c r="D128" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E128" s="6"/>
       <c r="F128" s="6"/>
@@ -4233,10 +4313,10 @@
         <v>44622</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>249</v>
+        <v>218</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="6"/>
@@ -4249,10 +4329,10 @@
         <v>44622</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
       <c r="D130" s="6" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="E130" s="6"/>
       <c r="F130" s="6"/>
@@ -4266,10 +4346,10 @@
         <v>44622</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>252</v>
+        <v>221</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="E131" s="6"/>
       <c r="F131" s="6"/>
@@ -4282,10 +4362,10 @@
         <v>44622</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="D132" s="6" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="E132" s="6"/>
       <c r="F132" s="6"/>
@@ -4299,10 +4379,10 @@
         <v>44624</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>256</v>
+        <v>225</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E133" s="6"/>
       <c r="F133" s="6"/>
@@ -4312,13 +4392,13 @@
         <v>189</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="D134" s="6" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="E134" s="6"/>
       <c r="F134" s="6"/>
@@ -4332,10 +4412,10 @@
         <v>44624</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>260</v>
+        <v>229</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="6"/>
@@ -4348,10 +4428,10 @@
         <v>44624</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="D136" s="6" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="E136" s="6"/>
       <c r="F136" s="6"/>
@@ -4365,10 +4445,10 @@
         <v>44625</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="E137" s="6"/>
       <c r="F137" s="6"/>
@@ -4381,10 +4461,10 @@
         <v>44625</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="D138" s="6" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="6"/>
@@ -4398,10 +4478,10 @@
         <v>44625</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="E139" s="6"/>
       <c r="F139" s="6"/>
@@ -4414,10 +4494,10 @@
         <v>44625</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="D140" s="6" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="E140" s="6"/>
       <c r="F140" s="6"/>
@@ -4431,10 +4511,10 @@
         <v>44625</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E141" s="6"/>
       <c r="F141" s="6"/>
@@ -4447,10 +4527,10 @@
         <v>44627</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="D142" s="6" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="E142" s="6"/>
       <c r="F142" s="6"/>
@@ -4464,10 +4544,10 @@
         <v>44627</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="E143" s="6"/>
       <c r="F143" s="6"/>
@@ -4480,10 +4560,10 @@
         <v>44627</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="D144" s="6" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="6"/>
@@ -4497,10 +4577,10 @@
         <v>44627</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E145" s="6"/>
       <c r="F145" s="6"/>
@@ -4513,10 +4593,10 @@
         <v>44627</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
       <c r="D146" s="6" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="E146" s="6"/>
       <c r="F146" s="6"/>
@@ -4530,10 +4610,10 @@
         <v>44628</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>129</v>
+        <v>98</v>
       </c>
       <c r="E147" s="6"/>
       <c r="F147" s="6"/>
@@ -4546,10 +4626,10 @@
         <v>44628</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>283</v>
+        <v>252</v>
       </c>
       <c r="D148" s="6" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="E148" s="6"/>
       <c r="F148" s="6"/>
@@ -4563,10 +4643,10 @@
         <v>44628</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>285</v>
+        <v>254</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="E149" s="6"/>
       <c r="F149" s="6"/>
@@ -4579,10 +4659,10 @@
         <v>44628</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>286</v>
+        <v>255</v>
       </c>
       <c r="D150" s="6" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
       <c r="E150" s="6"/>
       <c r="F150" s="6"/>
@@ -4596,10 +4676,10 @@
         <v>44628</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>288</v>
+        <v>257</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E151" s="6"/>
       <c r="F151" s="6"/>
@@ -4612,10 +4692,10 @@
         <v>44628</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>289</v>
+        <v>258</v>
       </c>
       <c r="D152" s="6" t="s">
-        <v>290</v>
+        <v>259</v>
       </c>
       <c r="E152" s="6"/>
       <c r="F152" s="6"/>
@@ -4629,10 +4709,10 @@
         <v>44628</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>291</v>
+        <v>260</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>292</v>
+        <v>261</v>
       </c>
       <c r="E153" s="6"/>
       <c r="F153" s="6"/>
@@ -4645,10 +4725,10 @@
         <v>44628</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>293</v>
+        <v>262</v>
       </c>
       <c r="D154" s="6" t="s">
-        <v>294</v>
+        <v>263</v>
       </c>
       <c r="E154" s="6"/>
       <c r="F154" s="6"/>
@@ -4662,10 +4742,10 @@
         <v>44628</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>295</v>
+        <v>264</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>296</v>
+        <v>265</v>
       </c>
       <c r="E155" s="6"/>
       <c r="F155" s="6"/>
@@ -4678,10 +4758,10 @@
         <v>44628</v>
       </c>
       <c r="C156" s="5" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="D156" s="6" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
       <c r="E156" s="6"/>
       <c r="F156" s="6"/>
@@ -4695,10 +4775,10 @@
         <v>44628</v>
       </c>
       <c r="C157" s="5" t="s">
-        <v>299</v>
+        <v>268</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>300</v>
+        <v>269</v>
       </c>
       <c r="E157" s="6"/>
       <c r="F157" s="6"/>
@@ -4711,10 +4791,10 @@
         <v>44628</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="D158" s="6" t="s">
-        <v>302</v>
+        <v>271</v>
       </c>
       <c r="E158" s="6"/>
       <c r="F158" s="6"/>
@@ -4728,10 +4808,10 @@
         <v>44630</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>303</v>
+        <v>272</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="E159" s="6"/>
       <c r="F159" s="6"/>
@@ -4744,10 +4824,10 @@
         <v>44630</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="D160" s="6" t="s">
-        <v>306</v>
+        <v>275</v>
       </c>
       <c r="E160" s="6"/>
       <c r="F160" s="6"/>
@@ -4761,10 +4841,10 @@
         <v>44630</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>307</v>
+        <v>276</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>308</v>
+        <v>277</v>
       </c>
       <c r="E161" s="6"/>
       <c r="F161" s="6"/>
@@ -4777,10 +4857,10 @@
         <v>44630</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>309</v>
+        <v>278</v>
       </c>
       <c r="D162" s="6" t="s">
-        <v>310</v>
+        <v>279</v>
       </c>
       <c r="E162" s="6"/>
       <c r="F162" s="6"/>
@@ -4794,10 +4874,10 @@
         <v>44630</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>311</v>
+        <v>280</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>312</v>
+        <v>281</v>
       </c>
       <c r="E163" s="6"/>
       <c r="F163" s="6"/>
@@ -4810,10 +4890,10 @@
         <v>44630</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>313</v>
+        <v>282</v>
       </c>
       <c r="D164" s="6" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="E164" s="6"/>
       <c r="F164" s="6"/>
@@ -4827,10 +4907,10 @@
         <v>44630</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>315</v>
+        <v>284</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E165" s="6"/>
       <c r="F165" s="6"/>
@@ -4843,10 +4923,10 @@
         <v>44630</v>
       </c>
       <c r="C166" s="5" t="s">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="D166" s="6" t="s">
-        <v>317</v>
+        <v>286</v>
       </c>
       <c r="E166" s="6"/>
       <c r="F166" s="6"/>
@@ -4860,10 +4940,10 @@
         <v>44630</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>318</v>
+        <v>287</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E167" s="6"/>
       <c r="F167" s="6"/>
@@ -4876,10 +4956,10 @@
         <v>44630</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>319</v>
+        <v>288</v>
       </c>
       <c r="D168" s="6" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="E168" s="6"/>
       <c r="F168" s="6"/>
@@ -4893,10 +4973,10 @@
         <v>44630</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>322</v>
+        <v>291</v>
       </c>
       <c r="E169" s="6"/>
       <c r="F169" s="6"/>
@@ -4909,10 +4989,10 @@
         <v>44630</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>323</v>
+        <v>292</v>
       </c>
       <c r="D170" s="6" t="s">
-        <v>324</v>
+        <v>293</v>
       </c>
       <c r="E170" s="6"/>
       <c r="F170" s="6"/>
@@ -4926,10 +5006,10 @@
         <v>44630</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>325</v>
+        <v>294</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>326</v>
+        <v>295</v>
       </c>
       <c r="E171" s="6"/>
       <c r="F171" s="6"/>
@@ -4942,10 +5022,10 @@
         <v>44636</v>
       </c>
       <c r="C172" s="5" t="s">
-        <v>327</v>
+        <v>296</v>
       </c>
       <c r="D172" s="6" t="s">
-        <v>328</v>
+        <v>297</v>
       </c>
       <c r="E172" s="6"/>
       <c r="F172" s="6"/>
@@ -4959,10 +5039,10 @@
         <v>44636</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>329</v>
+        <v>298</v>
       </c>
       <c r="D173" s="6" t="s">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="E173" s="6"/>
       <c r="F173" s="6"/>
@@ -4976,10 +5056,10 @@
         <v>44636</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>330</v>
+        <v>299</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E174" s="6"/>
       <c r="F174" s="6"/>
@@ -4992,10 +5072,10 @@
         <v>44636</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>331</v>
+        <v>300</v>
       </c>
       <c r="D175" s="6" t="s">
-        <v>332</v>
+        <v>301</v>
       </c>
       <c r="E175" s="6"/>
       <c r="F175" s="6"/>
@@ -5009,10 +5089,10 @@
         <v>44636</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>333</v>
+        <v>302</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>334</v>
+        <v>303</v>
       </c>
       <c r="E176" s="6"/>
       <c r="F176" s="6"/>
@@ -5025,10 +5105,10 @@
         <v>44637</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="D177" s="13" t="s">
-        <v>159</v>
+        <v>128</v>
       </c>
       <c r="E177" s="9"/>
       <c r="F177" s="9"/>
@@ -5042,10 +5122,10 @@
         <v>44637</v>
       </c>
       <c r="C178" s="11" t="s">
-        <v>363</v>
+        <v>332</v>
       </c>
       <c r="D178" s="13" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="E178" s="9"/>
       <c r="F178" s="9"/>
@@ -5059,10 +5139,10 @@
         <v>44637</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>361</v>
+        <v>330</v>
       </c>
       <c r="D179" s="10" t="s">
-        <v>360</v>
+        <v>329</v>
       </c>
       <c r="E179" s="9"/>
       <c r="F179" s="9"/>
@@ -5076,10 +5156,10 @@
         <v>44637</v>
       </c>
       <c r="C180" s="11" t="s">
-        <v>359</v>
+        <v>328</v>
       </c>
       <c r="D180" s="13" t="s">
-        <v>358</v>
+        <v>327</v>
       </c>
       <c r="E180" s="9"/>
       <c r="F180" s="9"/>
@@ -5093,10 +5173,10 @@
         <v>44638</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>357</v>
+        <v>326</v>
       </c>
       <c r="D181" s="10" t="s">
-        <v>356</v>
+        <v>325</v>
       </c>
       <c r="E181" s="9"/>
       <c r="F181" s="9"/>
@@ -5110,10 +5190,10 @@
         <v>44638</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>355</v>
+        <v>324</v>
       </c>
       <c r="D182" s="13" t="s">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="E182" s="9"/>
       <c r="F182" s="9"/>
@@ -5127,10 +5207,10 @@
         <v>44638</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>353</v>
+        <v>322</v>
       </c>
       <c r="D183" s="10" t="s">
-        <v>352</v>
+        <v>321</v>
       </c>
       <c r="E183" s="9"/>
       <c r="F183" s="9"/>
@@ -5144,10 +5224,10 @@
         <v>44638</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="D184" s="13" t="s">
-        <v>350</v>
+        <v>319</v>
       </c>
       <c r="E184" s="9"/>
       <c r="F184" s="9"/>
@@ -5161,10 +5241,10 @@
         <v>44638</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>349</v>
+        <v>318</v>
       </c>
       <c r="D185" s="10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E185" s="9"/>
       <c r="F185" s="9"/>
@@ -5178,10 +5258,10 @@
         <v>44638</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>348</v>
+        <v>317</v>
       </c>
       <c r="D186" s="13" t="s">
-        <v>347</v>
+        <v>316</v>
       </c>
       <c r="E186" s="9"/>
       <c r="F186" s="9"/>
@@ -5195,10 +5275,10 @@
         <v>44638</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>346</v>
+        <v>315</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="E187" s="9"/>
       <c r="F187" s="9"/>
@@ -5212,10 +5292,10 @@
         <v>44638</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>344</v>
+        <v>313</v>
       </c>
       <c r="D188" s="13" t="s">
-        <v>343</v>
+        <v>312</v>
       </c>
       <c r="E188" s="9"/>
       <c r="F188" s="9"/>
@@ -5229,10 +5309,10 @@
         <v>44638</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>342</v>
+        <v>311</v>
       </c>
       <c r="D189" s="10" t="s">
-        <v>341</v>
+        <v>310</v>
       </c>
       <c r="E189" s="9"/>
       <c r="F189" s="9"/>
@@ -5246,10 +5326,10 @@
         <v>44638</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>340</v>
+        <v>309</v>
       </c>
       <c r="D190" s="13" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="E190" s="9"/>
       <c r="F190" s="9"/>
@@ -5263,10 +5343,10 @@
         <v>44638</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>338</v>
+        <v>307</v>
       </c>
       <c r="D191" s="10" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="E191" s="9"/>
       <c r="F191" s="9"/>
@@ -5280,10 +5360,10 @@
         <v>44638</v>
       </c>
       <c r="C192" s="11" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="D192" s="13" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E192" s="9"/>
       <c r="F192" s="9"/>
@@ -5297,10 +5377,10 @@
         <v>44638</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="D193" s="10" t="s">
-        <v>335</v>
+        <v>304</v>
       </c>
       <c r="E193" s="9"/>
       <c r="F193" s="9"/>
@@ -5314,10 +5394,10 @@
         <v>44641</v>
       </c>
       <c r="C194" s="5" t="s">
-        <v>365</v>
+        <v>334</v>
       </c>
       <c r="D194" s="6" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E194" s="6"/>
       <c r="F194" s="6"/>
@@ -5331,10 +5411,10 @@
         <v>44641</v>
       </c>
       <c r="C195" s="5" t="s">
-        <v>366</v>
+        <v>335</v>
       </c>
       <c r="D195" s="7" t="s">
-        <v>367</v>
+        <v>336</v>
       </c>
       <c r="E195" s="6"/>
       <c r="F195" s="6"/>
@@ -5347,10 +5427,10 @@
         <v>44641</v>
       </c>
       <c r="C196" s="5" t="s">
-        <v>368</v>
+        <v>337</v>
       </c>
       <c r="D196" s="6" t="s">
-        <v>339</v>
+        <v>308</v>
       </c>
       <c r="E196" s="6"/>
       <c r="F196" s="6"/>
@@ -5364,10 +5444,10 @@
         <v>44641</v>
       </c>
       <c r="C197" s="5" t="s">
-        <v>369</v>
+        <v>338</v>
       </c>
       <c r="D197" s="7" t="s">
-        <v>370</v>
+        <v>339</v>
       </c>
       <c r="E197" s="6"/>
       <c r="F197" s="6"/>
@@ -5380,10 +5460,10 @@
         <v>44641</v>
       </c>
       <c r="C198" s="5" t="s">
-        <v>371</v>
+        <v>340</v>
       </c>
       <c r="D198" s="6" t="s">
-        <v>372</v>
+        <v>341</v>
       </c>
       <c r="E198" s="6"/>
       <c r="F198" s="6"/>
@@ -5397,10 +5477,10 @@
         <v>44641</v>
       </c>
       <c r="C199" s="5" t="s">
-        <v>373</v>
+        <v>342</v>
       </c>
       <c r="D199" s="7" t="s">
-        <v>374</v>
+        <v>343</v>
       </c>
       <c r="E199" s="6"/>
       <c r="F199" s="6"/>
@@ -5413,10 +5493,10 @@
         <v>44641</v>
       </c>
       <c r="C200" s="5" t="s">
-        <v>375</v>
+        <v>344</v>
       </c>
       <c r="D200" s="6" t="s">
-        <v>376</v>
+        <v>345</v>
       </c>
       <c r="E200" s="6"/>
       <c r="F200" s="6"/>
@@ -5430,10 +5510,10 @@
         <v>44641</v>
       </c>
       <c r="C201" s="5" t="s">
-        <v>377</v>
+        <v>346</v>
       </c>
       <c r="D201" s="7" t="s">
-        <v>378</v>
+        <v>347</v>
       </c>
       <c r="E201" s="6"/>
       <c r="F201" s="6"/>
@@ -5446,10 +5526,10 @@
         <v>44641</v>
       </c>
       <c r="C202" s="5" t="s">
-        <v>379</v>
+        <v>348</v>
       </c>
       <c r="D202" s="6" t="s">
-        <v>153</v>
+        <v>122</v>
       </c>
       <c r="E202" s="6"/>
       <c r="F202" s="6"/>
@@ -5463,10 +5543,10 @@
         <v>44641</v>
       </c>
       <c r="C203" s="5" t="s">
-        <v>380</v>
+        <v>349</v>
       </c>
       <c r="D203" s="7" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="E203" s="6"/>
       <c r="F203" s="6"/>
@@ -5479,10 +5559,10 @@
         <v>44642</v>
       </c>
       <c r="C204" s="5" t="s">
-        <v>381</v>
+        <v>350</v>
       </c>
       <c r="D204" s="6" t="s">
-        <v>382</v>
+        <v>351</v>
       </c>
       <c r="E204" s="6"/>
       <c r="F204" s="6"/>
@@ -5496,10 +5576,10 @@
         <v>44642</v>
       </c>
       <c r="C205" s="5" t="s">
-        <v>383</v>
+        <v>352</v>
       </c>
       <c r="D205" s="7" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E205" s="6"/>
       <c r="F205" s="6"/>
@@ -5512,10 +5592,10 @@
         <v>44642</v>
       </c>
       <c r="C206" s="5" t="s">
-        <v>384</v>
+        <v>353</v>
       </c>
       <c r="D206" s="7" t="s">
-        <v>385</v>
+        <v>354</v>
       </c>
       <c r="E206" s="6"/>
       <c r="F206" s="6"/>
@@ -5528,10 +5608,10 @@
         <v>44642</v>
       </c>
       <c r="C207" s="5" t="s">
-        <v>386</v>
-      </c>
-      <c r="D207" s="6" t="s">
-        <v>52</v>
+        <v>356</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>357</v>
       </c>
       <c r="E207" s="6"/>
       <c r="F207" s="6"/>
@@ -5545,10 +5625,10 @@
         <v>44642</v>
       </c>
       <c r="C208" s="5" t="s">
-        <v>387</v>
-      </c>
-      <c r="D208" s="7" t="s">
-        <v>388</v>
+        <v>358</v>
+      </c>
+      <c r="D208" s="6" t="s">
+        <v>359</v>
       </c>
       <c r="E208" s="6"/>
       <c r="F208" s="6"/>
@@ -5561,10 +5641,10 @@
         <v>44642</v>
       </c>
       <c r="C209" s="5" t="s">
-        <v>389</v>
-      </c>
-      <c r="D209" s="6" t="s">
-        <v>390</v>
+        <v>360</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>361</v>
       </c>
       <c r="E209" s="6"/>
       <c r="F209" s="6"/>
@@ -5578,10 +5658,10 @@
         <v>44642</v>
       </c>
       <c r="C210" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="D210" s="7" t="s">
-        <v>392</v>
+        <v>362</v>
+      </c>
+      <c r="D210" s="6" t="s">
+        <v>363</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="6"/>
@@ -5594,10 +5674,10 @@
         <v>44642</v>
       </c>
       <c r="C211" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="D211" s="6" t="s">
-        <v>394</v>
+        <v>364</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>365</v>
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="6"/>
@@ -5608,13 +5688,13 @@
         <v>270</v>
       </c>
       <c r="B212" s="4">
-        <v>44642</v>
+        <v>44643</v>
       </c>
       <c r="C212" s="5" t="s">
-        <v>395</v>
-      </c>
-      <c r="D212" s="7" t="s">
-        <v>396</v>
+        <v>366</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E212" s="6"/>
       <c r="F212" s="6"/>
@@ -5627,10 +5707,10 @@
         <v>44643</v>
       </c>
       <c r="C213" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="D213" s="6" t="s">
-        <v>17</v>
+        <v>367</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="E213" s="6"/>
       <c r="F213" s="6"/>
@@ -5644,10 +5724,10 @@
         <v>44643</v>
       </c>
       <c r="C214" s="5" t="s">
-        <v>398</v>
-      </c>
-      <c r="D214" s="7" t="s">
-        <v>17</v>
+        <v>368</v>
+      </c>
+      <c r="D214" s="6" t="s">
+        <v>369</v>
       </c>
       <c r="E214" s="6"/>
       <c r="F214" s="6"/>
@@ -5660,10 +5740,10 @@
         <v>44643</v>
       </c>
       <c r="C215" s="5" t="s">
-        <v>399</v>
+        <v>370</v>
       </c>
       <c r="D215" s="6" t="s">
-        <v>400</v>
+        <v>371</v>
       </c>
       <c r="E215" s="6"/>
       <c r="F215" s="6"/>
@@ -5677,10 +5757,10 @@
         <v>44643</v>
       </c>
       <c r="C216" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D216" s="6" t="s">
-        <v>402</v>
+        <v>372</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>373</v>
       </c>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
@@ -5694,10 +5774,10 @@
         <v>44643</v>
       </c>
       <c r="C217" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D217" s="7" t="s">
-        <v>404</v>
+        <v>374</v>
+      </c>
+      <c r="D217" s="6" t="s">
+        <v>375</v>
       </c>
       <c r="E217" s="6"/>
       <c r="F217" s="6"/>
@@ -5710,10 +5790,10 @@
         <v>44643</v>
       </c>
       <c r="C218" s="5" t="s">
-        <v>405</v>
-      </c>
-      <c r="D218" s="6" t="s">
-        <v>406</v>
+        <v>376</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>377</v>
       </c>
       <c r="E218" s="6"/>
       <c r="F218" s="6"/>
@@ -5727,10 +5807,10 @@
         <v>44643</v>
       </c>
       <c r="C219" s="5" t="s">
-        <v>407</v>
-      </c>
-      <c r="D219" s="7" t="s">
-        <v>408</v>
+        <v>378</v>
+      </c>
+      <c r="D219" s="6" t="s">
+        <v>379</v>
       </c>
       <c r="E219" s="6"/>
       <c r="F219" s="6"/>
@@ -5743,10 +5823,10 @@
         <v>44643</v>
       </c>
       <c r="C220" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="D220" s="6" t="s">
-        <v>410</v>
+        <v>380</v>
+      </c>
+      <c r="D220" s="7" t="s">
+        <v>381</v>
       </c>
       <c r="E220" s="6"/>
       <c r="F220" s="6"/>
@@ -5757,13 +5837,13 @@
         <v>280</v>
       </c>
       <c r="B221" s="4">
-        <v>44643</v>
+        <v>44644</v>
       </c>
       <c r="C221" s="5" t="s">
-        <v>411</v>
-      </c>
-      <c r="D221" s="7" t="s">
-        <v>412</v>
+        <v>382</v>
+      </c>
+      <c r="D221" s="6" t="s">
+        <v>383</v>
       </c>
       <c r="E221" s="6"/>
       <c r="F221" s="6"/>
@@ -5776,10 +5856,10 @@
         <v>44644</v>
       </c>
       <c r="C222" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="D222" s="6" t="s">
-        <v>414</v>
+        <v>384</v>
+      </c>
+      <c r="D222" s="7" t="s">
+        <v>385</v>
       </c>
       <c r="E222" s="6"/>
       <c r="F222" s="6"/>
@@ -5793,10 +5873,10 @@
         <v>44644</v>
       </c>
       <c r="C223" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="D223" s="7" t="s">
-        <v>416</v>
+        <v>386</v>
+      </c>
+      <c r="D223" s="6" t="s">
+        <v>387</v>
       </c>
       <c r="E223" s="6"/>
       <c r="F223" s="6"/>
@@ -5809,10 +5889,10 @@
         <v>44644</v>
       </c>
       <c r="C224" s="5" t="s">
-        <v>417</v>
-      </c>
-      <c r="D224" s="6" t="s">
-        <v>418</v>
+        <v>388</v>
+      </c>
+      <c r="D224" s="7" t="s">
+        <v>389</v>
       </c>
       <c r="E224" s="6"/>
       <c r="F224" s="6"/>
@@ -5826,10 +5906,10 @@
         <v>44644</v>
       </c>
       <c r="C225" s="5" t="s">
-        <v>419</v>
-      </c>
-      <c r="D225" s="7" t="s">
-        <v>420</v>
+        <v>390</v>
+      </c>
+      <c r="D225" s="6" t="s">
+        <v>391</v>
       </c>
       <c r="E225" s="6"/>
       <c r="F225" s="6"/>
@@ -5839,13 +5919,13 @@
         <v>287</v>
       </c>
       <c r="B226" s="4">
-        <v>44644</v>
+        <v>44645</v>
       </c>
       <c r="C226" s="5" t="s">
-        <v>421</v>
-      </c>
-      <c r="D226" s="6" t="s">
-        <v>422</v>
+        <v>392</v>
+      </c>
+      <c r="D226" s="7" t="s">
+        <v>393</v>
       </c>
       <c r="E226" s="6"/>
       <c r="F226" s="6"/>
@@ -5859,10 +5939,10 @@
         <v>44645</v>
       </c>
       <c r="C227" s="5" t="s">
-        <v>423</v>
-      </c>
-      <c r="D227" s="7" t="s">
-        <v>424</v>
+        <v>394</v>
+      </c>
+      <c r="D227" s="6" t="s">
+        <v>395</v>
       </c>
       <c r="E227" s="6"/>
       <c r="F227" s="6"/>
@@ -5875,10 +5955,10 @@
         <v>44645</v>
       </c>
       <c r="C228" s="5" t="s">
-        <v>425</v>
-      </c>
-      <c r="D228" s="6" t="s">
-        <v>426</v>
+        <v>396</v>
+      </c>
+      <c r="D228" s="7" t="s">
+        <v>397</v>
       </c>
       <c r="E228" s="6"/>
       <c r="F228" s="6"/>
@@ -5892,10 +5972,10 @@
         <v>44645</v>
       </c>
       <c r="C229" s="5" t="s">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="D229" s="7" t="s">
-        <v>428</v>
+        <v>12</v>
       </c>
       <c r="E229" s="6"/>
       <c r="F229" s="6"/>
@@ -5908,10 +5988,10 @@
         <v>44645</v>
       </c>
       <c r="C230" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="D230" s="7" t="s">
-        <v>17</v>
+        <v>399</v>
+      </c>
+      <c r="D230" s="6" t="s">
+        <v>65</v>
       </c>
       <c r="E230" s="6"/>
       <c r="F230" s="6"/>
@@ -5924,10 +6004,10 @@
         <v>44645</v>
       </c>
       <c r="C231" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="D231" s="6" t="s">
-        <v>96</v>
+        <v>400</v>
+      </c>
+      <c r="D231" s="7" t="s">
+        <v>401</v>
       </c>
       <c r="E231" s="6"/>
       <c r="F231" s="6"/>
@@ -5941,10 +6021,10 @@
         <v>44645</v>
       </c>
       <c r="C232" s="5" t="s">
-        <v>431</v>
-      </c>
-      <c r="D232" s="7" t="s">
-        <v>432</v>
+        <v>402</v>
+      </c>
+      <c r="D232" s="6" t="s">
+        <v>106</v>
       </c>
       <c r="E232" s="6"/>
       <c r="F232" s="6"/>
@@ -5957,10 +6037,10 @@
         <v>44645</v>
       </c>
       <c r="C233" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="D233" s="6" t="s">
-        <v>137</v>
+        <v>403</v>
+      </c>
+      <c r="D233" s="7" t="s">
+        <v>397</v>
       </c>
       <c r="E233" s="6"/>
       <c r="F233" s="6"/>
@@ -5974,10 +6054,10 @@
         <v>44645</v>
       </c>
       <c r="C234" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="D234" s="7" t="s">
-        <v>428</v>
+        <v>404</v>
+      </c>
+      <c r="D234" s="6" t="s">
+        <v>405</v>
       </c>
       <c r="E234" s="6"/>
       <c r="F234" s="6"/>
@@ -5990,10 +6070,10 @@
         <v>44645</v>
       </c>
       <c r="C235" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="D235" s="6" t="s">
-        <v>436</v>
+        <v>406</v>
+      </c>
+      <c r="D235" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="E235" s="6"/>
       <c r="F235" s="6"/>
@@ -6007,10 +6087,10 @@
         <v>44645</v>
       </c>
       <c r="C236" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="D236" s="7" t="s">
-        <v>103</v>
+        <v>407</v>
+      </c>
+      <c r="D236" s="6" t="s">
+        <v>408</v>
       </c>
       <c r="E236" s="6"/>
       <c r="F236" s="6"/>
@@ -6023,10 +6103,10 @@
         <v>44645</v>
       </c>
       <c r="C237" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="D237" s="6" t="s">
-        <v>439</v>
+        <v>409</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>410</v>
       </c>
       <c r="E237" s="6"/>
       <c r="F237" s="6"/>
@@ -6037,13 +6117,13 @@
         <v>300</v>
       </c>
       <c r="B238" s="4">
-        <v>44645</v>
+        <v>44646</v>
       </c>
       <c r="C238" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="D238" s="7" t="s">
-        <v>441</v>
+        <v>411</v>
+      </c>
+      <c r="D238" s="6" t="s">
+        <v>412</v>
       </c>
       <c r="E238" s="6"/>
       <c r="F238" s="6"/>
@@ -6056,10 +6136,10 @@
         <v>44646</v>
       </c>
       <c r="C239" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="D239" s="6" t="s">
-        <v>443</v>
+        <v>413</v>
+      </c>
+      <c r="D239" s="7" t="s">
+        <v>414</v>
       </c>
       <c r="E239" s="6"/>
       <c r="F239" s="6"/>
@@ -6073,10 +6153,10 @@
         <v>44646</v>
       </c>
       <c r="C240" s="5" t="s">
-        <v>444</v>
-      </c>
-      <c r="D240" s="7" t="s">
-        <v>445</v>
+        <v>415</v>
+      </c>
+      <c r="D240" s="6" t="s">
+        <v>416</v>
       </c>
       <c r="E240" s="6"/>
       <c r="F240" s="6"/>
@@ -6089,10 +6169,10 @@
         <v>44646</v>
       </c>
       <c r="C241" s="5" t="s">
-        <v>446</v>
-      </c>
-      <c r="D241" s="6" t="s">
-        <v>447</v>
+        <v>417</v>
+      </c>
+      <c r="D241" s="7" t="s">
+        <v>418</v>
       </c>
       <c r="E241" s="6"/>
       <c r="F241" s="6"/>
@@ -6106,10 +6186,10 @@
         <v>44646</v>
       </c>
       <c r="C242" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="D242" s="7" t="s">
-        <v>449</v>
+        <v>419</v>
+      </c>
+      <c r="D242" s="6" t="s">
+        <v>420</v>
       </c>
       <c r="E242" s="6"/>
       <c r="F242" s="6"/>
@@ -6122,10 +6202,10 @@
         <v>44646</v>
       </c>
       <c r="C243" s="5" t="s">
-        <v>450</v>
-      </c>
-      <c r="D243" s="6" t="s">
-        <v>451</v>
+        <v>421</v>
+      </c>
+      <c r="D243" s="7" t="s">
+        <v>422</v>
       </c>
       <c r="E243" s="6"/>
       <c r="F243" s="6"/>
@@ -6139,10 +6219,10 @@
         <v>44646</v>
       </c>
       <c r="C244" s="5" t="s">
-        <v>452</v>
-      </c>
-      <c r="D244" s="7" t="s">
-        <v>453</v>
+        <v>423</v>
+      </c>
+      <c r="D244" s="6" t="s">
+        <v>424</v>
       </c>
       <c r="E244" s="6"/>
       <c r="F244" s="6"/>
@@ -6155,10 +6235,10 @@
         <v>44646</v>
       </c>
       <c r="C245" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="D245" s="6" t="s">
-        <v>455</v>
+        <v>425</v>
+      </c>
+      <c r="D245" s="7" t="s">
+        <v>426</v>
       </c>
       <c r="E245" s="6"/>
       <c r="F245" s="6"/>
@@ -6172,10 +6252,10 @@
         <v>44646</v>
       </c>
       <c r="C246" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="D246" s="7" t="s">
-        <v>457</v>
+        <v>427</v>
+      </c>
+      <c r="D246" s="6" t="s">
+        <v>428</v>
       </c>
       <c r="E246" s="6"/>
       <c r="F246" s="6"/>
@@ -6188,10 +6268,10 @@
         <v>44646</v>
       </c>
       <c r="C247" s="5" t="s">
-        <v>458</v>
-      </c>
-      <c r="D247" s="6" t="s">
-        <v>459</v>
+        <v>429</v>
+      </c>
+      <c r="D247" s="7" t="s">
+        <v>430</v>
       </c>
       <c r="E247" s="6"/>
       <c r="F247" s="6"/>
@@ -6205,10 +6285,10 @@
         <v>44646</v>
       </c>
       <c r="C248" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="D248" s="7" t="s">
-        <v>461</v>
+        <v>431</v>
+      </c>
+      <c r="D248" s="6" t="s">
+        <v>432</v>
       </c>
       <c r="E248" s="6"/>
       <c r="F248" s="6"/>
@@ -6218,13 +6298,13 @@
         <v>313</v>
       </c>
       <c r="B249" s="4">
-        <v>44646</v>
-      </c>
-      <c r="C249" s="5" t="s">
-        <v>462</v>
-      </c>
-      <c r="D249" s="6" t="s">
-        <v>463</v>
+        <v>44662</v>
+      </c>
+      <c r="C249" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="D249" s="15" t="s">
+        <v>66</v>
       </c>
       <c r="E249" s="6"/>
       <c r="F249" s="6"/>
@@ -6232,32 +6312,32 @@
     </row>
     <row r="250" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="3">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B250" s="4">
         <v>44662</v>
       </c>
       <c r="C250" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="D250" s="15" t="s">
-        <v>97</v>
+        <v>460</v>
+      </c>
+      <c r="D250" s="16" t="s">
+        <v>459</v>
       </c>
       <c r="E250" s="6"/>
       <c r="F250" s="6"/>
     </row>
     <row r="251" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="3">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B251" s="4">
         <v>44662</v>
       </c>
       <c r="C251" s="14" t="s">
-        <v>491</v>
-      </c>
-      <c r="D251" s="16" t="s">
-        <v>490</v>
+        <v>458</v>
+      </c>
+      <c r="D251" s="15" t="s">
+        <v>457</v>
       </c>
       <c r="E251" s="6"/>
       <c r="F251" s="6"/>
@@ -6265,32 +6345,32 @@
     </row>
     <row r="252" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="3">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B252" s="4">
-        <v>44662</v>
+        <v>44663</v>
       </c>
       <c r="C252" s="14" t="s">
-        <v>489</v>
-      </c>
-      <c r="D252" s="15" t="s">
-        <v>488</v>
+        <v>456</v>
+      </c>
+      <c r="D252" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="E252" s="6"/>
       <c r="F252" s="6"/>
     </row>
     <row r="253" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B253" s="4">
         <v>44663</v>
       </c>
       <c r="C253" s="14" t="s">
-        <v>487</v>
-      </c>
-      <c r="D253" s="16" t="s">
-        <v>17</v>
+        <v>455</v>
+      </c>
+      <c r="D253" s="15" t="s">
+        <v>454</v>
       </c>
       <c r="E253" s="6"/>
       <c r="F253" s="6"/>
@@ -6298,32 +6378,32 @@
     </row>
     <row r="254" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="3">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="B254" s="4">
         <v>44663</v>
       </c>
       <c r="C254" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="D254" s="15" t="s">
-        <v>485</v>
+        <v>453</v>
+      </c>
+      <c r="D254" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="E254" s="6"/>
       <c r="F254" s="6"/>
     </row>
     <row r="255" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="3">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B255" s="4">
         <v>44663</v>
       </c>
       <c r="C255" s="14" t="s">
-        <v>484</v>
-      </c>
-      <c r="D255" s="16" t="s">
-        <v>17</v>
+        <v>452</v>
+      </c>
+      <c r="D255" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="E255" s="6"/>
       <c r="F255" s="6"/>
@@ -6331,32 +6411,32 @@
     </row>
     <row r="256" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="3">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B256" s="4">
-        <v>44663</v>
+        <v>44664</v>
       </c>
       <c r="C256" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="D256" s="15" t="s">
-        <v>17</v>
+        <v>451</v>
+      </c>
+      <c r="D256" s="16" t="s">
+        <v>450</v>
       </c>
       <c r="E256" s="6"/>
       <c r="F256" s="6"/>
     </row>
     <row r="257" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="3">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B257" s="4">
         <v>44664</v>
       </c>
       <c r="C257" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="D257" s="16" t="s">
-        <v>481</v>
+        <v>449</v>
+      </c>
+      <c r="D257" s="15" t="s">
+        <v>12</v>
       </c>
       <c r="E257" s="6"/>
       <c r="F257" s="6"/>
@@ -6364,32 +6444,32 @@
     </row>
     <row r="258" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="3">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="B258" s="4">
         <v>44664</v>
       </c>
       <c r="C258" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="D258" s="15" t="s">
-        <v>17</v>
+        <v>448</v>
+      </c>
+      <c r="D258" s="16" t="s">
+        <v>447</v>
       </c>
       <c r="E258" s="6"/>
       <c r="F258" s="6"/>
     </row>
     <row r="259" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="3">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B259" s="4">
         <v>44664</v>
       </c>
       <c r="C259" s="14" t="s">
-        <v>479</v>
-      </c>
-      <c r="D259" s="16" t="s">
-        <v>478</v>
+        <v>446</v>
+      </c>
+      <c r="D259" s="15" t="s">
+        <v>445</v>
       </c>
       <c r="E259" s="6"/>
       <c r="F259" s="6"/>
@@ -6397,32 +6477,32 @@
     </row>
     <row r="260" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="3">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="B260" s="4">
         <v>44664</v>
       </c>
       <c r="C260" s="14" t="s">
-        <v>477</v>
-      </c>
-      <c r="D260" s="15" t="s">
-        <v>476</v>
+        <v>444</v>
+      </c>
+      <c r="D260" s="16" t="s">
+        <v>443</v>
       </c>
       <c r="E260" s="6"/>
       <c r="F260" s="6"/>
     </row>
     <row r="261" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="B261" s="4">
         <v>44664</v>
       </c>
       <c r="C261" s="14" t="s">
-        <v>475</v>
-      </c>
-      <c r="D261" s="16" t="s">
-        <v>474</v>
+        <v>442</v>
+      </c>
+      <c r="D261" s="15" t="s">
+        <v>441</v>
       </c>
       <c r="E261" s="6"/>
       <c r="F261" s="6"/>
@@ -6430,32 +6510,32 @@
     </row>
     <row r="262" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="3">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="B262" s="4">
-        <v>44664</v>
+        <v>44667</v>
       </c>
       <c r="C262" s="14" t="s">
-        <v>473</v>
-      </c>
-      <c r="D262" s="15" t="s">
-        <v>472</v>
+        <v>440</v>
+      </c>
+      <c r="D262" s="16" t="s">
+        <v>439</v>
       </c>
       <c r="E262" s="6"/>
       <c r="F262" s="6"/>
     </row>
     <row r="263" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="3">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="B263" s="4">
         <v>44667</v>
       </c>
       <c r="C263" s="14" t="s">
-        <v>471</v>
-      </c>
-      <c r="D263" s="16" t="s">
-        <v>470</v>
+        <v>438</v>
+      </c>
+      <c r="D263" s="15" t="s">
+        <v>437</v>
       </c>
       <c r="E263" s="6"/>
       <c r="F263" s="6"/>
@@ -6463,32 +6543,32 @@
     </row>
     <row r="264" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="3">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="B264" s="4">
         <v>44667</v>
       </c>
       <c r="C264" s="14" t="s">
-        <v>469</v>
-      </c>
-      <c r="D264" s="15" t="s">
-        <v>468</v>
+        <v>436</v>
+      </c>
+      <c r="D264" s="16" t="s">
+        <v>435</v>
       </c>
       <c r="E264" s="6"/>
       <c r="F264" s="6"/>
     </row>
     <row r="265" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="3">
-        <v>313</v>
+        <v>329</v>
       </c>
       <c r="B265" s="4">
         <v>44667</v>
       </c>
       <c r="C265" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="D265" s="16" t="s">
-        <v>466</v>
+        <v>434</v>
+      </c>
+      <c r="D265" s="15" t="s">
+        <v>433</v>
       </c>
       <c r="E265" s="6"/>
       <c r="F265" s="6"/>
@@ -6496,32 +6576,32 @@
     </row>
     <row r="266" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="3">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="B266" s="4">
-        <v>44667</v>
-      </c>
-      <c r="C266" s="14" t="s">
-        <v>465</v>
-      </c>
-      <c r="D266" s="15" t="s">
-        <v>464</v>
+        <v>44670</v>
+      </c>
+      <c r="C266" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D266" s="6" t="s">
+        <v>463</v>
       </c>
       <c r="E266" s="6"/>
       <c r="F266" s="6"/>
     </row>
     <row r="267" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="3">
-        <v>313</v>
+        <v>331</v>
       </c>
       <c r="B267" s="4">
         <v>44670</v>
       </c>
       <c r="C267" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="D267" s="6" t="s">
-        <v>494</v>
+        <v>464</v>
+      </c>
+      <c r="D267" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="E267" s="6"/>
       <c r="F267" s="6"/>
@@ -6529,32 +6609,32 @@
     </row>
     <row r="268" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="3">
-        <v>313</v>
+        <v>332</v>
       </c>
       <c r="B268" s="4">
         <v>44670</v>
       </c>
       <c r="C268" s="5" t="s">
-        <v>495</v>
-      </c>
-      <c r="D268" s="7" t="s">
-        <v>17</v>
+        <v>465</v>
+      </c>
+      <c r="D268" s="6" t="s">
+        <v>466</v>
       </c>
       <c r="E268" s="6"/>
       <c r="F268" s="6"/>
     </row>
     <row r="269" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="3">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="B269" s="4">
         <v>44670</v>
       </c>
       <c r="C269" s="5" t="s">
-        <v>496</v>
-      </c>
-      <c r="D269" s="6" t="s">
-        <v>497</v>
+        <v>467</v>
+      </c>
+      <c r="D269" s="7" t="s">
+        <v>468</v>
       </c>
       <c r="E269" s="6"/>
       <c r="F269" s="6"/>
@@ -6562,32 +6642,32 @@
     </row>
     <row r="270" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="3">
-        <v>313</v>
+        <v>334</v>
       </c>
       <c r="B270" s="4">
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="C270" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="D270" s="7" t="s">
-        <v>499</v>
+        <v>469</v>
+      </c>
+      <c r="D270" s="6" t="s">
+        <v>470</v>
       </c>
       <c r="E270" s="6"/>
       <c r="F270" s="6"/>
     </row>
     <row r="271" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="3">
-        <v>313</v>
+        <v>335</v>
       </c>
       <c r="B271" s="4">
         <v>44671</v>
       </c>
       <c r="C271" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="D271" s="6" t="s">
-        <v>501</v>
+        <v>471</v>
+      </c>
+      <c r="D271" s="7" t="s">
+        <v>472</v>
       </c>
       <c r="E271" s="6"/>
       <c r="F271" s="6"/>
@@ -6595,32 +6675,32 @@
     </row>
     <row r="272" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3">
-        <v>313</v>
+        <v>336</v>
       </c>
       <c r="B272" s="4">
         <v>44671</v>
       </c>
       <c r="C272" s="5" t="s">
-        <v>502</v>
-      </c>
-      <c r="D272" s="7" t="s">
-        <v>503</v>
+        <v>473</v>
+      </c>
+      <c r="D272" s="6" t="s">
+        <v>474</v>
       </c>
       <c r="E272" s="6"/>
       <c r="F272" s="6"/>
     </row>
     <row r="273" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="3">
-        <v>313</v>
+        <v>337</v>
       </c>
       <c r="B273" s="4">
         <v>44671</v>
       </c>
       <c r="C273" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="D273" s="6" t="s">
-        <v>505</v>
+        <v>475</v>
+      </c>
+      <c r="D273" s="7" t="s">
+        <v>445</v>
       </c>
       <c r="E273" s="6"/>
       <c r="F273" s="6"/>
@@ -6628,32 +6708,32 @@
     </row>
     <row r="274" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="3">
-        <v>313</v>
+        <v>338</v>
       </c>
       <c r="B274" s="4">
         <v>44671</v>
       </c>
       <c r="C274" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="D274" s="7" t="s">
         <v>476</v>
+      </c>
+      <c r="D274" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E274" s="6"/>
       <c r="F274" s="6"/>
     </row>
     <row r="275" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="3">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="B275" s="4">
         <v>44671</v>
       </c>
       <c r="C275" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="D275" s="6" t="s">
-        <v>17</v>
+        <v>477</v>
+      </c>
+      <c r="D275" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="E275" s="6"/>
       <c r="F275" s="6"/>
@@ -6661,32 +6741,32 @@
     </row>
     <row r="276" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="3">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="B276" s="4">
-        <v>44671</v>
+        <v>44672</v>
       </c>
       <c r="C276" s="5" t="s">
-        <v>508</v>
-      </c>
-      <c r="D276" s="7" t="s">
-        <v>263</v>
+        <v>478</v>
+      </c>
+      <c r="D276" s="6" t="s">
+        <v>479</v>
       </c>
       <c r="E276" s="6"/>
       <c r="F276" s="6"/>
     </row>
     <row r="277" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="3">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="B277" s="4">
         <v>44672</v>
       </c>
       <c r="C277" s="5" t="s">
-        <v>509</v>
-      </c>
-      <c r="D277" s="6" t="s">
-        <v>510</v>
+        <v>480</v>
+      </c>
+      <c r="D277" s="7" t="s">
+        <v>481</v>
       </c>
       <c r="E277" s="6"/>
       <c r="F277" s="6"/>
@@ -6694,32 +6774,32 @@
     </row>
     <row r="278" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="3">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="B278" s="4">
         <v>44672</v>
       </c>
       <c r="C278" s="5" t="s">
-        <v>511</v>
-      </c>
-      <c r="D278" s="7" t="s">
-        <v>512</v>
+        <v>482</v>
+      </c>
+      <c r="D278" s="6" t="s">
+        <v>222</v>
       </c>
       <c r="E278" s="6"/>
       <c r="F278" s="6"/>
     </row>
     <row r="279" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="B279" s="4">
         <v>44672</v>
       </c>
       <c r="C279" s="5" t="s">
-        <v>513</v>
-      </c>
-      <c r="D279" s="6" t="s">
-        <v>253</v>
+        <v>483</v>
+      </c>
+      <c r="D279" s="7" t="s">
+        <v>484</v>
       </c>
       <c r="E279" s="6"/>
       <c r="F279" s="6"/>
@@ -6727,32 +6807,32 @@
     </row>
     <row r="280" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="3">
-        <v>313</v>
+        <v>344</v>
       </c>
       <c r="B280" s="4">
         <v>44672</v>
       </c>
       <c r="C280" s="5" t="s">
-        <v>514</v>
-      </c>
-      <c r="D280" s="7" t="s">
-        <v>515</v>
+        <v>485</v>
+      </c>
+      <c r="D280" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E280" s="6"/>
       <c r="F280" s="6"/>
     </row>
     <row r="281" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="3">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="B281" s="4">
         <v>44672</v>
       </c>
       <c r="C281" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="D281" s="6" t="s">
-        <v>17</v>
+        <v>486</v>
+      </c>
+      <c r="D281" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="E281" s="6"/>
       <c r="F281" s="6"/>
@@ -6760,32 +6840,32 @@
     </row>
     <row r="282" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="3">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="B282" s="4">
         <v>44672</v>
       </c>
       <c r="C282" s="5" t="s">
-        <v>517</v>
-      </c>
-      <c r="D282" s="7" t="s">
-        <v>17</v>
+        <v>487</v>
+      </c>
+      <c r="D282" s="6" t="s">
+        <v>12</v>
       </c>
       <c r="E282" s="6"/>
       <c r="F282" s="6"/>
     </row>
     <row r="283" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="3">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="B283" s="4">
-        <v>44672</v>
+        <v>44677</v>
       </c>
       <c r="C283" s="5" t="s">
-        <v>518</v>
-      </c>
-      <c r="D283" s="6" t="s">
-        <v>17</v>
+        <v>488</v>
+      </c>
+      <c r="D283" s="7" t="s">
+        <v>489</v>
       </c>
       <c r="E283" s="6"/>
       <c r="F283" s="6"/>
@@ -6793,32 +6873,32 @@
     </row>
     <row r="284" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="3">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="B284" s="4">
         <v>44677</v>
       </c>
       <c r="C284" s="5" t="s">
-        <v>519</v>
-      </c>
-      <c r="D284" s="7" t="s">
-        <v>520</v>
+        <v>490</v>
+      </c>
+      <c r="D284" s="6" t="s">
+        <v>491</v>
       </c>
       <c r="E284" s="6"/>
       <c r="F284" s="6"/>
     </row>
     <row r="285" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="3">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="B285" s="4">
         <v>44677</v>
       </c>
       <c r="C285" s="5" t="s">
-        <v>521</v>
-      </c>
-      <c r="D285" s="6" t="s">
-        <v>522</v>
+        <v>492</v>
+      </c>
+      <c r="D285" s="7" t="s">
+        <v>493</v>
       </c>
       <c r="E285" s="6"/>
       <c r="F285" s="6"/>
@@ -6826,32 +6906,32 @@
     </row>
     <row r="286" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="3">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="B286" s="4">
-        <v>44677</v>
+        <v>44678</v>
       </c>
       <c r="C286" s="5" t="s">
-        <v>523</v>
-      </c>
-      <c r="D286" s="7" t="s">
-        <v>524</v>
+        <v>494</v>
+      </c>
+      <c r="D286" s="6" t="s">
+        <v>329</v>
       </c>
       <c r="E286" s="6"/>
       <c r="F286" s="6"/>
     </row>
     <row r="287" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="3">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="B287" s="4">
         <v>44678</v>
       </c>
       <c r="C287" s="5" t="s">
-        <v>525</v>
-      </c>
-      <c r="D287" s="6" t="s">
-        <v>360</v>
+        <v>495</v>
+      </c>
+      <c r="D287" s="7" t="s">
+        <v>496</v>
       </c>
       <c r="E287" s="6"/>
       <c r="F287" s="6"/>
@@ -6859,32 +6939,32 @@
     </row>
     <row r="288" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="3">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="B288" s="4">
         <v>44678</v>
       </c>
       <c r="C288" s="5" t="s">
-        <v>526</v>
-      </c>
-      <c r="D288" s="7" t="s">
-        <v>527</v>
+        <v>497</v>
+      </c>
+      <c r="D288" s="6" t="s">
+        <v>498</v>
       </c>
       <c r="E288" s="6"/>
       <c r="F288" s="6"/>
     </row>
     <row r="289" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="3">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="B289" s="4">
         <v>44678</v>
       </c>
       <c r="C289" s="5" t="s">
-        <v>528</v>
-      </c>
-      <c r="D289" s="6" t="s">
-        <v>529</v>
+        <v>499</v>
+      </c>
+      <c r="D289" s="7" t="s">
+        <v>500</v>
       </c>
       <c r="E289" s="6"/>
       <c r="F289" s="6"/>
@@ -6892,32 +6972,32 @@
     </row>
     <row r="290" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="3">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="B290" s="4">
         <v>44678</v>
       </c>
       <c r="C290" s="5" t="s">
-        <v>530</v>
-      </c>
-      <c r="D290" s="7" t="s">
-        <v>531</v>
+        <v>501</v>
+      </c>
+      <c r="D290" s="6" t="s">
+        <v>502</v>
       </c>
       <c r="E290" s="6"/>
       <c r="F290" s="6"/>
     </row>
     <row r="291" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="3">
-        <v>313</v>
+        <v>355</v>
       </c>
       <c r="B291" s="4">
-        <v>44678</v>
+        <v>44655</v>
       </c>
       <c r="C291" s="5" t="s">
-        <v>532</v>
-      </c>
-      <c r="D291" s="6" t="s">
-        <v>533</v>
+        <v>503</v>
+      </c>
+      <c r="D291" s="7" t="s">
+        <v>504</v>
       </c>
       <c r="E291" s="6"/>
       <c r="F291" s="6"/>
@@ -6925,32 +7005,32 @@
     </row>
     <row r="292" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="3">
-        <v>313</v>
+        <v>356</v>
       </c>
       <c r="B292" s="4">
         <v>44655</v>
       </c>
       <c r="C292" s="5" t="s">
-        <v>534</v>
-      </c>
-      <c r="D292" s="7" t="s">
-        <v>535</v>
+        <v>505</v>
+      </c>
+      <c r="D292" s="6" t="s">
+        <v>506</v>
       </c>
       <c r="E292" s="6"/>
       <c r="F292" s="6"/>
     </row>
     <row r="293" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="3">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="B293" s="4">
         <v>44655</v>
       </c>
       <c r="C293" s="5" t="s">
-        <v>536</v>
-      </c>
-      <c r="D293" s="6" t="s">
-        <v>537</v>
+        <v>507</v>
+      </c>
+      <c r="D293" s="7" t="s">
+        <v>508</v>
       </c>
       <c r="E293" s="6"/>
       <c r="F293" s="6"/>
@@ -6958,32 +7038,32 @@
     </row>
     <row r="294" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="3">
-        <v>313</v>
+        <v>358</v>
       </c>
       <c r="B294" s="4">
-        <v>44655</v>
+        <v>44656</v>
       </c>
       <c r="C294" s="5" t="s">
-        <v>538</v>
-      </c>
-      <c r="D294" s="7" t="s">
-        <v>539</v>
+        <v>509</v>
+      </c>
+      <c r="D294" s="6" t="s">
+        <v>510</v>
       </c>
       <c r="E294" s="6"/>
       <c r="F294" s="6"/>
     </row>
     <row r="295" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="3">
-        <v>313</v>
+        <v>359</v>
       </c>
       <c r="B295" s="4">
         <v>44656</v>
       </c>
       <c r="C295" s="5" t="s">
-        <v>540</v>
-      </c>
-      <c r="D295" s="6" t="s">
-        <v>541</v>
+        <v>511</v>
+      </c>
+      <c r="D295" s="7" t="s">
+        <v>512</v>
       </c>
       <c r="E295" s="6"/>
       <c r="F295" s="6"/>
@@ -6991,32 +7071,32 @@
     </row>
     <row r="296" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="3">
-        <v>313</v>
+        <v>360</v>
       </c>
       <c r="B296" s="4">
         <v>44656</v>
       </c>
       <c r="C296" s="5" t="s">
-        <v>542</v>
-      </c>
-      <c r="D296" s="7" t="s">
-        <v>543</v>
+        <v>513</v>
+      </c>
+      <c r="D296" s="6" t="s">
+        <v>514</v>
       </c>
       <c r="E296" s="6"/>
       <c r="F296" s="6"/>
     </row>
     <row r="297" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="3">
-        <v>313</v>
+        <v>361</v>
       </c>
       <c r="B297" s="4">
         <v>44656</v>
       </c>
       <c r="C297" s="5" t="s">
-        <v>544</v>
-      </c>
-      <c r="D297" s="6" t="s">
-        <v>545</v>
+        <v>515</v>
+      </c>
+      <c r="D297" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="E297" s="6"/>
       <c r="F297" s="6"/>
@@ -7024,32 +7104,32 @@
     </row>
     <row r="298" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="3">
-        <v>313</v>
+        <v>362</v>
       </c>
       <c r="B298" s="4">
-        <v>44656</v>
+        <v>44657</v>
       </c>
       <c r="C298" s="5" t="s">
-        <v>546</v>
-      </c>
-      <c r="D298" s="7" t="s">
-        <v>17</v>
+        <v>516</v>
+      </c>
+      <c r="D298" s="6" t="s">
+        <v>517</v>
       </c>
       <c r="E298" s="6"/>
       <c r="F298" s="6"/>
     </row>
     <row r="299" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="3">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="B299" s="4">
         <v>44657</v>
       </c>
       <c r="C299" s="5" t="s">
-        <v>547</v>
-      </c>
-      <c r="D299" s="6" t="s">
-        <v>548</v>
+        <v>518</v>
+      </c>
+      <c r="D299" s="7" t="s">
+        <v>519</v>
       </c>
       <c r="E299" s="6"/>
       <c r="F299" s="6"/>
@@ -7057,32 +7137,32 @@
     </row>
     <row r="300" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="3">
-        <v>313</v>
+        <v>364</v>
       </c>
       <c r="B300" s="4">
         <v>44657</v>
       </c>
       <c r="C300" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="D300" s="7" t="s">
-        <v>550</v>
+        <v>520</v>
+      </c>
+      <c r="D300" s="6" t="s">
+        <v>521</v>
       </c>
       <c r="E300" s="6"/>
       <c r="F300" s="6"/>
     </row>
     <row r="301" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="3">
-        <v>313</v>
+        <v>365</v>
       </c>
       <c r="B301" s="4">
         <v>44657</v>
       </c>
       <c r="C301" s="5" t="s">
-        <v>551</v>
-      </c>
-      <c r="D301" s="6" t="s">
-        <v>552</v>
+        <v>522</v>
+      </c>
+      <c r="D301" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="E301" s="6"/>
       <c r="F301" s="6"/>
@@ -7090,32 +7170,32 @@
     </row>
     <row r="302" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="3">
-        <v>313</v>
+        <v>366</v>
       </c>
       <c r="B302" s="4">
         <v>44657</v>
       </c>
       <c r="C302" s="5" t="s">
-        <v>553</v>
-      </c>
-      <c r="D302" s="7" t="s">
-        <v>17</v>
+        <v>523</v>
+      </c>
+      <c r="D302" s="6" t="s">
+        <v>524</v>
       </c>
       <c r="E302" s="6"/>
       <c r="F302" s="6"/>
     </row>
     <row r="303" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="3">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="B303" s="4">
         <v>44657</v>
       </c>
       <c r="C303" s="5" t="s">
-        <v>554</v>
-      </c>
-      <c r="D303" s="6" t="s">
-        <v>555</v>
+        <v>525</v>
+      </c>
+      <c r="D303" s="7" t="s">
+        <v>481</v>
       </c>
       <c r="E303" s="6"/>
       <c r="F303" s="6"/>
@@ -7123,32 +7203,32 @@
     </row>
     <row r="304" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="3">
-        <v>313</v>
+        <v>368</v>
       </c>
       <c r="B304" s="4">
         <v>44657</v>
       </c>
       <c r="C304" s="5" t="s">
-        <v>556</v>
-      </c>
-      <c r="D304" s="7" t="s">
-        <v>512</v>
+        <v>526</v>
+      </c>
+      <c r="D304" s="6" t="s">
+        <v>527</v>
       </c>
       <c r="E304" s="6"/>
       <c r="F304" s="6"/>
     </row>
     <row r="305" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="3">
-        <v>313</v>
+        <v>369</v>
       </c>
       <c r="B305" s="4">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="C305" s="5" t="s">
-        <v>557</v>
-      </c>
-      <c r="D305" s="6" t="s">
-        <v>558</v>
+        <v>528</v>
+      </c>
+      <c r="D305" s="7" t="s">
+        <v>529</v>
       </c>
       <c r="E305" s="6"/>
       <c r="F305" s="6"/>
@@ -7156,32 +7236,32 @@
     </row>
     <row r="306" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="3">
-        <v>313</v>
+        <v>370</v>
       </c>
       <c r="B306" s="4">
         <v>44658</v>
       </c>
       <c r="C306" s="5" t="s">
-        <v>559</v>
-      </c>
-      <c r="D306" s="7" t="s">
-        <v>560</v>
+        <v>530</v>
+      </c>
+      <c r="D306" s="6" t="s">
+        <v>531</v>
       </c>
       <c r="E306" s="6"/>
       <c r="F306" s="6"/>
     </row>
     <row r="307" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="3">
-        <v>313</v>
+        <v>371</v>
       </c>
       <c r="B307" s="4">
-        <v>44658</v>
+        <v>44659</v>
       </c>
       <c r="C307" s="5" t="s">
-        <v>561</v>
-      </c>
-      <c r="D307" s="6" t="s">
-        <v>562</v>
+        <v>532</v>
+      </c>
+      <c r="D307" s="7" t="s">
+        <v>533</v>
       </c>
       <c r="E307" s="6"/>
       <c r="F307" s="6"/>
@@ -7189,32 +7269,32 @@
     </row>
     <row r="308" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="3">
-        <v>313</v>
+        <v>372</v>
       </c>
       <c r="B308" s="4">
         <v>44659</v>
       </c>
       <c r="C308" s="5" t="s">
-        <v>563</v>
-      </c>
-      <c r="D308" s="7" t="s">
-        <v>564</v>
+        <v>534</v>
+      </c>
+      <c r="D308" s="6" t="s">
+        <v>535</v>
       </c>
       <c r="E308" s="6"/>
       <c r="F308" s="6"/>
     </row>
     <row r="309" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="3">
-        <v>313</v>
+        <v>373</v>
       </c>
       <c r="B309" s="4">
-        <v>44659</v>
+        <v>44660</v>
       </c>
       <c r="C309" s="5" t="s">
-        <v>565</v>
-      </c>
-      <c r="D309" s="6" t="s">
-        <v>566</v>
+        <v>536</v>
+      </c>
+      <c r="D309" s="7" t="s">
+        <v>537</v>
       </c>
       <c r="E309" s="6"/>
       <c r="F309" s="6"/>
@@ -7222,161 +7302,297 @@
     </row>
     <row r="310" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="3">
-        <v>313</v>
+        <v>374</v>
       </c>
       <c r="B310" s="4">
         <v>44660</v>
       </c>
       <c r="C310" s="5" t="s">
-        <v>567</v>
-      </c>
-      <c r="D310" s="7" t="s">
-        <v>568</v>
+        <v>538</v>
+      </c>
+      <c r="D310" s="6" t="s">
+        <v>539</v>
       </c>
       <c r="E310" s="6"/>
       <c r="F310" s="6"/>
     </row>
     <row r="311" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3">
-        <v>313</v>
+        <v>375</v>
       </c>
       <c r="B311" s="4">
-        <v>44660</v>
+        <v>44691</v>
       </c>
       <c r="C311" s="5" t="s">
-        <v>569</v>
-      </c>
-      <c r="D311" s="6" t="s">
         <v>570</v>
+      </c>
+      <c r="D311" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="E311" s="6"/>
       <c r="F311" s="6"/>
       <c r="G311" s="6"/>
     </row>
     <row r="312" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A312" s="3"/>
-      <c r="B312" s="4"/>
-      <c r="C312" s="5"/>
+      <c r="A312" s="3">
+        <v>376</v>
+      </c>
+      <c r="B312" s="4">
+        <v>44691</v>
+      </c>
+      <c r="C312" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="D312" s="6" t="s">
+        <v>572</v>
+      </c>
       <c r="E312" s="6"/>
       <c r="F312" s="6"/>
     </row>
     <row r="313" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A313" s="3"/>
-      <c r="B313" s="4"/>
-      <c r="C313" s="5"/>
-      <c r="D313" s="6"/>
+      <c r="A313" s="3">
+        <v>377</v>
+      </c>
+      <c r="B313" s="4">
+        <v>44691</v>
+      </c>
+      <c r="C313" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="D313" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E313" s="6"/>
       <c r="F313" s="6"/>
       <c r="G313" s="6"/>
     </row>
     <row r="314" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A314" s="3"/>
-      <c r="B314" s="4"/>
-      <c r="C314" s="5"/>
+      <c r="A314" s="3">
+        <v>378</v>
+      </c>
+      <c r="B314" s="4">
+        <v>44691</v>
+      </c>
+      <c r="C314" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="D314" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E314" s="6"/>
       <c r="F314" s="6"/>
     </row>
     <row r="315" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A315" s="3"/>
-      <c r="B315" s="4"/>
-      <c r="C315" s="5"/>
-      <c r="D315" s="6"/>
+      <c r="A315" s="3">
+        <v>379</v>
+      </c>
+      <c r="B315" s="4">
+        <v>44691</v>
+      </c>
+      <c r="C315" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="D315" s="7" t="s">
+        <v>576</v>
+      </c>
       <c r="E315" s="6"/>
       <c r="F315" s="6"/>
       <c r="G315" s="6"/>
     </row>
     <row r="316" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A316" s="3"/>
-      <c r="B316" s="4"/>
-      <c r="C316" s="5"/>
+      <c r="A316" s="3">
+        <v>380</v>
+      </c>
+      <c r="B316" s="4">
+        <v>44691</v>
+      </c>
+      <c r="C316" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="D316" s="6" t="s">
+        <v>578</v>
+      </c>
       <c r="E316" s="6"/>
       <c r="F316" s="6"/>
     </row>
     <row r="317" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A317" s="3"/>
-      <c r="B317" s="4"/>
-      <c r="C317" s="5"/>
-      <c r="D317" s="6"/>
+      <c r="A317" s="3">
+        <v>381</v>
+      </c>
+      <c r="B317" s="4">
+        <v>44691</v>
+      </c>
+      <c r="C317" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="D317" s="7" t="s">
+        <v>580</v>
+      </c>
       <c r="E317" s="6"/>
       <c r="F317" s="6"/>
       <c r="G317" s="6"/>
     </row>
     <row r="318" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A318" s="3"/>
-      <c r="B318" s="4"/>
-      <c r="C318" s="5"/>
+      <c r="A318" s="3">
+        <v>382</v>
+      </c>
+      <c r="B318" s="4">
+        <v>44691</v>
+      </c>
+      <c r="C318" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D318" s="6" t="s">
+        <v>582</v>
+      </c>
       <c r="E318" s="6"/>
       <c r="F318" s="6"/>
     </row>
     <row r="319" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A319" s="3"/>
-      <c r="B319" s="4"/>
-      <c r="C319" s="5"/>
-      <c r="D319" s="6"/>
+      <c r="A319" s="3">
+        <v>383</v>
+      </c>
+      <c r="B319" s="4">
+        <v>44692</v>
+      </c>
+      <c r="C319" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="D319" s="7" t="s">
+        <v>12</v>
+      </c>
       <c r="E319" s="6"/>
       <c r="F319" s="6"/>
       <c r="G319" s="6"/>
     </row>
     <row r="320" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A320" s="3"/>
-      <c r="B320" s="4"/>
-      <c r="C320" s="5"/>
+      <c r="A320" s="3">
+        <v>384</v>
+      </c>
+      <c r="B320" s="4">
+        <v>44692</v>
+      </c>
+      <c r="C320" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="D320" s="6" t="s">
+        <v>585</v>
+      </c>
       <c r="E320" s="6"/>
       <c r="F320" s="6"/>
     </row>
     <row r="321" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A321" s="3"/>
-      <c r="B321" s="4"/>
-      <c r="C321" s="5"/>
-      <c r="D321" s="6"/>
+      <c r="A321" s="3">
+        <v>385</v>
+      </c>
+      <c r="B321" s="4">
+        <v>44692</v>
+      </c>
+      <c r="C321" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="D321" s="7" t="s">
+        <v>587</v>
+      </c>
       <c r="E321" s="6"/>
       <c r="F321" s="6"/>
       <c r="G321" s="6"/>
     </row>
     <row r="322" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A322" s="3"/>
-      <c r="B322" s="4"/>
-      <c r="C322" s="5"/>
+      <c r="A322" s="3">
+        <v>386</v>
+      </c>
+      <c r="B322" s="4">
+        <v>44692</v>
+      </c>
+      <c r="C322" s="5" t="s">
+        <v>588</v>
+      </c>
+      <c r="D322" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E322" s="6"/>
       <c r="F322" s="6"/>
     </row>
     <row r="323" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A323" s="3"/>
-      <c r="B323" s="4"/>
-      <c r="C323" s="5"/>
-      <c r="D323" s="6"/>
+      <c r="A323" s="3">
+        <v>387</v>
+      </c>
+      <c r="B323" s="4">
+        <v>44692</v>
+      </c>
+      <c r="C323" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="D323" s="7" t="s">
+        <v>590</v>
+      </c>
       <c r="E323" s="6"/>
       <c r="F323" s="6"/>
       <c r="G323" s="6"/>
     </row>
     <row r="324" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A324" s="3"/>
-      <c r="B324" s="4"/>
-      <c r="C324" s="5"/>
+      <c r="A324" s="3">
+        <v>388</v>
+      </c>
+      <c r="B324" s="4">
+        <v>44692</v>
+      </c>
+      <c r="C324" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="D324" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="E324" s="6"/>
       <c r="F324" s="6"/>
     </row>
     <row r="325" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A325" s="3"/>
-      <c r="B325" s="4"/>
-      <c r="C325" s="5"/>
-      <c r="D325" s="6"/>
+      <c r="A325" s="3">
+        <v>389</v>
+      </c>
+      <c r="B325" s="4">
+        <v>44695</v>
+      </c>
+      <c r="C325" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="D325" s="7" t="s">
+        <v>593</v>
+      </c>
       <c r="E325" s="6"/>
       <c r="F325" s="6"/>
       <c r="G325" s="6"/>
     </row>
     <row r="326" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A326" s="3"/>
-      <c r="B326" s="4"/>
-      <c r="C326" s="5"/>
+      <c r="A326" s="3">
+        <v>390</v>
+      </c>
+      <c r="B326" s="4">
+        <v>44695</v>
+      </c>
+      <c r="C326" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="D326" s="6" t="s">
+        <v>595</v>
+      </c>
       <c r="E326" s="6"/>
       <c r="F326" s="6"/>
     </row>
     <row r="327" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A327" s="3"/>
-      <c r="B327" s="4"/>
-      <c r="C327" s="5"/>
-      <c r="D327" s="6"/>
+      <c r="A327" s="3">
+        <v>391</v>
+      </c>
+      <c r="B327" s="4">
+        <v>44695</v>
+      </c>
+      <c r="C327" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="D327" s="7" t="s">
+        <v>597</v>
+      </c>
       <c r="E327" s="6"/>
       <c r="F327" s="6"/>
       <c r="G327" s="6"/>
@@ -7385,6 +7601,7 @@
       <c r="A328" s="3"/>
       <c r="B328" s="4"/>
       <c r="C328" s="5"/>
+      <c r="D328" s="6"/>
       <c r="E328" s="6"/>
       <c r="F328" s="6"/>
     </row>
@@ -7392,7 +7609,6 @@
       <c r="A329" s="3"/>
       <c r="B329" s="4"/>
       <c r="C329" s="5"/>
-      <c r="D329" s="6"/>
       <c r="E329" s="6"/>
       <c r="F329" s="6"/>
       <c r="G329" s="6"/>
@@ -7401,6 +7617,7 @@
       <c r="A330" s="3"/>
       <c r="B330" s="4"/>
       <c r="C330" s="5"/>
+      <c r="D330" s="6"/>
       <c r="E330" s="6"/>
       <c r="F330" s="6"/>
     </row>
@@ -7408,7 +7625,6 @@
       <c r="A331" s="3"/>
       <c r="B331" s="4"/>
       <c r="C331" s="5"/>
-      <c r="D331" s="6"/>
       <c r="E331" s="6"/>
       <c r="F331" s="6"/>
       <c r="G331" s="6"/>
@@ -7417,6 +7633,7 @@
       <c r="A332" s="3"/>
       <c r="B332" s="4"/>
       <c r="C332" s="5"/>
+      <c r="D332" s="6"/>
       <c r="E332" s="6"/>
       <c r="F332" s="6"/>
     </row>
@@ -7424,7 +7641,6 @@
       <c r="A333" s="3"/>
       <c r="B333" s="4"/>
       <c r="C333" s="5"/>
-      <c r="D333" s="6"/>
       <c r="E333" s="6"/>
       <c r="F333" s="6"/>
       <c r="G333" s="6"/>
@@ -7433,6 +7649,7 @@
       <c r="A334" s="3"/>
       <c r="B334" s="4"/>
       <c r="C334" s="5"/>
+      <c r="D334" s="6"/>
       <c r="E334" s="6"/>
       <c r="F334" s="6"/>
     </row>
@@ -7440,7 +7657,6 @@
       <c r="A335" s="3"/>
       <c r="B335" s="4"/>
       <c r="C335" s="5"/>
-      <c r="D335" s="6"/>
       <c r="E335" s="6"/>
       <c r="F335" s="6"/>
       <c r="G335" s="6"/>
@@ -7449,6 +7665,7 @@
       <c r="A336" s="3"/>
       <c r="B336" s="4"/>
       <c r="C336" s="5"/>
+      <c r="D336" s="6"/>
       <c r="E336" s="6"/>
       <c r="F336" s="6"/>
     </row>
@@ -7456,7 +7673,6 @@
       <c r="A337" s="3"/>
       <c r="B337" s="4"/>
       <c r="C337" s="5"/>
-      <c r="D337" s="6"/>
       <c r="E337" s="6"/>
       <c r="F337" s="6"/>
       <c r="G337" s="6"/>
@@ -7465,6 +7681,7 @@
       <c r="A338" s="3"/>
       <c r="B338" s="4"/>
       <c r="C338" s="5"/>
+      <c r="D338" s="6"/>
       <c r="E338" s="6"/>
       <c r="F338" s="6"/>
     </row>
@@ -7472,7 +7689,6 @@
       <c r="A339" s="3"/>
       <c r="B339" s="4"/>
       <c r="C339" s="5"/>
-      <c r="D339" s="6"/>
       <c r="E339" s="6"/>
       <c r="F339" s="6"/>
       <c r="G339" s="6"/>
@@ -7481,6 +7697,7 @@
       <c r="A340" s="3"/>
       <c r="B340" s="4"/>
       <c r="C340" s="5"/>
+      <c r="D340" s="6"/>
       <c r="E340" s="6"/>
       <c r="F340" s="6"/>
     </row>
@@ -7488,7 +7705,6 @@
       <c r="A341" s="3"/>
       <c r="B341" s="4"/>
       <c r="C341" s="5"/>
-      <c r="D341" s="6"/>
       <c r="E341" s="6"/>
       <c r="F341" s="6"/>
       <c r="G341" s="6"/>
@@ -7497,6 +7713,7 @@
       <c r="A342" s="3"/>
       <c r="B342" s="4"/>
       <c r="C342" s="5"/>
+      <c r="D342" s="6"/>
       <c r="E342" s="6"/>
       <c r="F342" s="6"/>
     </row>
@@ -7504,7 +7721,6 @@
       <c r="A343" s="3"/>
       <c r="B343" s="4"/>
       <c r="C343" s="5"/>
-      <c r="D343" s="6"/>
       <c r="E343" s="6"/>
       <c r="F343" s="6"/>
       <c r="G343" s="6"/>
@@ -7513,6 +7729,7 @@
       <c r="A344" s="3"/>
       <c r="B344" s="4"/>
       <c r="C344" s="5"/>
+      <c r="D344" s="6"/>
       <c r="E344" s="6"/>
       <c r="F344" s="6"/>
     </row>
@@ -7520,7 +7737,6 @@
       <c r="A345" s="3"/>
       <c r="B345" s="4"/>
       <c r="C345" s="5"/>
-      <c r="D345" s="6"/>
       <c r="E345" s="6"/>
       <c r="F345" s="6"/>
       <c r="G345" s="6"/>
@@ -7529,6 +7745,7 @@
       <c r="A346" s="3"/>
       <c r="B346" s="4"/>
       <c r="C346" s="5"/>
+      <c r="D346" s="6"/>
       <c r="E346" s="6"/>
       <c r="F346" s="6"/>
     </row>
@@ -7536,7 +7753,6 @@
       <c r="A347" s="3"/>
       <c r="B347" s="4"/>
       <c r="C347" s="5"/>
-      <c r="D347" s="6"/>
       <c r="E347" s="6"/>
       <c r="F347" s="6"/>
       <c r="G347" s="6"/>
@@ -7545,6 +7761,7 @@
       <c r="A348" s="3"/>
       <c r="B348" s="4"/>
       <c r="C348" s="5"/>
+      <c r="D348" s="6"/>
       <c r="E348" s="6"/>
       <c r="F348" s="6"/>
     </row>
@@ -7552,7 +7769,6 @@
       <c r="A349" s="3"/>
       <c r="B349" s="4"/>
       <c r="C349" s="5"/>
-      <c r="D349" s="6"/>
       <c r="E349" s="6"/>
       <c r="F349" s="6"/>
       <c r="G349" s="6"/>
@@ -7561,6 +7777,7 @@
       <c r="A350" s="3"/>
       <c r="B350" s="4"/>
       <c r="C350" s="5"/>
+      <c r="D350" s="6"/>
       <c r="E350" s="6"/>
       <c r="F350" s="6"/>
     </row>
@@ -7568,7 +7785,6 @@
       <c r="A351" s="3"/>
       <c r="B351" s="4"/>
       <c r="C351" s="5"/>
-      <c r="D351" s="6"/>
       <c r="E351" s="6"/>
       <c r="F351" s="6"/>
       <c r="G351" s="6"/>
@@ -7577,6 +7793,7 @@
       <c r="A352" s="3"/>
       <c r="B352" s="4"/>
       <c r="C352" s="5"/>
+      <c r="D352" s="6"/>
       <c r="E352" s="6"/>
       <c r="F352" s="6"/>
     </row>
@@ -7584,7 +7801,6 @@
       <c r="A353" s="3"/>
       <c r="B353" s="4"/>
       <c r="C353" s="5"/>
-      <c r="D353" s="6"/>
       <c r="E353" s="6"/>
       <c r="F353" s="6"/>
       <c r="G353" s="6"/>
@@ -7593,6 +7809,7 @@
       <c r="A354" s="3"/>
       <c r="B354" s="4"/>
       <c r="C354" s="5"/>
+      <c r="D354" s="6"/>
       <c r="E354" s="6"/>
       <c r="F354" s="6"/>
     </row>
@@ -7600,7 +7817,6 @@
       <c r="A355" s="3"/>
       <c r="B355" s="4"/>
       <c r="C355" s="5"/>
-      <c r="D355" s="6"/>
       <c r="E355" s="6"/>
       <c r="F355" s="6"/>
       <c r="G355" s="6"/>
@@ -7609,6 +7825,7 @@
       <c r="A356" s="3"/>
       <c r="B356" s="4"/>
       <c r="C356" s="5"/>
+      <c r="D356" s="6"/>
       <c r="E356" s="6"/>
       <c r="F356" s="6"/>
     </row>
@@ -7616,7 +7833,6 @@
       <c r="A357" s="3"/>
       <c r="B357" s="4"/>
       <c r="C357" s="5"/>
-      <c r="D357" s="6"/>
       <c r="E357" s="6"/>
       <c r="F357" s="6"/>
       <c r="G357" s="6"/>
@@ -7625,6 +7841,7 @@
       <c r="A358" s="3"/>
       <c r="B358" s="4"/>
       <c r="C358" s="5"/>
+      <c r="D358" s="6"/>
       <c r="E358" s="6"/>
       <c r="F358" s="6"/>
     </row>
@@ -7632,7 +7849,6 @@
       <c r="A359" s="3"/>
       <c r="B359" s="4"/>
       <c r="C359" s="5"/>
-      <c r="D359" s="6"/>
       <c r="E359" s="6"/>
       <c r="F359" s="6"/>
       <c r="G359" s="6"/>
@@ -7641,6 +7857,7 @@
       <c r="A360" s="3"/>
       <c r="B360" s="4"/>
       <c r="C360" s="5"/>
+      <c r="D360" s="6"/>
       <c r="E360" s="6"/>
       <c r="F360" s="6"/>
     </row>
@@ -7648,7 +7865,6 @@
       <c r="A361" s="3"/>
       <c r="B361" s="4"/>
       <c r="C361" s="5"/>
-      <c r="D361" s="6"/>
       <c r="E361" s="6"/>
       <c r="F361" s="6"/>
       <c r="G361" s="6"/>
@@ -7657,6 +7873,7 @@
       <c r="A362" s="3"/>
       <c r="B362" s="4"/>
       <c r="C362" s="5"/>
+      <c r="D362" s="6"/>
       <c r="E362" s="6"/>
       <c r="F362" s="6"/>
     </row>
@@ -7664,7 +7881,6 @@
       <c r="A363" s="3"/>
       <c r="B363" s="4"/>
       <c r="C363" s="5"/>
-      <c r="D363" s="6"/>
       <c r="E363" s="6"/>
       <c r="F363" s="6"/>
       <c r="G363" s="6"/>
@@ -7673,6 +7889,7 @@
       <c r="A364" s="3"/>
       <c r="B364" s="4"/>
       <c r="C364" s="5"/>
+      <c r="D364" s="6"/>
       <c r="E364" s="6"/>
       <c r="F364" s="6"/>
     </row>
@@ -7680,7 +7897,6 @@
       <c r="A365" s="3"/>
       <c r="B365" s="4"/>
       <c r="C365" s="5"/>
-      <c r="D365" s="6"/>
       <c r="E365" s="6"/>
       <c r="F365" s="6"/>
       <c r="G365" s="6"/>
@@ -7689,6 +7905,7 @@
       <c r="A366" s="3"/>
       <c r="B366" s="4"/>
       <c r="C366" s="5"/>
+      <c r="D366" s="6"/>
       <c r="E366" s="6"/>
       <c r="F366" s="6"/>
     </row>
@@ -7696,7 +7913,6 @@
       <c r="A367" s="3"/>
       <c r="B367" s="4"/>
       <c r="C367" s="5"/>
-      <c r="D367" s="6"/>
       <c r="E367" s="6"/>
       <c r="F367" s="6"/>
       <c r="G367" s="6"/>
@@ -7705,6 +7921,7 @@
       <c r="A368" s="3"/>
       <c r="B368" s="4"/>
       <c r="C368" s="5"/>
+      <c r="D368" s="6"/>
       <c r="E368" s="6"/>
       <c r="F368" s="6"/>
     </row>
@@ -7712,7 +7929,6 @@
       <c r="A369" s="3"/>
       <c r="B369" s="4"/>
       <c r="C369" s="5"/>
-      <c r="D369" s="6"/>
       <c r="E369" s="6"/>
       <c r="F369" s="6"/>
       <c r="G369" s="6"/>
@@ -7721,6 +7937,7 @@
       <c r="A370" s="3"/>
       <c r="B370" s="4"/>
       <c r="C370" s="5"/>
+      <c r="D370" s="6"/>
       <c r="E370" s="6"/>
       <c r="F370" s="6"/>
     </row>
@@ -7728,7 +7945,6 @@
       <c r="A371" s="3"/>
       <c r="B371" s="4"/>
       <c r="C371" s="5"/>
-      <c r="D371" s="6"/>
       <c r="E371" s="6"/>
       <c r="F371" s="6"/>
       <c r="G371" s="6"/>
@@ -7737,6 +7953,7 @@
       <c r="A372" s="3"/>
       <c r="B372" s="4"/>
       <c r="C372" s="5"/>
+      <c r="D372" s="6"/>
       <c r="E372" s="6"/>
       <c r="F372" s="6"/>
     </row>
@@ -7744,7 +7961,6 @@
       <c r="A373" s="3"/>
       <c r="B373" s="4"/>
       <c r="C373" s="5"/>
-      <c r="D373" s="6"/>
       <c r="E373" s="6"/>
       <c r="F373" s="6"/>
       <c r="G373" s="6"/>
@@ -7753,6 +7969,7 @@
       <c r="A374" s="3"/>
       <c r="B374" s="4"/>
       <c r="C374" s="5"/>
+      <c r="D374" s="6"/>
       <c r="E374" s="6"/>
       <c r="F374" s="6"/>
     </row>
@@ -7760,7 +7977,6 @@
       <c r="A375" s="3"/>
       <c r="B375" s="4"/>
       <c r="C375" s="5"/>
-      <c r="D375" s="6"/>
       <c r="E375" s="6"/>
       <c r="F375" s="6"/>
       <c r="G375" s="6"/>
@@ -7769,6 +7985,7 @@
       <c r="A376" s="3"/>
       <c r="B376" s="4"/>
       <c r="C376" s="5"/>
+      <c r="D376" s="6"/>
       <c r="E376" s="6"/>
       <c r="F376" s="6"/>
     </row>
@@ -7776,7 +7993,6 @@
       <c r="A377" s="3"/>
       <c r="B377" s="4"/>
       <c r="C377" s="5"/>
-      <c r="D377" s="6"/>
       <c r="E377" s="6"/>
       <c r="F377" s="6"/>
       <c r="G377" s="6"/>
@@ -7785,6 +8001,7 @@
       <c r="A378" s="3"/>
       <c r="B378" s="4"/>
       <c r="C378" s="5"/>
+      <c r="D378" s="6"/>
       <c r="E378" s="6"/>
       <c r="F378" s="6"/>
     </row>
@@ -7792,7 +8009,6 @@
       <c r="A379" s="3"/>
       <c r="B379" s="4"/>
       <c r="C379" s="5"/>
-      <c r="D379" s="6"/>
       <c r="E379" s="6"/>
       <c r="F379" s="6"/>
       <c r="G379" s="6"/>
@@ -7801,6 +8017,7 @@
       <c r="A380" s="3"/>
       <c r="B380" s="4"/>
       <c r="C380" s="5"/>
+      <c r="D380" s="6"/>
       <c r="E380" s="6"/>
       <c r="F380" s="6"/>
     </row>
@@ -7808,7 +8025,6 @@
       <c r="A381" s="3"/>
       <c r="B381" s="4"/>
       <c r="C381" s="5"/>
-      <c r="D381" s="6"/>
       <c r="E381" s="6"/>
       <c r="F381" s="6"/>
       <c r="G381" s="6"/>
@@ -7817,6 +8033,7 @@
       <c r="A382" s="3"/>
       <c r="B382" s="4"/>
       <c r="C382" s="5"/>
+      <c r="D382" s="6"/>
       <c r="E382" s="6"/>
       <c r="F382" s="6"/>
     </row>
@@ -7824,7 +8041,6 @@
       <c r="A383" s="3"/>
       <c r="B383" s="4"/>
       <c r="C383" s="5"/>
-      <c r="D383" s="6"/>
       <c r="E383" s="6"/>
       <c r="F383" s="6"/>
       <c r="G383" s="6"/>
@@ -7833,6 +8049,7 @@
       <c r="A384" s="3"/>
       <c r="B384" s="4"/>
       <c r="C384" s="5"/>
+      <c r="D384" s="6"/>
       <c r="E384" s="6"/>
       <c r="F384" s="6"/>
     </row>
@@ -7840,7 +8057,6 @@
       <c r="A385" s="3"/>
       <c r="B385" s="4"/>
       <c r="C385" s="5"/>
-      <c r="D385" s="6"/>
       <c r="E385" s="6"/>
       <c r="F385" s="6"/>
       <c r="G385" s="6"/>
@@ -7849,6 +8065,7 @@
       <c r="A386" s="3"/>
       <c r="B386" s="4"/>
       <c r="C386" s="5"/>
+      <c r="D386" s="6"/>
       <c r="E386" s="6"/>
       <c r="F386" s="6"/>
     </row>
@@ -7856,7 +8073,6 @@
       <c r="A387" s="3"/>
       <c r="B387" s="4"/>
       <c r="C387" s="5"/>
-      <c r="D387" s="6"/>
       <c r="E387" s="6"/>
       <c r="F387" s="6"/>
       <c r="G387" s="6"/>
@@ -7865,6 +8081,7 @@
       <c r="A388" s="3"/>
       <c r="B388" s="4"/>
       <c r="C388" s="5"/>
+      <c r="D388" s="6"/>
       <c r="E388" s="6"/>
       <c r="F388" s="6"/>
     </row>
@@ -7872,7 +8089,6 @@
       <c r="A389" s="3"/>
       <c r="B389" s="4"/>
       <c r="C389" s="5"/>
-      <c r="D389" s="6"/>
       <c r="E389" s="6"/>
       <c r="F389" s="6"/>
       <c r="G389" s="6"/>
@@ -7881,6 +8097,7 @@
       <c r="A390" s="3"/>
       <c r="B390" s="4"/>
       <c r="C390" s="5"/>
+      <c r="D390" s="6"/>
       <c r="E390" s="6"/>
       <c r="F390" s="6"/>
     </row>
@@ -7888,7 +8105,6 @@
       <c r="A391" s="3"/>
       <c r="B391" s="4"/>
       <c r="C391" s="5"/>
-      <c r="D391" s="6"/>
       <c r="E391" s="6"/>
       <c r="F391" s="6"/>
       <c r="G391" s="6"/>
@@ -7897,6 +8113,7 @@
       <c r="A392" s="3"/>
       <c r="B392" s="4"/>
       <c r="C392" s="5"/>
+      <c r="D392" s="6"/>
       <c r="E392" s="6"/>
       <c r="F392" s="6"/>
     </row>
@@ -7904,7 +8121,6 @@
       <c r="A393" s="3"/>
       <c r="B393" s="4"/>
       <c r="C393" s="5"/>
-      <c r="D393" s="6"/>
       <c r="E393" s="6"/>
       <c r="F393" s="6"/>
       <c r="G393" s="6"/>
@@ -7913,6 +8129,7 @@
       <c r="A394" s="3"/>
       <c r="B394" s="4"/>
       <c r="C394" s="5"/>
+      <c r="D394" s="6"/>
       <c r="E394" s="6"/>
       <c r="F394" s="6"/>
     </row>
@@ -7920,7 +8137,6 @@
       <c r="A395" s="3"/>
       <c r="B395" s="4"/>
       <c r="C395" s="5"/>
-      <c r="D395" s="6"/>
       <c r="E395" s="6"/>
       <c r="F395" s="6"/>
       <c r="G395" s="6"/>
@@ -7929,6 +8145,7 @@
       <c r="A396" s="3"/>
       <c r="B396" s="4"/>
       <c r="C396" s="5"/>
+      <c r="D396" s="6"/>
       <c r="E396" s="6"/>
       <c r="F396" s="6"/>
     </row>
@@ -7936,7 +8153,6 @@
       <c r="A397" s="3"/>
       <c r="B397" s="4"/>
       <c r="C397" s="5"/>
-      <c r="D397" s="6"/>
       <c r="E397" s="6"/>
       <c r="F397" s="6"/>
       <c r="G397" s="6"/>
@@ -7945,6 +8161,7 @@
       <c r="A398" s="3"/>
       <c r="B398" s="4"/>
       <c r="C398" s="5"/>
+      <c r="D398" s="6"/>
       <c r="E398" s="6"/>
       <c r="F398" s="6"/>
     </row>
@@ -7952,7 +8169,6 @@
       <c r="A399" s="3"/>
       <c r="B399" s="4"/>
       <c r="C399" s="5"/>
-      <c r="D399" s="6"/>
       <c r="E399" s="6"/>
       <c r="F399" s="6"/>
       <c r="G399" s="6"/>
@@ -7961,6 +8177,7 @@
       <c r="A400" s="3"/>
       <c r="B400" s="4"/>
       <c r="C400" s="5"/>
+      <c r="D400" s="6"/>
       <c r="E400" s="6"/>
       <c r="F400" s="6"/>
     </row>
@@ -7968,7 +8185,6 @@
       <c r="A401" s="3"/>
       <c r="B401" s="4"/>
       <c r="C401" s="5"/>
-      <c r="D401" s="6"/>
       <c r="E401" s="6"/>
       <c r="F401" s="6"/>
       <c r="G401" s="6"/>
@@ -7977,6 +8193,7 @@
       <c r="A402" s="3"/>
       <c r="B402" s="4"/>
       <c r="C402" s="5"/>
+      <c r="D402" s="6"/>
       <c r="E402" s="6"/>
       <c r="F402" s="6"/>
     </row>
@@ -7984,7 +8201,6 @@
       <c r="A403" s="3"/>
       <c r="B403" s="4"/>
       <c r="C403" s="5"/>
-      <c r="D403" s="6"/>
       <c r="E403" s="6"/>
       <c r="F403" s="6"/>
       <c r="G403" s="6"/>
@@ -7993,6 +8209,7 @@
       <c r="A404" s="3"/>
       <c r="B404" s="4"/>
       <c r="C404" s="5"/>
+      <c r="D404" s="6"/>
       <c r="E404" s="6"/>
       <c r="F404" s="6"/>
     </row>
@@ -8000,7 +8217,6 @@
       <c r="A405" s="3"/>
       <c r="B405" s="4"/>
       <c r="C405" s="5"/>
-      <c r="D405" s="6"/>
       <c r="E405" s="6"/>
       <c r="F405" s="6"/>
       <c r="G405" s="6"/>
@@ -8009,6 +8225,7 @@
       <c r="A406" s="3"/>
       <c r="B406" s="4"/>
       <c r="C406" s="5"/>
+      <c r="D406" s="6"/>
       <c r="E406" s="6"/>
       <c r="F406" s="6"/>
     </row>
@@ -8016,7 +8233,6 @@
       <c r="A407" s="3"/>
       <c r="B407" s="4"/>
       <c r="C407" s="5"/>
-      <c r="D407" s="6"/>
       <c r="E407" s="6"/>
       <c r="F407" s="6"/>
       <c r="G407" s="6"/>
@@ -8025,6 +8241,7 @@
       <c r="A408" s="3"/>
       <c r="B408" s="4"/>
       <c r="C408" s="5"/>
+      <c r="D408" s="6"/>
       <c r="E408" s="6"/>
       <c r="F408" s="6"/>
     </row>
@@ -8032,7 +8249,6 @@
       <c r="A409" s="3"/>
       <c r="B409" s="4"/>
       <c r="C409" s="5"/>
-      <c r="D409" s="6"/>
       <c r="E409" s="6"/>
       <c r="F409" s="6"/>
       <c r="G409" s="6"/>
@@ -8041,6 +8257,7 @@
       <c r="A410" s="3"/>
       <c r="B410" s="4"/>
       <c r="C410" s="5"/>
+      <c r="D410" s="6"/>
       <c r="E410" s="6"/>
       <c r="F410" s="6"/>
     </row>
@@ -8048,7 +8265,6 @@
       <c r="A411" s="3"/>
       <c r="B411" s="4"/>
       <c r="C411" s="5"/>
-      <c r="D411" s="6"/>
       <c r="E411" s="6"/>
       <c r="F411" s="6"/>
       <c r="G411" s="6"/>
@@ -8057,6 +8273,7 @@
       <c r="A412" s="3"/>
       <c r="B412" s="4"/>
       <c r="C412" s="5"/>
+      <c r="D412" s="6"/>
       <c r="E412" s="6"/>
       <c r="F412" s="6"/>
     </row>
@@ -8064,7 +8281,6 @@
       <c r="A413" s="3"/>
       <c r="B413" s="4"/>
       <c r="C413" s="5"/>
-      <c r="D413" s="6"/>
       <c r="E413" s="6"/>
       <c r="F413" s="6"/>
       <c r="G413" s="6"/>
@@ -8073,6 +8289,7 @@
       <c r="A414" s="3"/>
       <c r="B414" s="4"/>
       <c r="C414" s="5"/>
+      <c r="D414" s="6"/>
       <c r="E414" s="6"/>
       <c r="F414" s="6"/>
     </row>
@@ -8080,7 +8297,6 @@
       <c r="A415" s="3"/>
       <c r="B415" s="4"/>
       <c r="C415" s="5"/>
-      <c r="D415" s="6"/>
       <c r="E415" s="6"/>
       <c r="F415" s="6"/>
       <c r="G415" s="6"/>
@@ -8089,6 +8305,7 @@
       <c r="A416" s="3"/>
       <c r="B416" s="4"/>
       <c r="C416" s="5"/>
+      <c r="D416" s="6"/>
       <c r="E416" s="6"/>
       <c r="F416" s="6"/>
     </row>
@@ -8096,7 +8313,6 @@
       <c r="A417" s="3"/>
       <c r="B417" s="4"/>
       <c r="C417" s="5"/>
-      <c r="D417" s="6"/>
       <c r="E417" s="6"/>
       <c r="F417" s="6"/>
       <c r="G417" s="6"/>
@@ -8105,6 +8321,7 @@
       <c r="A418" s="3"/>
       <c r="B418" s="4"/>
       <c r="C418" s="5"/>
+      <c r="D418" s="6"/>
       <c r="E418" s="6"/>
       <c r="F418" s="6"/>
     </row>
@@ -8112,7 +8329,6 @@
       <c r="A419" s="3"/>
       <c r="B419" s="4"/>
       <c r="C419" s="5"/>
-      <c r="D419" s="6"/>
       <c r="E419" s="6"/>
       <c r="F419" s="6"/>
       <c r="G419" s="6"/>
@@ -8121,6 +8337,7 @@
       <c r="A420" s="3"/>
       <c r="B420" s="4"/>
       <c r="C420" s="5"/>
+      <c r="D420" s="6"/>
       <c r="E420" s="6"/>
       <c r="F420" s="6"/>
     </row>
@@ -8128,7 +8345,6 @@
       <c r="A421" s="3"/>
       <c r="B421" s="4"/>
       <c r="C421" s="5"/>
-      <c r="D421" s="6"/>
       <c r="E421" s="6"/>
       <c r="F421" s="6"/>
       <c r="G421" s="6"/>
@@ -8137,6 +8353,7 @@
       <c r="A422" s="3"/>
       <c r="B422" s="4"/>
       <c r="C422" s="5"/>
+      <c r="D422" s="6"/>
       <c r="E422" s="6"/>
       <c r="F422" s="6"/>
     </row>
@@ -8144,7 +8361,6 @@
       <c r="A423" s="3"/>
       <c r="B423" s="4"/>
       <c r="C423" s="5"/>
-      <c r="D423" s="6"/>
       <c r="E423" s="6"/>
       <c r="F423" s="6"/>
       <c r="G423" s="6"/>
@@ -8153,6 +8369,7 @@
       <c r="A424" s="3"/>
       <c r="B424" s="4"/>
       <c r="C424" s="5"/>
+      <c r="D424" s="6"/>
       <c r="E424" s="6"/>
       <c r="F424" s="6"/>
     </row>
@@ -8160,7 +8377,6 @@
       <c r="A425" s="3"/>
       <c r="B425" s="4"/>
       <c r="C425" s="5"/>
-      <c r="D425" s="6"/>
       <c r="E425" s="6"/>
       <c r="F425" s="6"/>
       <c r="G425" s="6"/>
@@ -8169,6 +8385,7 @@
       <c r="A426" s="3"/>
       <c r="B426" s="4"/>
       <c r="C426" s="5"/>
+      <c r="D426" s="6"/>
       <c r="E426" s="6"/>
       <c r="F426" s="6"/>
     </row>
@@ -8176,7 +8393,6 @@
       <c r="A427" s="3"/>
       <c r="B427" s="4"/>
       <c r="C427" s="5"/>
-      <c r="D427" s="6"/>
       <c r="E427" s="6"/>
       <c r="F427" s="6"/>
       <c r="G427" s="6"/>
@@ -8185,6 +8401,7 @@
       <c r="A428" s="3"/>
       <c r="B428" s="4"/>
       <c r="C428" s="5"/>
+      <c r="D428" s="6"/>
       <c r="E428" s="6"/>
       <c r="F428" s="6"/>
     </row>
@@ -8192,7 +8409,6 @@
       <c r="A429" s="3"/>
       <c r="B429" s="4"/>
       <c r="C429" s="5"/>
-      <c r="D429" s="6"/>
       <c r="E429" s="6"/>
       <c r="F429" s="6"/>
       <c r="G429" s="6"/>
@@ -8201,6 +8417,7 @@
       <c r="A430" s="3"/>
       <c r="B430" s="4"/>
       <c r="C430" s="5"/>
+      <c r="D430" s="6"/>
       <c r="E430" s="6"/>
       <c r="F430" s="6"/>
     </row>
@@ -8208,7 +8425,6 @@
       <c r="A431" s="3"/>
       <c r="B431" s="4"/>
       <c r="C431" s="5"/>
-      <c r="D431" s="6"/>
       <c r="E431" s="6"/>
       <c r="F431" s="6"/>
       <c r="G431" s="6"/>
@@ -8217,6 +8433,7 @@
       <c r="A432" s="3"/>
       <c r="B432" s="4"/>
       <c r="C432" s="5"/>
+      <c r="D432" s="6"/>
       <c r="E432" s="6"/>
       <c r="F432" s="6"/>
     </row>
@@ -8224,7 +8441,6 @@
       <c r="A433" s="3"/>
       <c r="B433" s="4"/>
       <c r="C433" s="5"/>
-      <c r="D433" s="6"/>
       <c r="E433" s="6"/>
       <c r="F433" s="6"/>
       <c r="G433" s="6"/>
@@ -8233,6 +8449,7 @@
       <c r="A434" s="3"/>
       <c r="B434" s="4"/>
       <c r="C434" s="5"/>
+      <c r="D434" s="6"/>
       <c r="E434" s="6"/>
       <c r="F434" s="6"/>
     </row>
@@ -8240,7 +8457,6 @@
       <c r="A435" s="3"/>
       <c r="B435" s="4"/>
       <c r="C435" s="5"/>
-      <c r="D435" s="6"/>
       <c r="E435" s="6"/>
       <c r="F435" s="6"/>
       <c r="G435" s="6"/>
@@ -8249,6 +8465,7 @@
       <c r="A436" s="3"/>
       <c r="B436" s="4"/>
       <c r="C436" s="5"/>
+      <c r="D436" s="6"/>
       <c r="E436" s="6"/>
       <c r="F436" s="6"/>
     </row>
@@ -8256,7 +8473,6 @@
       <c r="A437" s="3"/>
       <c r="B437" s="4"/>
       <c r="C437" s="5"/>
-      <c r="D437" s="6"/>
       <c r="E437" s="6"/>
       <c r="F437" s="6"/>
       <c r="G437" s="6"/>
@@ -8265,6 +8481,7 @@
       <c r="A438" s="3"/>
       <c r="B438" s="4"/>
       <c r="C438" s="5"/>
+      <c r="D438" s="6"/>
       <c r="E438" s="6"/>
       <c r="F438" s="6"/>
     </row>
@@ -8272,7 +8489,6 @@
       <c r="A439" s="3"/>
       <c r="B439" s="4"/>
       <c r="C439" s="5"/>
-      <c r="D439" s="6"/>
       <c r="E439" s="6"/>
       <c r="F439" s="6"/>
       <c r="G439" s="6"/>
@@ -8281,6 +8497,7 @@
       <c r="A440" s="3"/>
       <c r="B440" s="4"/>
       <c r="C440" s="5"/>
+      <c r="D440" s="6"/>
       <c r="E440" s="6"/>
       <c r="F440" s="6"/>
     </row>
@@ -8288,7 +8505,6 @@
       <c r="A441" s="3"/>
       <c r="B441" s="4"/>
       <c r="C441" s="5"/>
-      <c r="D441" s="6"/>
       <c r="E441" s="6"/>
       <c r="F441" s="6"/>
       <c r="G441" s="6"/>
@@ -8297,6 +8513,7 @@
       <c r="A442" s="3"/>
       <c r="B442" s="4"/>
       <c r="C442" s="5"/>
+      <c r="D442" s="6"/>
       <c r="E442" s="6"/>
       <c r="F442" s="6"/>
     </row>
@@ -8304,7 +8521,6 @@
       <c r="A443" s="3"/>
       <c r="B443" s="4"/>
       <c r="C443" s="5"/>
-      <c r="D443" s="6"/>
       <c r="E443" s="6"/>
       <c r="F443" s="6"/>
       <c r="G443" s="6"/>
@@ -8313,6 +8529,7 @@
       <c r="A444" s="3"/>
       <c r="B444" s="4"/>
       <c r="C444" s="5"/>
+      <c r="D444" s="6"/>
       <c r="E444" s="6"/>
       <c r="F444" s="6"/>
     </row>
@@ -8320,7 +8537,6 @@
       <c r="A445" s="3"/>
       <c r="B445" s="4"/>
       <c r="C445" s="5"/>
-      <c r="D445" s="6"/>
       <c r="E445" s="6"/>
       <c r="F445" s="6"/>
       <c r="G445" s="6"/>
@@ -8329,6 +8545,7 @@
       <c r="A446" s="3"/>
       <c r="B446" s="4"/>
       <c r="C446" s="5"/>
+      <c r="D446" s="6"/>
       <c r="E446" s="6"/>
       <c r="F446" s="6"/>
     </row>
@@ -8336,7 +8553,6 @@
       <c r="A447" s="3"/>
       <c r="B447" s="4"/>
       <c r="C447" s="5"/>
-      <c r="D447" s="6"/>
       <c r="E447" s="6"/>
       <c r="F447" s="6"/>
       <c r="G447" s="6"/>
@@ -8345,6 +8561,7 @@
       <c r="A448" s="3"/>
       <c r="B448" s="4"/>
       <c r="C448" s="5"/>
+      <c r="D448" s="6"/>
       <c r="E448" s="6"/>
       <c r="F448" s="6"/>
     </row>
@@ -8352,7 +8569,6 @@
       <c r="A449" s="3"/>
       <c r="B449" s="4"/>
       <c r="C449" s="5"/>
-      <c r="D449" s="6"/>
       <c r="E449" s="6"/>
       <c r="F449" s="6"/>
       <c r="G449" s="6"/>
@@ -8361,6 +8577,7 @@
       <c r="A450" s="3"/>
       <c r="B450" s="4"/>
       <c r="C450" s="5"/>
+      <c r="D450" s="6"/>
       <c r="E450" s="6"/>
       <c r="F450" s="6"/>
     </row>
@@ -8368,7 +8585,6 @@
       <c r="A451" s="3"/>
       <c r="B451" s="4"/>
       <c r="C451" s="5"/>
-      <c r="D451" s="6"/>
       <c r="E451" s="6"/>
       <c r="F451" s="6"/>
       <c r="G451" s="6"/>
@@ -8377,6 +8593,7 @@
       <c r="A452" s="3"/>
       <c r="B452" s="4"/>
       <c r="C452" s="5"/>
+      <c r="D452" s="6"/>
       <c r="E452" s="6"/>
       <c r="F452" s="6"/>
     </row>
@@ -8384,7 +8601,6 @@
       <c r="A453" s="3"/>
       <c r="B453" s="4"/>
       <c r="C453" s="5"/>
-      <c r="D453" s="6"/>
       <c r="E453" s="6"/>
       <c r="F453" s="6"/>
       <c r="G453" s="6"/>
@@ -8393,6 +8609,7 @@
       <c r="A454" s="3"/>
       <c r="B454" s="4"/>
       <c r="C454" s="5"/>
+      <c r="D454" s="6"/>
       <c r="E454" s="6"/>
       <c r="F454" s="6"/>
     </row>
@@ -8400,7 +8617,6 @@
       <c r="A455" s="3"/>
       <c r="B455" s="4"/>
       <c r="C455" s="5"/>
-      <c r="D455" s="6"/>
       <c r="E455" s="6"/>
       <c r="F455" s="6"/>
       <c r="G455" s="6"/>
@@ -8409,6 +8625,7 @@
       <c r="A456" s="3"/>
       <c r="B456" s="4"/>
       <c r="C456" s="5"/>
+      <c r="D456" s="6"/>
       <c r="E456" s="6"/>
       <c r="F456" s="6"/>
     </row>
@@ -8416,7 +8633,6 @@
       <c r="A457" s="3"/>
       <c r="B457" s="4"/>
       <c r="C457" s="5"/>
-      <c r="D457" s="6"/>
       <c r="E457" s="6"/>
       <c r="F457" s="6"/>
       <c r="G457" s="6"/>
@@ -8425,6 +8641,7 @@
       <c r="A458" s="3"/>
       <c r="B458" s="4"/>
       <c r="C458" s="5"/>
+      <c r="D458" s="6"/>
       <c r="E458" s="6"/>
       <c r="F458" s="6"/>
     </row>
@@ -8432,7 +8649,6 @@
       <c r="A459" s="3"/>
       <c r="B459" s="4"/>
       <c r="C459" s="5"/>
-      <c r="D459" s="6"/>
       <c r="E459" s="6"/>
       <c r="F459" s="6"/>
       <c r="G459" s="6"/>
@@ -8441,6 +8657,7 @@
       <c r="A460" s="3"/>
       <c r="B460" s="4"/>
       <c r="C460" s="5"/>
+      <c r="D460" s="6"/>
       <c r="E460" s="6"/>
       <c r="F460" s="6"/>
     </row>
@@ -8448,7 +8665,6 @@
       <c r="A461" s="3"/>
       <c r="B461" s="4"/>
       <c r="C461" s="5"/>
-      <c r="D461" s="6"/>
       <c r="E461" s="6"/>
       <c r="F461" s="6"/>
       <c r="G461" s="6"/>
@@ -8457,6 +8673,7 @@
       <c r="A462" s="3"/>
       <c r="B462" s="4"/>
       <c r="C462" s="5"/>
+      <c r="D462" s="6"/>
       <c r="E462" s="6"/>
       <c r="F462" s="6"/>
     </row>
@@ -8464,7 +8681,6 @@
       <c r="A463" s="3"/>
       <c r="B463" s="4"/>
       <c r="C463" s="5"/>
-      <c r="D463" s="6"/>
       <c r="E463" s="6"/>
       <c r="F463" s="6"/>
       <c r="G463" s="6"/>
@@ -8473,6 +8689,7 @@
       <c r="A464" s="3"/>
       <c r="B464" s="4"/>
       <c r="C464" s="5"/>
+      <c r="D464" s="6"/>
       <c r="E464" s="6"/>
       <c r="F464" s="6"/>
     </row>
@@ -8480,7 +8697,6 @@
       <c r="A465" s="3"/>
       <c r="B465" s="4"/>
       <c r="C465" s="5"/>
-      <c r="D465" s="6"/>
       <c r="E465" s="6"/>
       <c r="F465" s="6"/>
       <c r="G465" s="6"/>
@@ -8489,6 +8705,7 @@
       <c r="A466" s="3"/>
       <c r="B466" s="4"/>
       <c r="C466" s="5"/>
+      <c r="D466" s="6"/>
       <c r="E466" s="6"/>
       <c r="F466" s="6"/>
     </row>
@@ -8496,7 +8713,6 @@
       <c r="A467" s="3"/>
       <c r="B467" s="4"/>
       <c r="C467" s="5"/>
-      <c r="D467" s="6"/>
       <c r="E467" s="6"/>
       <c r="F467" s="6"/>
       <c r="G467" s="6"/>
@@ -8505,6 +8721,7 @@
       <c r="A468" s="3"/>
       <c r="B468" s="4"/>
       <c r="C468" s="5"/>
+      <c r="D468" s="6"/>
       <c r="E468" s="6"/>
       <c r="F468" s="6"/>
     </row>
@@ -8512,7 +8729,6 @@
       <c r="A469" s="3"/>
       <c r="B469" s="4"/>
       <c r="C469" s="5"/>
-      <c r="D469" s="6"/>
       <c r="E469" s="6"/>
       <c r="F469" s="6"/>
       <c r="G469" s="6"/>
@@ -8521,6 +8737,7 @@
       <c r="A470" s="3"/>
       <c r="B470" s="4"/>
       <c r="C470" s="5"/>
+      <c r="D470" s="6"/>
       <c r="E470" s="6"/>
       <c r="F470" s="6"/>
     </row>
@@ -8528,7 +8745,6 @@
       <c r="A471" s="3"/>
       <c r="B471" s="4"/>
       <c r="C471" s="5"/>
-      <c r="D471" s="6"/>
       <c r="E471" s="6"/>
       <c r="F471" s="6"/>
       <c r="G471" s="6"/>
@@ -8537,6 +8753,7 @@
       <c r="A472" s="3"/>
       <c r="B472" s="4"/>
       <c r="C472" s="5"/>
+      <c r="D472" s="6"/>
       <c r="E472" s="6"/>
       <c r="F472" s="6"/>
     </row>
@@ -8544,7 +8761,6 @@
       <c r="A473" s="3"/>
       <c r="B473" s="4"/>
       <c r="C473" s="5"/>
-      <c r="D473" s="6"/>
       <c r="E473" s="6"/>
       <c r="F473" s="6"/>
       <c r="G473" s="6"/>
@@ -8553,6 +8769,7 @@
       <c r="A474" s="3"/>
       <c r="B474" s="4"/>
       <c r="C474" s="5"/>
+      <c r="D474" s="6"/>
       <c r="E474" s="6"/>
       <c r="F474" s="6"/>
     </row>
@@ -8560,7 +8777,6 @@
       <c r="A475" s="3"/>
       <c r="B475" s="4"/>
       <c r="C475" s="5"/>
-      <c r="D475" s="6"/>
       <c r="E475" s="6"/>
       <c r="F475" s="6"/>
       <c r="G475" s="6"/>
@@ -8569,6 +8785,7 @@
       <c r="A476" s="3"/>
       <c r="B476" s="4"/>
       <c r="C476" s="5"/>
+      <c r="D476" s="6"/>
       <c r="E476" s="6"/>
       <c r="F476" s="6"/>
     </row>
@@ -8576,7 +8793,6 @@
       <c r="A477" s="3"/>
       <c r="B477" s="4"/>
       <c r="C477" s="5"/>
-      <c r="D477" s="6"/>
       <c r="E477" s="6"/>
       <c r="F477" s="6"/>
       <c r="G477" s="6"/>
@@ -8585,6 +8801,7 @@
       <c r="A478" s="3"/>
       <c r="B478" s="4"/>
       <c r="C478" s="5"/>
+      <c r="D478" s="6"/>
       <c r="E478" s="6"/>
       <c r="F478" s="6"/>
     </row>
@@ -8592,7 +8809,6 @@
       <c r="A479" s="3"/>
       <c r="B479" s="4"/>
       <c r="C479" s="5"/>
-      <c r="D479" s="6"/>
       <c r="E479" s="6"/>
       <c r="F479" s="6"/>
       <c r="G479" s="6"/>
@@ -8601,6 +8817,7 @@
       <c r="A480" s="3"/>
       <c r="B480" s="4"/>
       <c r="C480" s="5"/>
+      <c r="D480" s="6"/>
       <c r="E480" s="6"/>
       <c r="F480" s="6"/>
     </row>
@@ -8608,7 +8825,6 @@
       <c r="A481" s="3"/>
       <c r="B481" s="4"/>
       <c r="C481" s="5"/>
-      <c r="D481" s="6"/>
       <c r="E481" s="6"/>
       <c r="F481" s="6"/>
       <c r="G481" s="6"/>
@@ -8617,6 +8833,7 @@
       <c r="A482" s="3"/>
       <c r="B482" s="4"/>
       <c r="C482" s="5"/>
+      <c r="D482" s="6"/>
       <c r="E482" s="6"/>
       <c r="F482" s="6"/>
     </row>
@@ -8624,7 +8841,6 @@
       <c r="A483" s="3"/>
       <c r="B483" s="4"/>
       <c r="C483" s="5"/>
-      <c r="D483" s="6"/>
       <c r="E483" s="6"/>
       <c r="F483" s="6"/>
       <c r="G483" s="6"/>
@@ -8633,6 +8849,7 @@
       <c r="A484" s="3"/>
       <c r="B484" s="4"/>
       <c r="C484" s="5"/>
+      <c r="D484" s="6"/>
       <c r="E484" s="6"/>
       <c r="F484" s="6"/>
     </row>
@@ -8640,7 +8857,6 @@
       <c r="A485" s="3"/>
       <c r="B485" s="4"/>
       <c r="C485" s="5"/>
-      <c r="D485" s="6"/>
       <c r="E485" s="6"/>
       <c r="F485" s="6"/>
       <c r="G485" s="6"/>
@@ -8649,6 +8865,7 @@
       <c r="A486" s="3"/>
       <c r="B486" s="4"/>
       <c r="C486" s="5"/>
+      <c r="D486" s="6"/>
       <c r="E486" s="6"/>
       <c r="F486" s="6"/>
     </row>
@@ -8656,7 +8873,6 @@
       <c r="A487" s="3"/>
       <c r="B487" s="4"/>
       <c r="C487" s="5"/>
-      <c r="D487" s="6"/>
       <c r="E487" s="6"/>
       <c r="F487" s="6"/>
       <c r="G487" s="6"/>
@@ -8665,6 +8881,7 @@
       <c r="A488" s="3"/>
       <c r="B488" s="4"/>
       <c r="C488" s="5"/>
+      <c r="D488" s="6"/>
       <c r="E488" s="6"/>
       <c r="F488" s="6"/>
     </row>
@@ -8672,7 +8889,6 @@
       <c r="A489" s="3"/>
       <c r="B489" s="4"/>
       <c r="C489" s="5"/>
-      <c r="D489" s="6"/>
       <c r="E489" s="6"/>
       <c r="F489" s="6"/>
       <c r="G489" s="6"/>
@@ -8681,6 +8897,7 @@
       <c r="A490" s="3"/>
       <c r="B490" s="4"/>
       <c r="C490" s="5"/>
+      <c r="D490" s="6"/>
       <c r="E490" s="6"/>
       <c r="F490" s="6"/>
     </row>
@@ -8688,7 +8905,6 @@
       <c r="A491" s="3"/>
       <c r="B491" s="4"/>
       <c r="C491" s="5"/>
-      <c r="D491" s="6"/>
       <c r="E491" s="6"/>
       <c r="F491" s="6"/>
       <c r="G491" s="6"/>
@@ -8697,6 +8913,7 @@
       <c r="A492" s="3"/>
       <c r="B492" s="4"/>
       <c r="C492" s="5"/>
+      <c r="D492" s="6"/>
       <c r="E492" s="6"/>
       <c r="F492" s="6"/>
     </row>
@@ -8704,7 +8921,6 @@
       <c r="A493" s="3"/>
       <c r="B493" s="4"/>
       <c r="C493" s="5"/>
-      <c r="D493" s="6"/>
       <c r="E493" s="6"/>
       <c r="F493" s="6"/>
       <c r="G493" s="6"/>
@@ -8713,6 +8929,7 @@
       <c r="A494" s="3"/>
       <c r="B494" s="4"/>
       <c r="C494" s="5"/>
+      <c r="D494" s="6"/>
       <c r="E494" s="6"/>
       <c r="F494" s="6"/>
     </row>
@@ -8720,7 +8937,6 @@
       <c r="A495" s="3"/>
       <c r="B495" s="4"/>
       <c r="C495" s="5"/>
-      <c r="D495" s="6"/>
       <c r="E495" s="6"/>
       <c r="F495" s="6"/>
       <c r="G495" s="6"/>
@@ -8729,6 +8945,7 @@
       <c r="A496" s="3"/>
       <c r="B496" s="4"/>
       <c r="C496" s="5"/>
+      <c r="D496" s="6"/>
       <c r="E496" s="6"/>
       <c r="F496" s="6"/>
     </row>
@@ -8736,7 +8953,6 @@
       <c r="A497" s="3"/>
       <c r="B497" s="4"/>
       <c r="C497" s="5"/>
-      <c r="D497" s="6"/>
       <c r="E497" s="6"/>
       <c r="F497" s="6"/>
       <c r="G497" s="6"/>
@@ -8745,6 +8961,7 @@
       <c r="A498" s="3"/>
       <c r="B498" s="4"/>
       <c r="C498" s="5"/>
+      <c r="D498" s="6"/>
       <c r="E498" s="6"/>
       <c r="F498" s="6"/>
     </row>
@@ -8752,7 +8969,6 @@
       <c r="A499" s="3"/>
       <c r="B499" s="4"/>
       <c r="C499" s="5"/>
-      <c r="D499" s="6"/>
       <c r="E499" s="6"/>
       <c r="F499" s="6"/>
       <c r="G499" s="6"/>
@@ -8761,6 +8977,7 @@
       <c r="A500" s="3"/>
       <c r="B500" s="4"/>
       <c r="C500" s="5"/>
+      <c r="D500" s="6"/>
       <c r="E500" s="6"/>
       <c r="F500" s="6"/>
     </row>
@@ -8768,7 +8985,6 @@
       <c r="A501" s="3"/>
       <c r="B501" s="4"/>
       <c r="C501" s="5"/>
-      <c r="D501" s="6"/>
       <c r="E501" s="6"/>
       <c r="F501" s="6"/>
       <c r="G501" s="6"/>
@@ -8777,6 +8993,7 @@
       <c r="A502" s="3"/>
       <c r="B502" s="4"/>
       <c r="C502" s="5"/>
+      <c r="D502" s="6"/>
       <c r="E502" s="6"/>
       <c r="F502" s="6"/>
     </row>
@@ -8784,7 +9001,6 @@
       <c r="A503" s="3"/>
       <c r="B503" s="4"/>
       <c r="C503" s="5"/>
-      <c r="D503" s="6"/>
       <c r="E503" s="6"/>
       <c r="F503" s="6"/>
       <c r="G503" s="6"/>
@@ -8793,6 +9009,7 @@
       <c r="A504" s="3"/>
       <c r="B504" s="4"/>
       <c r="C504" s="5"/>
+      <c r="D504" s="6"/>
       <c r="E504" s="6"/>
       <c r="F504" s="6"/>
     </row>
@@ -8800,7 +9017,6 @@
       <c r="A505" s="3"/>
       <c r="B505" s="4"/>
       <c r="C505" s="5"/>
-      <c r="D505" s="6"/>
       <c r="E505" s="6"/>
       <c r="F505" s="6"/>
       <c r="G505" s="6"/>
@@ -8809,6 +9025,7 @@
       <c r="A506" s="3"/>
       <c r="B506" s="4"/>
       <c r="C506" s="5"/>
+      <c r="D506" s="6"/>
       <c r="E506" s="6"/>
       <c r="F506" s="6"/>
     </row>
@@ -8816,7 +9033,6 @@
       <c r="A507" s="3"/>
       <c r="B507" s="4"/>
       <c r="C507" s="5"/>
-      <c r="D507" s="6"/>
       <c r="E507" s="6"/>
       <c r="F507" s="6"/>
       <c r="G507" s="6"/>
@@ -8825,6 +9041,7 @@
       <c r="A508" s="3"/>
       <c r="B508" s="4"/>
       <c r="C508" s="5"/>
+      <c r="D508" s="6"/>
       <c r="E508" s="6"/>
       <c r="F508" s="6"/>
     </row>
@@ -8832,7 +9049,6 @@
       <c r="A509" s="3"/>
       <c r="B509" s="4"/>
       <c r="C509" s="5"/>
-      <c r="D509" s="6"/>
       <c r="E509" s="6"/>
       <c r="F509" s="6"/>
       <c r="G509" s="6"/>
@@ -8841,6 +9057,7 @@
       <c r="A510" s="3"/>
       <c r="B510" s="4"/>
       <c r="C510" s="5"/>
+      <c r="D510" s="6"/>
       <c r="E510" s="6"/>
       <c r="F510" s="6"/>
     </row>
@@ -8848,7 +9065,6 @@
       <c r="A511" s="3"/>
       <c r="B511" s="4"/>
       <c r="C511" s="5"/>
-      <c r="D511" s="6"/>
       <c r="E511" s="6"/>
       <c r="F511" s="6"/>
       <c r="G511" s="6"/>
@@ -8857,6 +9073,7 @@
       <c r="A512" s="3"/>
       <c r="B512" s="4"/>
       <c r="C512" s="5"/>
+      <c r="D512" s="6"/>
       <c r="E512" s="6"/>
       <c r="F512" s="6"/>
     </row>
@@ -8864,7 +9081,6 @@
       <c r="A513" s="3"/>
       <c r="B513" s="4"/>
       <c r="C513" s="5"/>
-      <c r="D513" s="6"/>
       <c r="E513" s="6"/>
       <c r="F513" s="6"/>
       <c r="G513" s="6"/>
@@ -8873,6 +9089,7 @@
       <c r="A514" s="3"/>
       <c r="B514" s="4"/>
       <c r="C514" s="5"/>
+      <c r="D514" s="6"/>
       <c r="E514" s="6"/>
       <c r="F514" s="6"/>
     </row>
@@ -8880,7 +9097,6 @@
       <c r="A515" s="3"/>
       <c r="B515" s="4"/>
       <c r="C515" s="5"/>
-      <c r="D515" s="6"/>
       <c r="E515" s="6"/>
       <c r="F515" s="6"/>
       <c r="G515" s="6"/>
@@ -8889,6 +9105,7 @@
       <c r="A516" s="3"/>
       <c r="B516" s="4"/>
       <c r="C516" s="5"/>
+      <c r="D516" s="6"/>
       <c r="E516" s="6"/>
       <c r="F516" s="6"/>
     </row>
@@ -8896,7 +9113,6 @@
       <c r="A517" s="3"/>
       <c r="B517" s="4"/>
       <c r="C517" s="5"/>
-      <c r="D517" s="6"/>
       <c r="E517" s="6"/>
       <c r="F517" s="6"/>
       <c r="G517" s="6"/>
@@ -8905,6 +9121,7 @@
       <c r="A518" s="3"/>
       <c r="B518" s="4"/>
       <c r="C518" s="5"/>
+      <c r="D518" s="6"/>
       <c r="E518" s="6"/>
       <c r="F518" s="6"/>
     </row>
@@ -8912,7 +9129,6 @@
       <c r="A519" s="3"/>
       <c r="B519" s="4"/>
       <c r="C519" s="5"/>
-      <c r="D519" s="6"/>
       <c r="E519" s="6"/>
       <c r="F519" s="6"/>
       <c r="G519" s="6"/>
@@ -8921,6 +9137,7 @@
       <c r="A520" s="3"/>
       <c r="B520" s="4"/>
       <c r="C520" s="5"/>
+      <c r="D520" s="6"/>
       <c r="E520" s="6"/>
       <c r="F520" s="6"/>
     </row>
@@ -8928,7 +9145,6 @@
       <c r="A521" s="3"/>
       <c r="B521" s="4"/>
       <c r="C521" s="5"/>
-      <c r="D521" s="6"/>
       <c r="E521" s="6"/>
       <c r="F521" s="6"/>
       <c r="G521" s="6"/>
@@ -8937,6 +9153,7 @@
       <c r="A522" s="3"/>
       <c r="B522" s="4"/>
       <c r="C522" s="5"/>
+      <c r="D522" s="6"/>
       <c r="E522" s="6"/>
       <c r="F522" s="6"/>
     </row>
@@ -8944,7 +9161,6 @@
       <c r="A523" s="3"/>
       <c r="B523" s="4"/>
       <c r="C523" s="5"/>
-      <c r="D523" s="6"/>
       <c r="E523" s="6"/>
       <c r="F523" s="6"/>
       <c r="G523" s="6"/>
@@ -8953,6 +9169,7 @@
       <c r="A524" s="3"/>
       <c r="B524" s="4"/>
       <c r="C524" s="5"/>
+      <c r="D524" s="6"/>
       <c r="E524" s="6"/>
       <c r="F524" s="6"/>
     </row>
@@ -8960,7 +9177,6 @@
       <c r="A525" s="3"/>
       <c r="B525" s="4"/>
       <c r="C525" s="5"/>
-      <c r="D525" s="6"/>
       <c r="E525" s="6"/>
       <c r="F525" s="6"/>
       <c r="G525" s="6"/>
@@ -8969,6 +9185,7 @@
       <c r="A526" s="3"/>
       <c r="B526" s="4"/>
       <c r="C526" s="5"/>
+      <c r="D526" s="6"/>
       <c r="E526" s="6"/>
       <c r="F526" s="6"/>
     </row>
@@ -8976,7 +9193,6 @@
       <c r="A527" s="3"/>
       <c r="B527" s="4"/>
       <c r="C527" s="5"/>
-      <c r="D527" s="6"/>
       <c r="E527" s="6"/>
       <c r="F527" s="6"/>
       <c r="G527" s="6"/>
@@ -8985,6 +9201,7 @@
       <c r="A528" s="3"/>
       <c r="B528" s="4"/>
       <c r="C528" s="5"/>
+      <c r="D528" s="6"/>
       <c r="E528" s="6"/>
       <c r="F528" s="6"/>
     </row>
@@ -8992,7 +9209,6 @@
       <c r="A529" s="3"/>
       <c r="B529" s="4"/>
       <c r="C529" s="5"/>
-      <c r="D529" s="6"/>
       <c r="E529" s="6"/>
       <c r="F529" s="6"/>
       <c r="G529" s="6"/>
@@ -9001,6 +9217,7 @@
       <c r="A530" s="3"/>
       <c r="B530" s="4"/>
       <c r="C530" s="5"/>
+      <c r="D530" s="6"/>
       <c r="E530" s="6"/>
       <c r="F530" s="6"/>
     </row>
@@ -9008,7 +9225,6 @@
       <c r="A531" s="3"/>
       <c r="B531" s="4"/>
       <c r="C531" s="5"/>
-      <c r="D531" s="6"/>
       <c r="E531" s="6"/>
       <c r="F531" s="6"/>
       <c r="G531" s="6"/>
@@ -9017,6 +9233,7 @@
       <c r="A532" s="3"/>
       <c r="B532" s="4"/>
       <c r="C532" s="5"/>
+      <c r="D532" s="6"/>
       <c r="E532" s="6"/>
       <c r="F532" s="6"/>
     </row>
@@ -9024,7 +9241,6 @@
       <c r="A533" s="3"/>
       <c r="B533" s="4"/>
       <c r="C533" s="5"/>
-      <c r="D533" s="6"/>
       <c r="E533" s="6"/>
       <c r="F533" s="6"/>
       <c r="G533" s="6"/>
@@ -9033,6 +9249,7 @@
       <c r="A534" s="3"/>
       <c r="B534" s="4"/>
       <c r="C534" s="5"/>
+      <c r="D534" s="6"/>
       <c r="E534" s="6"/>
       <c r="F534" s="6"/>
     </row>
@@ -9040,7 +9257,6 @@
       <c r="A535" s="3"/>
       <c r="B535" s="4"/>
       <c r="C535" s="5"/>
-      <c r="D535" s="6"/>
       <c r="E535" s="6"/>
       <c r="F535" s="6"/>
       <c r="G535" s="6"/>
@@ -9049,6 +9265,7 @@
       <c r="A536" s="3"/>
       <c r="B536" s="4"/>
       <c r="C536" s="5"/>
+      <c r="D536" s="6"/>
       <c r="E536" s="6"/>
       <c r="F536" s="6"/>
     </row>
@@ -9056,7 +9273,6 @@
       <c r="A537" s="3"/>
       <c r="B537" s="4"/>
       <c r="C537" s="5"/>
-      <c r="D537" s="6"/>
       <c r="E537" s="6"/>
       <c r="F537" s="6"/>
       <c r="G537" s="6"/>
@@ -9065,6 +9281,7 @@
       <c r="A538" s="3"/>
       <c r="B538" s="4"/>
       <c r="C538" s="5"/>
+      <c r="D538" s="6"/>
       <c r="E538" s="6"/>
       <c r="F538" s="6"/>
     </row>
@@ -9072,7 +9289,6 @@
       <c r="A539" s="3"/>
       <c r="B539" s="4"/>
       <c r="C539" s="5"/>
-      <c r="D539" s="6"/>
       <c r="E539" s="6"/>
       <c r="F539" s="6"/>
       <c r="G539" s="6"/>
@@ -9081,6 +9297,7 @@
       <c r="A540" s="3"/>
       <c r="B540" s="4"/>
       <c r="C540" s="5"/>
+      <c r="D540" s="6"/>
       <c r="E540" s="6"/>
       <c r="F540" s="6"/>
     </row>
@@ -9088,7 +9305,6 @@
       <c r="A541" s="3"/>
       <c r="B541" s="4"/>
       <c r="C541" s="5"/>
-      <c r="D541" s="6"/>
       <c r="E541" s="6"/>
       <c r="F541" s="6"/>
       <c r="G541" s="6"/>
@@ -9097,6 +9313,7 @@
       <c r="A542" s="3"/>
       <c r="B542" s="4"/>
       <c r="C542" s="5"/>
+      <c r="D542" s="6"/>
       <c r="E542" s="6"/>
       <c r="F542" s="6"/>
     </row>
@@ -9104,7 +9321,6 @@
       <c r="A543" s="3"/>
       <c r="B543" s="4"/>
       <c r="C543" s="5"/>
-      <c r="D543" s="6"/>
       <c r="E543" s="6"/>
       <c r="F543" s="6"/>
       <c r="G543" s="6"/>
@@ -9113,6 +9329,7 @@
       <c r="A544" s="3"/>
       <c r="B544" s="4"/>
       <c r="C544" s="5"/>
+      <c r="D544" s="6"/>
       <c r="E544" s="6"/>
       <c r="F544" s="6"/>
     </row>
@@ -9120,7 +9337,6 @@
       <c r="A545" s="3"/>
       <c r="B545" s="4"/>
       <c r="C545" s="5"/>
-      <c r="D545" s="6"/>
       <c r="E545" s="6"/>
       <c r="F545" s="6"/>
       <c r="G545" s="6"/>
@@ -9129,6 +9345,7 @@
       <c r="A546" s="3"/>
       <c r="B546" s="4"/>
       <c r="C546" s="5"/>
+      <c r="D546" s="6"/>
       <c r="E546" s="6"/>
       <c r="F546" s="6"/>
     </row>
@@ -9136,7 +9353,6 @@
       <c r="A547" s="3"/>
       <c r="B547" s="4"/>
       <c r="C547" s="5"/>
-      <c r="D547" s="6"/>
       <c r="E547" s="6"/>
       <c r="F547" s="6"/>
       <c r="G547" s="6"/>
@@ -9145,6 +9361,7 @@
       <c r="A548" s="3"/>
       <c r="B548" s="4"/>
       <c r="C548" s="5"/>
+      <c r="D548" s="6"/>
       <c r="E548" s="6"/>
       <c r="F548" s="6"/>
     </row>
@@ -9152,7 +9369,6 @@
       <c r="A549" s="3"/>
       <c r="B549" s="4"/>
       <c r="C549" s="5"/>
-      <c r="D549" s="6"/>
       <c r="E549" s="6"/>
       <c r="F549" s="6"/>
       <c r="G549" s="6"/>
@@ -9161,6 +9377,7 @@
       <c r="A550" s="3"/>
       <c r="B550" s="4"/>
       <c r="C550" s="5"/>
+      <c r="D550" s="6"/>
       <c r="E550" s="6"/>
       <c r="F550" s="6"/>
     </row>
@@ -9168,7 +9385,6 @@
       <c r="A551" s="3"/>
       <c r="B551" s="4"/>
       <c r="C551" s="5"/>
-      <c r="D551" s="6"/>
       <c r="E551" s="6"/>
       <c r="F551" s="6"/>
       <c r="G551" s="6"/>
@@ -9177,6 +9393,7 @@
       <c r="A552" s="3"/>
       <c r="B552" s="4"/>
       <c r="C552" s="5"/>
+      <c r="D552" s="6"/>
       <c r="E552" s="6"/>
       <c r="F552" s="6"/>
     </row>
@@ -9184,7 +9401,6 @@
       <c r="A553" s="3"/>
       <c r="B553" s="4"/>
       <c r="C553" s="5"/>
-      <c r="D553" s="6"/>
       <c r="E553" s="6"/>
       <c r="F553" s="6"/>
       <c r="G553" s="6"/>
@@ -9193,6 +9409,7 @@
       <c r="A554" s="3"/>
       <c r="B554" s="4"/>
       <c r="C554" s="5"/>
+      <c r="D554" s="6"/>
       <c r="E554" s="6"/>
       <c r="F554" s="6"/>
     </row>
@@ -9200,7 +9417,6 @@
       <c r="A555" s="3"/>
       <c r="B555" s="4"/>
       <c r="C555" s="5"/>
-      <c r="D555" s="6"/>
       <c r="E555" s="6"/>
       <c r="F555" s="6"/>
       <c r="G555" s="6"/>
@@ -9209,6 +9425,7 @@
       <c r="A556" s="3"/>
       <c r="B556" s="4"/>
       <c r="C556" s="5"/>
+      <c r="D556" s="6"/>
       <c r="E556" s="6"/>
       <c r="F556" s="6"/>
     </row>
@@ -9216,7 +9433,6 @@
       <c r="A557" s="3"/>
       <c r="B557" s="4"/>
       <c r="C557" s="5"/>
-      <c r="D557" s="6"/>
       <c r="E557" s="6"/>
       <c r="F557" s="6"/>
       <c r="G557" s="6"/>
@@ -9225,6 +9441,7 @@
       <c r="A558" s="3"/>
       <c r="B558" s="4"/>
       <c r="C558" s="5"/>
+      <c r="D558" s="6"/>
       <c r="E558" s="6"/>
       <c r="F558" s="6"/>
     </row>
@@ -9232,7 +9449,6 @@
       <c r="A559" s="3"/>
       <c r="B559" s="4"/>
       <c r="C559" s="5"/>
-      <c r="D559" s="6"/>
       <c r="E559" s="6"/>
       <c r="F559" s="6"/>
       <c r="G559" s="6"/>
@@ -9241,6 +9457,7 @@
       <c r="A560" s="3"/>
       <c r="B560" s="4"/>
       <c r="C560" s="5"/>
+      <c r="D560" s="6"/>
       <c r="E560" s="6"/>
       <c r="F560" s="6"/>
     </row>
@@ -9248,7 +9465,6 @@
       <c r="A561" s="3"/>
       <c r="B561" s="4"/>
       <c r="C561" s="5"/>
-      <c r="D561" s="6"/>
       <c r="E561" s="6"/>
       <c r="F561" s="6"/>
       <c r="G561" s="6"/>
@@ -9257,6 +9473,7 @@
       <c r="A562" s="3"/>
       <c r="B562" s="4"/>
       <c r="C562" s="5"/>
+      <c r="D562" s="6"/>
       <c r="E562" s="6"/>
       <c r="F562" s="6"/>
     </row>
@@ -9264,7 +9481,6 @@
       <c r="A563" s="3"/>
       <c r="B563" s="4"/>
       <c r="C563" s="5"/>
-      <c r="D563" s="6"/>
       <c r="E563" s="6"/>
       <c r="F563" s="6"/>
       <c r="G563" s="6"/>
@@ -9273,6 +9489,7 @@
       <c r="A564" s="3"/>
       <c r="B564" s="4"/>
       <c r="C564" s="5"/>
+      <c r="D564" s="6"/>
       <c r="E564" s="6"/>
       <c r="F564" s="6"/>
     </row>
@@ -9280,7 +9497,6 @@
       <c r="A565" s="3"/>
       <c r="B565" s="4"/>
       <c r="C565" s="5"/>
-      <c r="D565" s="6"/>
       <c r="E565" s="6"/>
       <c r="F565" s="6"/>
       <c r="G565" s="6"/>
@@ -9289,6 +9505,7 @@
       <c r="A566" s="3"/>
       <c r="B566" s="4"/>
       <c r="C566" s="5"/>
+      <c r="D566" s="6"/>
       <c r="E566" s="6"/>
       <c r="F566" s="6"/>
     </row>
@@ -9296,7 +9513,6 @@
       <c r="A567" s="3"/>
       <c r="B567" s="4"/>
       <c r="C567" s="5"/>
-      <c r="D567" s="6"/>
       <c r="E567" s="6"/>
       <c r="F567" s="6"/>
       <c r="G567" s="6"/>
@@ -9305,6 +9521,7 @@
       <c r="A568" s="3"/>
       <c r="B568" s="4"/>
       <c r="C568" s="5"/>
+      <c r="D568" s="6"/>
       <c r="E568" s="6"/>
       <c r="F568" s="6"/>
     </row>
@@ -9312,7 +9529,6 @@
       <c r="A569" s="3"/>
       <c r="B569" s="4"/>
       <c r="C569" s="5"/>
-      <c r="D569" s="6"/>
       <c r="E569" s="6"/>
       <c r="F569" s="6"/>
       <c r="G569" s="6"/>
@@ -9321,6 +9537,7 @@
       <c r="A570" s="3"/>
       <c r="B570" s="4"/>
       <c r="C570" s="5"/>
+      <c r="D570" s="6"/>
       <c r="E570" s="6"/>
       <c r="F570" s="6"/>
     </row>
@@ -9328,7 +9545,6 @@
       <c r="A571" s="3"/>
       <c r="B571" s="4"/>
       <c r="C571" s="5"/>
-      <c r="D571" s="6"/>
       <c r="E571" s="6"/>
       <c r="F571" s="6"/>
       <c r="G571" s="6"/>
@@ -9337,6 +9553,7 @@
       <c r="A572" s="3"/>
       <c r="B572" s="4"/>
       <c r="C572" s="5"/>
+      <c r="D572" s="6"/>
       <c r="E572" s="6"/>
       <c r="F572" s="6"/>
     </row>
@@ -9344,7 +9561,6 @@
       <c r="A573" s="3"/>
       <c r="B573" s="4"/>
       <c r="C573" s="5"/>
-      <c r="D573" s="6"/>
       <c r="E573" s="6"/>
       <c r="F573" s="6"/>
       <c r="G573" s="6"/>
@@ -9353,6 +9569,7 @@
       <c r="A574" s="3"/>
       <c r="B574" s="4"/>
       <c r="C574" s="5"/>
+      <c r="D574" s="6"/>
       <c r="E574" s="6"/>
       <c r="F574" s="6"/>
     </row>
@@ -9360,7 +9577,6 @@
       <c r="A575" s="3"/>
       <c r="B575" s="4"/>
       <c r="C575" s="5"/>
-      <c r="D575" s="6"/>
       <c r="E575" s="6"/>
       <c r="F575" s="6"/>
       <c r="G575" s="6"/>
@@ -9369,6 +9585,7 @@
       <c r="A576" s="3"/>
       <c r="B576" s="4"/>
       <c r="C576" s="5"/>
+      <c r="D576" s="6"/>
       <c r="E576" s="6"/>
       <c r="F576" s="6"/>
     </row>
@@ -9376,7 +9593,6 @@
       <c r="A577" s="3"/>
       <c r="B577" s="4"/>
       <c r="C577" s="5"/>
-      <c r="D577" s="6"/>
       <c r="E577" s="6"/>
       <c r="F577" s="6"/>
       <c r="G577" s="6"/>
@@ -9385,6 +9601,7 @@
       <c r="A578" s="3"/>
       <c r="B578" s="4"/>
       <c r="C578" s="5"/>
+      <c r="D578" s="6"/>
       <c r="E578" s="6"/>
       <c r="F578" s="6"/>
     </row>
@@ -9392,7 +9609,6 @@
       <c r="A579" s="3"/>
       <c r="B579" s="4"/>
       <c r="C579" s="5"/>
-      <c r="D579" s="6"/>
       <c r="E579" s="6"/>
       <c r="F579" s="6"/>
       <c r="G579" s="6"/>
@@ -9401,6 +9617,7 @@
       <c r="A580" s="3"/>
       <c r="B580" s="4"/>
       <c r="C580" s="5"/>
+      <c r="D580" s="6"/>
       <c r="E580" s="6"/>
       <c r="F580" s="6"/>
     </row>
@@ -9408,7 +9625,6 @@
       <c r="A581" s="3"/>
       <c r="B581" s="4"/>
       <c r="C581" s="5"/>
-      <c r="D581" s="6"/>
       <c r="E581" s="6"/>
       <c r="F581" s="6"/>
       <c r="G581" s="6"/>
@@ -9417,6 +9633,7 @@
       <c r="A582" s="3"/>
       <c r="B582" s="4"/>
       <c r="C582" s="5"/>
+      <c r="D582" s="6"/>
       <c r="E582" s="6"/>
       <c r="F582" s="6"/>
     </row>
@@ -9424,7 +9641,6 @@
       <c r="A583" s="3"/>
       <c r="B583" s="4"/>
       <c r="C583" s="5"/>
-      <c r="D583" s="6"/>
       <c r="E583" s="6"/>
       <c r="F583" s="6"/>
       <c r="G583" s="6"/>
@@ -9433,6 +9649,7 @@
       <c r="A584" s="3"/>
       <c r="B584" s="4"/>
       <c r="C584" s="5"/>
+      <c r="D584" s="6"/>
       <c r="E584" s="6"/>
       <c r="F584" s="6"/>
     </row>
@@ -9440,7 +9657,6 @@
       <c r="A585" s="3"/>
       <c r="B585" s="4"/>
       <c r="C585" s="5"/>
-      <c r="D585" s="6"/>
       <c r="E585" s="6"/>
       <c r="F585" s="6"/>
       <c r="G585" s="6"/>
@@ -9449,6 +9665,7 @@
       <c r="A586" s="3"/>
       <c r="B586" s="4"/>
       <c r="C586" s="5"/>
+      <c r="D586" s="6"/>
       <c r="E586" s="6"/>
       <c r="F586" s="6"/>
     </row>
@@ -9456,7 +9673,6 @@
       <c r="A587" s="3"/>
       <c r="B587" s="4"/>
       <c r="C587" s="5"/>
-      <c r="D587" s="6"/>
       <c r="E587" s="6"/>
       <c r="F587" s="6"/>
       <c r="G587" s="6"/>
@@ -9465,6 +9681,7 @@
       <c r="A588" s="3"/>
       <c r="B588" s="4"/>
       <c r="C588" s="5"/>
+      <c r="D588" s="6"/>
       <c r="E588" s="6"/>
       <c r="F588" s="6"/>
     </row>
@@ -9472,7 +9689,6 @@
       <c r="A589" s="3"/>
       <c r="B589" s="4"/>
       <c r="C589" s="5"/>
-      <c r="D589" s="6"/>
       <c r="E589" s="6"/>
       <c r="F589" s="6"/>
       <c r="G589" s="6"/>
@@ -9481,6 +9697,7 @@
       <c r="A590" s="3"/>
       <c r="B590" s="4"/>
       <c r="C590" s="5"/>
+      <c r="D590" s="6"/>
       <c r="E590" s="6"/>
       <c r="F590" s="6"/>
     </row>
@@ -9488,7 +9705,6 @@
       <c r="A591" s="3"/>
       <c r="B591" s="4"/>
       <c r="C591" s="5"/>
-      <c r="D591" s="6"/>
       <c r="E591" s="6"/>
       <c r="F591" s="6"/>
       <c r="G591" s="6"/>
@@ -9497,6 +9713,7 @@
       <c r="A592" s="3"/>
       <c r="B592" s="4"/>
       <c r="C592" s="5"/>
+      <c r="D592" s="6"/>
       <c r="E592" s="6"/>
       <c r="F592" s="6"/>
     </row>
@@ -9504,7 +9721,6 @@
       <c r="A593" s="3"/>
       <c r="B593" s="4"/>
       <c r="C593" s="5"/>
-      <c r="D593" s="6"/>
       <c r="E593" s="6"/>
       <c r="F593" s="6"/>
       <c r="G593" s="6"/>
@@ -9513,6 +9729,7 @@
       <c r="A594" s="3"/>
       <c r="B594" s="4"/>
       <c r="C594" s="5"/>
+      <c r="D594" s="6"/>
       <c r="E594" s="6"/>
       <c r="F594" s="6"/>
     </row>
@@ -9520,7 +9737,6 @@
       <c r="A595" s="3"/>
       <c r="B595" s="4"/>
       <c r="C595" s="5"/>
-      <c r="D595" s="6"/>
       <c r="E595" s="6"/>
       <c r="F595" s="6"/>
       <c r="G595" s="6"/>
@@ -9529,6 +9745,7 @@
       <c r="A596" s="3"/>
       <c r="B596" s="4"/>
       <c r="C596" s="5"/>
+      <c r="D596" s="6"/>
       <c r="E596" s="6"/>
       <c r="F596" s="6"/>
     </row>
@@ -9536,7 +9753,6 @@
       <c r="A597" s="3"/>
       <c r="B597" s="4"/>
       <c r="C597" s="5"/>
-      <c r="D597" s="6"/>
       <c r="E597" s="6"/>
       <c r="F597" s="6"/>
       <c r="G597" s="6"/>
@@ -9545,6 +9761,7 @@
       <c r="A598" s="3"/>
       <c r="B598" s="4"/>
       <c r="C598" s="5"/>
+      <c r="D598" s="6"/>
       <c r="E598" s="6"/>
       <c r="F598" s="6"/>
     </row>
@@ -9552,7 +9769,6 @@
       <c r="A599" s="3"/>
       <c r="B599" s="4"/>
       <c r="C599" s="5"/>
-      <c r="D599" s="6"/>
       <c r="E599" s="6"/>
       <c r="F599" s="6"/>
       <c r="G599" s="6"/>
@@ -9561,6 +9777,7 @@
       <c r="A600" s="3"/>
       <c r="B600" s="4"/>
       <c r="C600" s="5"/>
+      <c r="D600" s="6"/>
       <c r="E600" s="6"/>
       <c r="F600" s="6"/>
     </row>
@@ -9568,7 +9785,6 @@
       <c r="A601" s="3"/>
       <c r="B601" s="4"/>
       <c r="C601" s="5"/>
-      <c r="D601" s="6"/>
       <c r="E601" s="6"/>
       <c r="F601" s="6"/>
       <c r="G601" s="6"/>
@@ -9577,6 +9793,7 @@
       <c r="A602" s="3"/>
       <c r="B602" s="4"/>
       <c r="C602" s="5"/>
+      <c r="D602" s="6"/>
       <c r="E602" s="6"/>
       <c r="F602" s="6"/>
     </row>
@@ -9584,7 +9801,6 @@
       <c r="A603" s="3"/>
       <c r="B603" s="4"/>
       <c r="C603" s="5"/>
-      <c r="D603" s="6"/>
       <c r="E603" s="6"/>
       <c r="F603" s="6"/>
       <c r="G603" s="6"/>
@@ -9593,6 +9809,7 @@
       <c r="A604" s="3"/>
       <c r="B604" s="4"/>
       <c r="C604" s="5"/>
+      <c r="D604" s="6"/>
       <c r="E604" s="6"/>
       <c r="F604" s="6"/>
     </row>
@@ -9600,7 +9817,6 @@
       <c r="A605" s="3"/>
       <c r="B605" s="4"/>
       <c r="C605" s="5"/>
-      <c r="D605" s="6"/>
       <c r="E605" s="6"/>
       <c r="F605" s="6"/>
       <c r="G605" s="6"/>
@@ -9609,6 +9825,7 @@
       <c r="A606" s="3"/>
       <c r="B606" s="4"/>
       <c r="C606" s="5"/>
+      <c r="D606" s="6"/>
       <c r="E606" s="6"/>
       <c r="F606" s="6"/>
     </row>
@@ -9616,7 +9833,6 @@
       <c r="A607" s="3"/>
       <c r="B607" s="4"/>
       <c r="C607" s="5"/>
-      <c r="D607" s="6"/>
       <c r="E607" s="6"/>
       <c r="F607" s="6"/>
       <c r="G607" s="6"/>
@@ -9625,6 +9841,7 @@
       <c r="A608" s="3"/>
       <c r="B608" s="4"/>
       <c r="C608" s="5"/>
+      <c r="D608" s="6"/>
       <c r="E608" s="6"/>
       <c r="F608" s="6"/>
     </row>
@@ -9632,7 +9849,6 @@
       <c r="A609" s="3"/>
       <c r="B609" s="4"/>
       <c r="C609" s="5"/>
-      <c r="D609" s="6"/>
       <c r="E609" s="6"/>
       <c r="F609" s="6"/>
       <c r="G609" s="6"/>
@@ -9641,6 +9857,7 @@
       <c r="A610" s="3"/>
       <c r="B610" s="4"/>
       <c r="C610" s="5"/>
+      <c r="D610" s="6"/>
       <c r="E610" s="6"/>
       <c r="F610" s="6"/>
     </row>
@@ -9648,7 +9865,6 @@
       <c r="A611" s="3"/>
       <c r="B611" s="4"/>
       <c r="C611" s="5"/>
-      <c r="D611" s="6"/>
       <c r="E611" s="6"/>
       <c r="F611" s="6"/>
       <c r="G611" s="6"/>
@@ -9657,6 +9873,7 @@
       <c r="A612" s="3"/>
       <c r="B612" s="4"/>
       <c r="C612" s="5"/>
+      <c r="D612" s="6"/>
       <c r="E612" s="6"/>
       <c r="F612" s="6"/>
     </row>
@@ -9664,7 +9881,6 @@
       <c r="A613" s="3"/>
       <c r="B613" s="4"/>
       <c r="C613" s="5"/>
-      <c r="D613" s="6"/>
       <c r="E613" s="6"/>
       <c r="F613" s="6"/>
       <c r="G613" s="6"/>
@@ -9673,6 +9889,7 @@
       <c r="A614" s="3"/>
       <c r="B614" s="4"/>
       <c r="C614" s="5"/>
+      <c r="D614" s="6"/>
       <c r="E614" s="6"/>
       <c r="F614" s="6"/>
     </row>
@@ -9680,7 +9897,6 @@
       <c r="A615" s="3"/>
       <c r="B615" s="4"/>
       <c r="C615" s="5"/>
-      <c r="D615" s="6"/>
       <c r="E615" s="6"/>
       <c r="F615" s="6"/>
       <c r="G615" s="6"/>
@@ -9689,6 +9905,7 @@
       <c r="A616" s="3"/>
       <c r="B616" s="4"/>
       <c r="C616" s="5"/>
+      <c r="D616" s="6"/>
       <c r="E616" s="6"/>
       <c r="F616" s="6"/>
     </row>
@@ -9696,7 +9913,6 @@
       <c r="A617" s="3"/>
       <c r="B617" s="4"/>
       <c r="C617" s="5"/>
-      <c r="D617" s="6"/>
       <c r="E617" s="6"/>
       <c r="F617" s="6"/>
       <c r="G617" s="6"/>
@@ -9705,6 +9921,7 @@
       <c r="A618" s="3"/>
       <c r="B618" s="4"/>
       <c r="C618" s="5"/>
+      <c r="D618" s="6"/>
       <c r="E618" s="6"/>
       <c r="F618" s="6"/>
     </row>
@@ -9712,7 +9929,6 @@
       <c r="A619" s="3"/>
       <c r="B619" s="4"/>
       <c r="C619" s="5"/>
-      <c r="D619" s="6"/>
       <c r="E619" s="6"/>
       <c r="F619" s="6"/>
       <c r="G619" s="6"/>
@@ -9721,6 +9937,7 @@
       <c r="A620" s="3"/>
       <c r="B620" s="4"/>
       <c r="C620" s="5"/>
+      <c r="D620" s="6"/>
       <c r="E620" s="6"/>
       <c r="F620" s="6"/>
     </row>
@@ -9728,7 +9945,6 @@
       <c r="A621" s="3"/>
       <c r="B621" s="4"/>
       <c r="C621" s="5"/>
-      <c r="D621" s="6"/>
       <c r="E621" s="6"/>
       <c r="F621" s="6"/>
       <c r="G621" s="6"/>
@@ -9737,6 +9953,7 @@
       <c r="A622" s="3"/>
       <c r="B622" s="4"/>
       <c r="C622" s="5"/>
+      <c r="D622" s="6"/>
       <c r="E622" s="6"/>
       <c r="F622" s="6"/>
     </row>
@@ -9744,7 +9961,6 @@
       <c r="A623" s="3"/>
       <c r="B623" s="4"/>
       <c r="C623" s="5"/>
-      <c r="D623" s="6"/>
       <c r="E623" s="6"/>
       <c r="F623" s="6"/>
       <c r="G623" s="6"/>
@@ -9753,6 +9969,7 @@
       <c r="A624" s="3"/>
       <c r="B624" s="4"/>
       <c r="C624" s="5"/>
+      <c r="D624" s="6"/>
       <c r="E624" s="6"/>
       <c r="F624" s="6"/>
     </row>
@@ -9760,7 +9977,6 @@
       <c r="A625" s="3"/>
       <c r="B625" s="4"/>
       <c r="C625" s="5"/>
-      <c r="D625" s="6"/>
       <c r="E625" s="6"/>
       <c r="F625" s="6"/>
       <c r="G625" s="6"/>
@@ -9769,6 +9985,7 @@
       <c r="A626" s="3"/>
       <c r="B626" s="4"/>
       <c r="C626" s="5"/>
+      <c r="D626" s="6"/>
       <c r="E626" s="6"/>
       <c r="F626" s="6"/>
     </row>
@@ -9776,7 +9993,6 @@
       <c r="A627" s="3"/>
       <c r="B627" s="4"/>
       <c r="C627" s="5"/>
-      <c r="D627" s="6"/>
       <c r="E627" s="6"/>
       <c r="F627" s="6"/>
       <c r="G627" s="6"/>
@@ -9785,6 +10001,7 @@
       <c r="A628" s="3"/>
       <c r="B628" s="4"/>
       <c r="C628" s="5"/>
+      <c r="D628" s="6"/>
       <c r="E628" s="6"/>
       <c r="F628" s="6"/>
     </row>
@@ -9792,7 +10009,6 @@
       <c r="A629" s="3"/>
       <c r="B629" s="4"/>
       <c r="C629" s="5"/>
-      <c r="D629" s="6"/>
       <c r="E629" s="6"/>
       <c r="F629" s="6"/>
       <c r="G629" s="6"/>
@@ -9801,6 +10017,7 @@
       <c r="A630" s="3"/>
       <c r="B630" s="4"/>
       <c r="C630" s="5"/>
+      <c r="D630" s="6"/>
       <c r="E630" s="6"/>
       <c r="F630" s="6"/>
     </row>
@@ -9808,7 +10025,6 @@
       <c r="A631" s="3"/>
       <c r="B631" s="4"/>
       <c r="C631" s="5"/>
-      <c r="D631" s="6"/>
       <c r="E631" s="6"/>
       <c r="F631" s="6"/>
       <c r="G631" s="6"/>
@@ -9817,6 +10033,7 @@
       <c r="A632" s="3"/>
       <c r="B632" s="4"/>
       <c r="C632" s="5"/>
+      <c r="D632" s="6"/>
       <c r="E632" s="6"/>
       <c r="F632" s="6"/>
     </row>
@@ -9824,7 +10041,6 @@
       <c r="A633" s="3"/>
       <c r="B633" s="4"/>
       <c r="C633" s="5"/>
-      <c r="D633" s="6"/>
       <c r="E633" s="6"/>
       <c r="F633" s="6"/>
       <c r="G633" s="6"/>
@@ -9833,6 +10049,7 @@
       <c r="A634" s="3"/>
       <c r="B634" s="4"/>
       <c r="C634" s="5"/>
+      <c r="D634" s="6"/>
       <c r="E634" s="6"/>
       <c r="F634" s="6"/>
     </row>
@@ -9840,7 +10057,6 @@
       <c r="A635" s="3"/>
       <c r="B635" s="4"/>
       <c r="C635" s="5"/>
-      <c r="D635" s="6"/>
       <c r="E635" s="6"/>
       <c r="F635" s="6"/>
       <c r="G635" s="6"/>
@@ -9849,6 +10065,7 @@
       <c r="A636" s="3"/>
       <c r="B636" s="4"/>
       <c r="C636" s="5"/>
+      <c r="D636" s="6"/>
       <c r="E636" s="6"/>
       <c r="F636" s="6"/>
     </row>
@@ -9856,7 +10073,6 @@
       <c r="A637" s="3"/>
       <c r="B637" s="4"/>
       <c r="C637" s="5"/>
-      <c r="D637" s="6"/>
       <c r="E637" s="6"/>
       <c r="F637" s="6"/>
       <c r="G637" s="6"/>
@@ -9865,6 +10081,7 @@
       <c r="A638" s="3"/>
       <c r="B638" s="4"/>
       <c r="C638" s="5"/>
+      <c r="D638" s="6"/>
       <c r="E638" s="6"/>
       <c r="F638" s="6"/>
     </row>
@@ -9872,7 +10089,6 @@
       <c r="A639" s="3"/>
       <c r="B639" s="4"/>
       <c r="C639" s="5"/>
-      <c r="D639" s="6"/>
       <c r="E639" s="6"/>
       <c r="F639" s="6"/>
       <c r="G639" s="6"/>
@@ -9881,6 +10097,7 @@
       <c r="A640" s="3"/>
       <c r="B640" s="4"/>
       <c r="C640" s="5"/>
+      <c r="D640" s="6"/>
       <c r="E640" s="6"/>
       <c r="F640" s="6"/>
     </row>
@@ -9888,7 +10105,6 @@
       <c r="A641" s="3"/>
       <c r="B641" s="4"/>
       <c r="C641" s="5"/>
-      <c r="D641" s="6"/>
       <c r="E641" s="6"/>
       <c r="F641" s="6"/>
       <c r="G641" s="6"/>
@@ -9897,6 +10113,7 @@
       <c r="A642" s="3"/>
       <c r="B642" s="4"/>
       <c r="C642" s="5"/>
+      <c r="D642" s="6"/>
       <c r="E642" s="6"/>
       <c r="F642" s="6"/>
     </row>
@@ -9904,7 +10121,6 @@
       <c r="A643" s="3"/>
       <c r="B643" s="4"/>
       <c r="C643" s="5"/>
-      <c r="D643" s="6"/>
       <c r="E643" s="6"/>
       <c r="F643" s="6"/>
       <c r="G643" s="6"/>
@@ -9913,6 +10129,7 @@
       <c r="A644" s="3"/>
       <c r="B644" s="4"/>
       <c r="C644" s="5"/>
+      <c r="D644" s="6"/>
       <c r="E644" s="6"/>
       <c r="F644" s="6"/>
     </row>
@@ -9920,7 +10137,6 @@
       <c r="A645" s="3"/>
       <c r="B645" s="4"/>
       <c r="C645" s="5"/>
-      <c r="D645" s="6"/>
       <c r="E645" s="6"/>
       <c r="F645" s="6"/>
       <c r="G645" s="6"/>
@@ -9929,6 +10145,7 @@
       <c r="A646" s="3"/>
       <c r="B646" s="4"/>
       <c r="C646" s="5"/>
+      <c r="D646" s="6"/>
       <c r="E646" s="6"/>
       <c r="F646" s="6"/>
     </row>
@@ -9936,7 +10153,6 @@
       <c r="A647" s="3"/>
       <c r="B647" s="4"/>
       <c r="C647" s="5"/>
-      <c r="D647" s="6"/>
       <c r="E647" s="6"/>
       <c r="F647" s="6"/>
       <c r="G647" s="6"/>
@@ -9945,6 +10161,7 @@
       <c r="A648" s="3"/>
       <c r="B648" s="4"/>
       <c r="C648" s="5"/>
+      <c r="D648" s="6"/>
       <c r="E648" s="6"/>
       <c r="F648" s="6"/>
     </row>
@@ -9952,7 +10169,6 @@
       <c r="A649" s="3"/>
       <c r="B649" s="4"/>
       <c r="C649" s="5"/>
-      <c r="D649" s="6"/>
       <c r="E649" s="6"/>
       <c r="F649" s="6"/>
       <c r="G649" s="6"/>
@@ -9961,6 +10177,7 @@
       <c r="A650" s="3"/>
       <c r="B650" s="4"/>
       <c r="C650" s="5"/>
+      <c r="D650" s="6"/>
       <c r="E650" s="6"/>
       <c r="F650" s="6"/>
     </row>
@@ -9968,7 +10185,6 @@
       <c r="A651" s="3"/>
       <c r="B651" s="4"/>
       <c r="C651" s="5"/>
-      <c r="D651" s="6"/>
       <c r="E651" s="6"/>
       <c r="F651" s="6"/>
       <c r="G651" s="6"/>
@@ -9977,6 +10193,7 @@
       <c r="A652" s="3"/>
       <c r="B652" s="4"/>
       <c r="C652" s="5"/>
+      <c r="D652" s="6"/>
       <c r="E652" s="6"/>
       <c r="F652" s="6"/>
     </row>
@@ -9984,7 +10201,6 @@
       <c r="A653" s="3"/>
       <c r="B653" s="4"/>
       <c r="C653" s="5"/>
-      <c r="D653" s="6"/>
       <c r="E653" s="6"/>
       <c r="F653" s="6"/>
       <c r="G653" s="6"/>
@@ -9993,6 +10209,7 @@
       <c r="A654" s="3"/>
       <c r="B654" s="4"/>
       <c r="C654" s="5"/>
+      <c r="D654" s="6"/>
       <c r="E654" s="6"/>
       <c r="F654" s="6"/>
     </row>
@@ -10000,7 +10217,6 @@
       <c r="A655" s="3"/>
       <c r="B655" s="4"/>
       <c r="C655" s="5"/>
-      <c r="D655" s="6"/>
       <c r="E655" s="6"/>
       <c r="F655" s="6"/>
       <c r="G655" s="6"/>
@@ -10009,6 +10225,7 @@
       <c r="A656" s="3"/>
       <c r="B656" s="4"/>
       <c r="C656" s="5"/>
+      <c r="D656" s="6"/>
       <c r="E656" s="6"/>
       <c r="F656" s="6"/>
     </row>
@@ -10016,7 +10233,6 @@
       <c r="A657" s="3"/>
       <c r="B657" s="4"/>
       <c r="C657" s="5"/>
-      <c r="D657" s="6"/>
       <c r="E657" s="6"/>
       <c r="F657" s="6"/>
       <c r="G657" s="6"/>
@@ -10025,6 +10241,7 @@
       <c r="A658" s="3"/>
       <c r="B658" s="4"/>
       <c r="C658" s="5"/>
+      <c r="D658" s="6"/>
       <c r="E658" s="6"/>
       <c r="F658" s="6"/>
     </row>
@@ -10032,7 +10249,6 @@
       <c r="A659" s="3"/>
       <c r="B659" s="4"/>
       <c r="C659" s="5"/>
-      <c r="D659" s="6"/>
       <c r="E659" s="6"/>
       <c r="F659" s="6"/>
       <c r="G659" s="6"/>
@@ -10041,6 +10257,7 @@
       <c r="A660" s="3"/>
       <c r="B660" s="4"/>
       <c r="C660" s="5"/>
+      <c r="D660" s="6"/>
       <c r="E660" s="6"/>
       <c r="F660" s="6"/>
     </row>
@@ -10048,7 +10265,6 @@
       <c r="A661" s="3"/>
       <c r="B661" s="4"/>
       <c r="C661" s="5"/>
-      <c r="D661" s="6"/>
       <c r="E661" s="6"/>
       <c r="F661" s="6"/>
       <c r="G661" s="6"/>
@@ -10057,6 +10273,7 @@
       <c r="A662" s="3"/>
       <c r="B662" s="4"/>
       <c r="C662" s="5"/>
+      <c r="D662" s="6"/>
       <c r="E662" s="6"/>
       <c r="F662" s="6"/>
     </row>
@@ -10064,7 +10281,6 @@
       <c r="A663" s="3"/>
       <c r="B663" s="4"/>
       <c r="C663" s="5"/>
-      <c r="D663" s="6"/>
       <c r="E663" s="6"/>
       <c r="F663" s="6"/>
       <c r="G663" s="6"/>
@@ -10073,6 +10289,7 @@
       <c r="A664" s="3"/>
       <c r="B664" s="4"/>
       <c r="C664" s="5"/>
+      <c r="D664" s="6"/>
       <c r="E664" s="6"/>
       <c r="F664" s="6"/>
     </row>
@@ -10080,7 +10297,6 @@
       <c r="A665" s="3"/>
       <c r="B665" s="4"/>
       <c r="C665" s="5"/>
-      <c r="D665" s="6"/>
       <c r="E665" s="6"/>
       <c r="F665" s="6"/>
       <c r="G665" s="6"/>
@@ -10089,6 +10305,7 @@
       <c r="A666" s="3"/>
       <c r="B666" s="4"/>
       <c r="C666" s="5"/>
+      <c r="D666" s="6"/>
       <c r="E666" s="6"/>
       <c r="F666" s="6"/>
     </row>
@@ -10096,7 +10313,6 @@
       <c r="A667" s="3"/>
       <c r="B667" s="4"/>
       <c r="C667" s="5"/>
-      <c r="D667" s="6"/>
       <c r="E667" s="6"/>
       <c r="F667" s="6"/>
       <c r="G667" s="6"/>
@@ -10105,6 +10321,7 @@
       <c r="A668" s="3"/>
       <c r="B668" s="4"/>
       <c r="C668" s="5"/>
+      <c r="D668" s="6"/>
       <c r="E668" s="6"/>
       <c r="F668" s="6"/>
     </row>
@@ -10112,7 +10329,6 @@
       <c r="A669" s="3"/>
       <c r="B669" s="4"/>
       <c r="C669" s="5"/>
-      <c r="D669" s="6"/>
       <c r="E669" s="6"/>
       <c r="F669" s="6"/>
       <c r="G669" s="6"/>
@@ -10121,6 +10337,7 @@
       <c r="A670" s="3"/>
       <c r="B670" s="4"/>
       <c r="C670" s="5"/>
+      <c r="D670" s="6"/>
       <c r="E670" s="6"/>
       <c r="F670" s="6"/>
     </row>
@@ -10128,7 +10345,6 @@
       <c r="A671" s="3"/>
       <c r="B671" s="4"/>
       <c r="C671" s="5"/>
-      <c r="D671" s="6"/>
       <c r="E671" s="6"/>
       <c r="F671" s="6"/>
       <c r="G671" s="6"/>
@@ -10137,6 +10353,7 @@
       <c r="A672" s="3"/>
       <c r="B672" s="4"/>
       <c r="C672" s="5"/>
+      <c r="D672" s="6"/>
       <c r="E672" s="6"/>
       <c r="F672" s="6"/>
     </row>
@@ -10144,7 +10361,6 @@
       <c r="A673" s="3"/>
       <c r="B673" s="4"/>
       <c r="C673" s="5"/>
-      <c r="D673" s="6"/>
       <c r="E673" s="6"/>
       <c r="F673" s="6"/>
       <c r="G673" s="6"/>
@@ -10153,6 +10369,7 @@
       <c r="A674" s="3"/>
       <c r="B674" s="4"/>
       <c r="C674" s="5"/>
+      <c r="D674" s="6"/>
       <c r="E674" s="6"/>
       <c r="F674" s="6"/>
     </row>
@@ -10160,7 +10377,6 @@
       <c r="A675" s="3"/>
       <c r="B675" s="4"/>
       <c r="C675" s="5"/>
-      <c r="D675" s="6"/>
       <c r="E675" s="6"/>
       <c r="F675" s="6"/>
       <c r="G675" s="6"/>
@@ -10169,6 +10385,7 @@
       <c r="A676" s="3"/>
       <c r="B676" s="4"/>
       <c r="C676" s="5"/>
+      <c r="D676" s="6"/>
       <c r="E676" s="6"/>
       <c r="F676" s="6"/>
     </row>
@@ -10176,7 +10393,6 @@
       <c r="A677" s="3"/>
       <c r="B677" s="4"/>
       <c r="C677" s="5"/>
-      <c r="D677" s="6"/>
       <c r="E677" s="6"/>
       <c r="F677" s="6"/>
       <c r="G677" s="6"/>
@@ -10185,6 +10401,7 @@
       <c r="A678" s="3"/>
       <c r="B678" s="4"/>
       <c r="C678" s="5"/>
+      <c r="D678" s="6"/>
       <c r="E678" s="6"/>
       <c r="F678" s="6"/>
     </row>
@@ -10192,7 +10409,6 @@
       <c r="A679" s="3"/>
       <c r="B679" s="4"/>
       <c r="C679" s="5"/>
-      <c r="D679" s="6"/>
       <c r="E679" s="6"/>
       <c r="F679" s="6"/>
       <c r="G679" s="6"/>
@@ -10201,6 +10417,7 @@
       <c r="A680" s="3"/>
       <c r="B680" s="4"/>
       <c r="C680" s="5"/>
+      <c r="D680" s="6"/>
       <c r="E680" s="6"/>
       <c r="F680" s="6"/>
     </row>
@@ -10208,7 +10425,6 @@
       <c r="A681" s="3"/>
       <c r="B681" s="4"/>
       <c r="C681" s="5"/>
-      <c r="D681" s="6"/>
       <c r="E681" s="6"/>
       <c r="F681" s="6"/>
       <c r="G681" s="6"/>
@@ -10217,6 +10433,7 @@
       <c r="A682" s="3"/>
       <c r="B682" s="4"/>
       <c r="C682" s="5"/>
+      <c r="D682" s="6"/>
       <c r="E682" s="6"/>
       <c r="F682" s="6"/>
     </row>
@@ -10224,7 +10441,6 @@
       <c r="A683" s="3"/>
       <c r="B683" s="4"/>
       <c r="C683" s="5"/>
-      <c r="D683" s="6"/>
       <c r="E683" s="6"/>
       <c r="F683" s="6"/>
       <c r="G683" s="6"/>
@@ -10233,6 +10449,7 @@
       <c r="A684" s="3"/>
       <c r="B684" s="4"/>
       <c r="C684" s="5"/>
+      <c r="D684" s="6"/>
       <c r="E684" s="6"/>
       <c r="F684" s="6"/>
     </row>
@@ -10240,7 +10457,6 @@
       <c r="A685" s="3"/>
       <c r="B685" s="4"/>
       <c r="C685" s="5"/>
-      <c r="D685" s="6"/>
       <c r="E685" s="6"/>
       <c r="F685" s="6"/>
       <c r="G685" s="6"/>
@@ -10249,6 +10465,7 @@
       <c r="A686" s="3"/>
       <c r="B686" s="4"/>
       <c r="C686" s="5"/>
+      <c r="D686" s="6"/>
       <c r="E686" s="6"/>
       <c r="F686" s="6"/>
     </row>
@@ -10256,7 +10473,6 @@
       <c r="A687" s="3"/>
       <c r="B687" s="4"/>
       <c r="C687" s="5"/>
-      <c r="D687" s="6"/>
       <c r="E687" s="6"/>
       <c r="F687" s="6"/>
       <c r="G687" s="6"/>
@@ -10265,6 +10481,7 @@
       <c r="A688" s="3"/>
       <c r="B688" s="4"/>
       <c r="C688" s="5"/>
+      <c r="D688" s="6"/>
       <c r="E688" s="6"/>
       <c r="F688" s="6"/>
     </row>
@@ -10272,7 +10489,6 @@
       <c r="A689" s="3"/>
       <c r="B689" s="4"/>
       <c r="C689" s="5"/>
-      <c r="D689" s="6"/>
       <c r="E689" s="6"/>
       <c r="F689" s="6"/>
       <c r="G689" s="6"/>
@@ -10281,6 +10497,7 @@
       <c r="A690" s="3"/>
       <c r="B690" s="4"/>
       <c r="C690" s="5"/>
+      <c r="D690" s="6"/>
       <c r="E690" s="6"/>
       <c r="F690" s="6"/>
     </row>
@@ -10288,7 +10505,6 @@
       <c r="A691" s="3"/>
       <c r="B691" s="4"/>
       <c r="C691" s="5"/>
-      <c r="D691" s="6"/>
       <c r="E691" s="6"/>
       <c r="F691" s="6"/>
       <c r="G691" s="6"/>
@@ -10297,6 +10513,7 @@
       <c r="A692" s="3"/>
       <c r="B692" s="4"/>
       <c r="C692" s="5"/>
+      <c r="D692" s="6"/>
       <c r="E692" s="6"/>
       <c r="F692" s="6"/>
     </row>
@@ -10304,7 +10521,6 @@
       <c r="A693" s="3"/>
       <c r="B693" s="4"/>
       <c r="C693" s="5"/>
-      <c r="D693" s="6"/>
       <c r="E693" s="6"/>
       <c r="F693" s="6"/>
       <c r="G693" s="6"/>
@@ -10313,6 +10529,7 @@
       <c r="A694" s="3"/>
       <c r="B694" s="4"/>
       <c r="C694" s="5"/>
+      <c r="D694" s="6"/>
       <c r="E694" s="6"/>
       <c r="F694" s="6"/>
     </row>
@@ -10320,7 +10537,6 @@
       <c r="A695" s="3"/>
       <c r="B695" s="4"/>
       <c r="C695" s="5"/>
-      <c r="D695" s="6"/>
       <c r="E695" s="6"/>
       <c r="F695" s="6"/>
       <c r="G695" s="6"/>
@@ -10329,6 +10545,7 @@
       <c r="A696" s="3"/>
       <c r="B696" s="4"/>
       <c r="C696" s="5"/>
+      <c r="D696" s="6"/>
       <c r="E696" s="6"/>
       <c r="F696" s="6"/>
     </row>
@@ -10336,7 +10553,6 @@
       <c r="A697" s="3"/>
       <c r="B697" s="4"/>
       <c r="C697" s="5"/>
-      <c r="D697" s="6"/>
       <c r="E697" s="6"/>
       <c r="F697" s="6"/>
       <c r="G697" s="6"/>
@@ -10345,6 +10561,7 @@
       <c r="A698" s="3"/>
       <c r="B698" s="4"/>
       <c r="C698" s="5"/>
+      <c r="D698" s="6"/>
       <c r="E698" s="6"/>
       <c r="F698" s="6"/>
     </row>
@@ -10352,7 +10569,6 @@
       <c r="A699" s="3"/>
       <c r="B699" s="4"/>
       <c r="C699" s="5"/>
-      <c r="D699" s="6"/>
       <c r="E699" s="6"/>
       <c r="F699" s="6"/>
       <c r="G699" s="6"/>
@@ -10361,6 +10577,7 @@
       <c r="A700" s="3"/>
       <c r="B700" s="4"/>
       <c r="C700" s="5"/>
+      <c r="D700" s="6"/>
       <c r="E700" s="6"/>
       <c r="F700" s="6"/>
     </row>
@@ -10368,7 +10585,6 @@
       <c r="A701" s="3"/>
       <c r="B701" s="4"/>
       <c r="C701" s="5"/>
-      <c r="D701" s="6"/>
       <c r="E701" s="6"/>
       <c r="F701" s="6"/>
       <c r="G701" s="6"/>
@@ -10377,6 +10593,7 @@
       <c r="A702" s="3"/>
       <c r="B702" s="4"/>
       <c r="C702" s="5"/>
+      <c r="D702" s="6"/>
       <c r="E702" s="6"/>
       <c r="F702" s="6"/>
     </row>
@@ -10384,7 +10601,6 @@
       <c r="A703" s="3"/>
       <c r="B703" s="4"/>
       <c r="C703" s="5"/>
-      <c r="D703" s="6"/>
       <c r="E703" s="6"/>
       <c r="F703" s="6"/>
       <c r="G703" s="6"/>
@@ -10393,6 +10609,7 @@
       <c r="A704" s="3"/>
       <c r="B704" s="4"/>
       <c r="C704" s="5"/>
+      <c r="D704" s="6"/>
       <c r="E704" s="6"/>
       <c r="F704" s="6"/>
     </row>
@@ -10400,7 +10617,6 @@
       <c r="A705" s="3"/>
       <c r="B705" s="4"/>
       <c r="C705" s="5"/>
-      <c r="D705" s="6"/>
       <c r="E705" s="6"/>
       <c r="F705" s="6"/>
       <c r="G705" s="6"/>
@@ -10409,6 +10625,7 @@
       <c r="A706" s="3"/>
       <c r="B706" s="4"/>
       <c r="C706" s="5"/>
+      <c r="D706" s="6"/>
       <c r="E706" s="6"/>
       <c r="F706" s="6"/>
     </row>
@@ -10416,7 +10633,6 @@
       <c r="A707" s="3"/>
       <c r="B707" s="4"/>
       <c r="C707" s="5"/>
-      <c r="D707" s="6"/>
       <c r="E707" s="6"/>
       <c r="F707" s="6"/>
       <c r="G707" s="6"/>
@@ -10425,6 +10641,7 @@
       <c r="A708" s="3"/>
       <c r="B708" s="4"/>
       <c r="C708" s="5"/>
+      <c r="D708" s="6"/>
       <c r="E708" s="6"/>
       <c r="F708" s="6"/>
     </row>
@@ -10432,7 +10649,6 @@
       <c r="A709" s="3"/>
       <c r="B709" s="4"/>
       <c r="C709" s="5"/>
-      <c r="D709" s="6"/>
       <c r="E709" s="6"/>
       <c r="F709" s="6"/>
       <c r="G709" s="6"/>
@@ -10441,6 +10657,7 @@
       <c r="A710" s="3"/>
       <c r="B710" s="4"/>
       <c r="C710" s="5"/>
+      <c r="D710" s="6"/>
       <c r="E710" s="6"/>
       <c r="F710" s="6"/>
     </row>
@@ -10448,7 +10665,6 @@
       <c r="A711" s="3"/>
       <c r="B711" s="4"/>
       <c r="C711" s="5"/>
-      <c r="D711" s="6"/>
       <c r="E711" s="6"/>
       <c r="F711" s="6"/>
       <c r="G711" s="6"/>
@@ -10457,6 +10673,7 @@
       <c r="A712" s="3"/>
       <c r="B712" s="4"/>
       <c r="C712" s="5"/>
+      <c r="D712" s="6"/>
       <c r="E712" s="6"/>
       <c r="F712" s="6"/>
     </row>
@@ -10464,7 +10681,6 @@
       <c r="A713" s="3"/>
       <c r="B713" s="4"/>
       <c r="C713" s="5"/>
-      <c r="D713" s="6"/>
       <c r="E713" s="6"/>
       <c r="F713" s="6"/>
       <c r="G713" s="6"/>
@@ -10473,6 +10689,7 @@
       <c r="A714" s="3"/>
       <c r="B714" s="4"/>
       <c r="C714" s="5"/>
+      <c r="D714" s="6"/>
       <c r="E714" s="6"/>
       <c r="F714" s="6"/>
     </row>
@@ -10480,7 +10697,6 @@
       <c r="A715" s="3"/>
       <c r="B715" s="4"/>
       <c r="C715" s="5"/>
-      <c r="D715" s="6"/>
       <c r="E715" s="6"/>
       <c r="F715" s="6"/>
       <c r="G715" s="6"/>
@@ -10489,6 +10705,7 @@
       <c r="A716" s="3"/>
       <c r="B716" s="4"/>
       <c r="C716" s="5"/>
+      <c r="D716" s="6"/>
       <c r="E716" s="6"/>
       <c r="F716" s="6"/>
     </row>
@@ -10496,7 +10713,6 @@
       <c r="A717" s="3"/>
       <c r="B717" s="4"/>
       <c r="C717" s="5"/>
-      <c r="D717" s="6"/>
       <c r="E717" s="6"/>
       <c r="F717" s="6"/>
       <c r="G717" s="6"/>
@@ -10505,6 +10721,7 @@
       <c r="A718" s="3"/>
       <c r="B718" s="4"/>
       <c r="C718" s="5"/>
+      <c r="D718" s="6"/>
       <c r="E718" s="6"/>
       <c r="F718" s="6"/>
     </row>
@@ -10512,7 +10729,6 @@
       <c r="A719" s="3"/>
       <c r="B719" s="4"/>
       <c r="C719" s="5"/>
-      <c r="D719" s="6"/>
       <c r="E719" s="6"/>
       <c r="F719" s="6"/>
       <c r="G719" s="6"/>
@@ -10521,6 +10737,7 @@
       <c r="A720" s="3"/>
       <c r="B720" s="4"/>
       <c r="C720" s="5"/>
+      <c r="D720" s="6"/>
       <c r="E720" s="6"/>
       <c r="F720" s="6"/>
     </row>
@@ -10528,7 +10745,6 @@
       <c r="A721" s="3"/>
       <c r="B721" s="4"/>
       <c r="C721" s="5"/>
-      <c r="D721" s="6"/>
       <c r="E721" s="6"/>
       <c r="F721" s="6"/>
       <c r="G721" s="6"/>
@@ -10537,6 +10753,7 @@
       <c r="A722" s="3"/>
       <c r="B722" s="4"/>
       <c r="C722" s="5"/>
+      <c r="D722" s="6"/>
       <c r="E722" s="6"/>
       <c r="F722" s="6"/>
     </row>
@@ -10544,7 +10761,6 @@
       <c r="A723" s="3"/>
       <c r="B723" s="4"/>
       <c r="C723" s="5"/>
-      <c r="D723" s="6"/>
       <c r="E723" s="6"/>
       <c r="F723" s="6"/>
       <c r="G723" s="6"/>
@@ -10553,6 +10769,7 @@
       <c r="A724" s="3"/>
       <c r="B724" s="4"/>
       <c r="C724" s="5"/>
+      <c r="D724" s="6"/>
       <c r="E724" s="6"/>
       <c r="F724" s="6"/>
     </row>
@@ -10560,7 +10777,6 @@
       <c r="A725" s="3"/>
       <c r="B725" s="4"/>
       <c r="C725" s="5"/>
-      <c r="D725" s="6"/>
       <c r="E725" s="6"/>
       <c r="F725" s="6"/>
       <c r="G725" s="6"/>
@@ -10569,6 +10785,7 @@
       <c r="A726" s="3"/>
       <c r="B726" s="4"/>
       <c r="C726" s="5"/>
+      <c r="D726" s="6"/>
       <c r="E726" s="6"/>
       <c r="F726" s="6"/>
     </row>
@@ -10576,7 +10793,6 @@
       <c r="A727" s="3"/>
       <c r="B727" s="4"/>
       <c r="C727" s="5"/>
-      <c r="D727" s="6"/>
       <c r="E727" s="6"/>
       <c r="F727" s="6"/>
       <c r="G727" s="6"/>
@@ -10585,6 +10801,7 @@
       <c r="A728" s="3"/>
       <c r="B728" s="4"/>
       <c r="C728" s="5"/>
+      <c r="D728" s="6"/>
       <c r="E728" s="6"/>
       <c r="F728" s="6"/>
     </row>
@@ -10592,7 +10809,6 @@
       <c r="A729" s="3"/>
       <c r="B729" s="4"/>
       <c r="C729" s="5"/>
-      <c r="D729" s="6"/>
       <c r="E729" s="6"/>
       <c r="F729" s="6"/>
       <c r="G729" s="6"/>
@@ -10601,6 +10817,7 @@
       <c r="A730" s="3"/>
       <c r="B730" s="4"/>
       <c r="C730" s="5"/>
+      <c r="D730" s="6"/>
       <c r="E730" s="6"/>
       <c r="F730" s="6"/>
     </row>
@@ -10608,7 +10825,6 @@
       <c r="A731" s="3"/>
       <c r="B731" s="4"/>
       <c r="C731" s="5"/>
-      <c r="D731" s="6"/>
       <c r="E731" s="6"/>
       <c r="F731" s="6"/>
       <c r="G731" s="6"/>
@@ -10617,6 +10833,7 @@
       <c r="A732" s="3"/>
       <c r="B732" s="4"/>
       <c r="C732" s="5"/>
+      <c r="D732" s="6"/>
       <c r="E732" s="6"/>
       <c r="F732" s="6"/>
     </row>
@@ -10624,7 +10841,6 @@
       <c r="A733" s="3"/>
       <c r="B733" s="4"/>
       <c r="C733" s="5"/>
-      <c r="D733" s="6"/>
       <c r="E733" s="6"/>
       <c r="F733" s="6"/>
       <c r="G733" s="6"/>
@@ -10633,6 +10849,7 @@
       <c r="A734" s="3"/>
       <c r="B734" s="4"/>
       <c r="C734" s="5"/>
+      <c r="D734" s="6"/>
       <c r="E734" s="6"/>
       <c r="F734" s="6"/>
     </row>
@@ -10640,7 +10857,6 @@
       <c r="A735" s="3"/>
       <c r="B735" s="4"/>
       <c r="C735" s="5"/>
-      <c r="D735" s="6"/>
       <c r="E735" s="6"/>
       <c r="F735" s="6"/>
       <c r="G735" s="6"/>
@@ -10649,6 +10865,7 @@
       <c r="A736" s="3"/>
       <c r="B736" s="4"/>
       <c r="C736" s="5"/>
+      <c r="D736" s="6"/>
       <c r="E736" s="6"/>
       <c r="F736" s="6"/>
     </row>
@@ -10656,7 +10873,6 @@
       <c r="A737" s="3"/>
       <c r="B737" s="4"/>
       <c r="C737" s="5"/>
-      <c r="D737" s="6"/>
       <c r="E737" s="6"/>
       <c r="F737" s="6"/>
       <c r="G737" s="6"/>
@@ -10665,6 +10881,7 @@
       <c r="A738" s="3"/>
       <c r="B738" s="4"/>
       <c r="C738" s="5"/>
+      <c r="D738" s="6"/>
       <c r="E738" s="6"/>
       <c r="F738" s="6"/>
     </row>
@@ -10672,7 +10889,6 @@
       <c r="A739" s="3"/>
       <c r="B739" s="4"/>
       <c r="C739" s="5"/>
-      <c r="D739" s="6"/>
       <c r="E739" s="6"/>
       <c r="F739" s="6"/>
       <c r="G739" s="6"/>
@@ -10681,6 +10897,7 @@
       <c r="A740" s="3"/>
       <c r="B740" s="4"/>
       <c r="C740" s="5"/>
+      <c r="D740" s="6"/>
       <c r="E740" s="6"/>
       <c r="F740" s="6"/>
     </row>
@@ -10688,7 +10905,6 @@
       <c r="A741" s="3"/>
       <c r="B741" s="4"/>
       <c r="C741" s="5"/>
-      <c r="D741" s="6"/>
       <c r="E741" s="6"/>
       <c r="F741" s="6"/>
       <c r="G741" s="6"/>
@@ -10697,6 +10913,7 @@
       <c r="A742" s="3"/>
       <c r="B742" s="4"/>
       <c r="C742" s="5"/>
+      <c r="D742" s="6"/>
       <c r="E742" s="6"/>
       <c r="F742" s="6"/>
     </row>
@@ -10704,7 +10921,6 @@
       <c r="A743" s="3"/>
       <c r="B743" s="4"/>
       <c r="C743" s="5"/>
-      <c r="D743" s="6"/>
       <c r="E743" s="6"/>
       <c r="F743" s="6"/>
       <c r="G743" s="6"/>
@@ -10713,6 +10929,7 @@
       <c r="A744" s="3"/>
       <c r="B744" s="4"/>
       <c r="C744" s="5"/>
+      <c r="D744" s="6"/>
       <c r="E744" s="6"/>
       <c r="F744" s="6"/>
     </row>
@@ -10720,7 +10937,6 @@
       <c r="A745" s="3"/>
       <c r="B745" s="4"/>
       <c r="C745" s="5"/>
-      <c r="D745" s="6"/>
       <c r="E745" s="6"/>
       <c r="F745" s="6"/>
       <c r="G745" s="6"/>
@@ -10729,6 +10945,7 @@
       <c r="A746" s="3"/>
       <c r="B746" s="4"/>
       <c r="C746" s="5"/>
+      <c r="D746" s="6"/>
       <c r="E746" s="6"/>
       <c r="F746" s="6"/>
     </row>
@@ -10736,7 +10953,6 @@
       <c r="A747" s="3"/>
       <c r="B747" s="4"/>
       <c r="C747" s="5"/>
-      <c r="D747" s="6"/>
       <c r="E747" s="6"/>
       <c r="F747" s="6"/>
       <c r="G747" s="6"/>
@@ -10745,6 +10961,7 @@
       <c r="A748" s="3"/>
       <c r="B748" s="4"/>
       <c r="C748" s="5"/>
+      <c r="D748" s="6"/>
       <c r="E748" s="6"/>
       <c r="F748" s="6"/>
     </row>
@@ -10752,7 +10969,6 @@
       <c r="A749" s="3"/>
       <c r="B749" s="4"/>
       <c r="C749" s="5"/>
-      <c r="D749" s="6"/>
       <c r="E749" s="6"/>
       <c r="F749" s="6"/>
       <c r="G749" s="6"/>
@@ -10761,6 +10977,7 @@
       <c r="A750" s="3"/>
       <c r="B750" s="4"/>
       <c r="C750" s="5"/>
+      <c r="D750" s="6"/>
       <c r="E750" s="6"/>
       <c r="F750" s="6"/>
     </row>
@@ -10768,7 +10985,6 @@
       <c r="A751" s="3"/>
       <c r="B751" s="4"/>
       <c r="C751" s="5"/>
-      <c r="D751" s="6"/>
       <c r="E751" s="6"/>
       <c r="F751" s="6"/>
       <c r="G751" s="6"/>
@@ -10777,6 +10993,7 @@
       <c r="A752" s="3"/>
       <c r="B752" s="4"/>
       <c r="C752" s="5"/>
+      <c r="D752" s="6"/>
       <c r="E752" s="6"/>
       <c r="F752" s="6"/>
     </row>
@@ -10784,7 +11001,6 @@
       <c r="A753" s="3"/>
       <c r="B753" s="4"/>
       <c r="C753" s="5"/>
-      <c r="D753" s="6"/>
       <c r="E753" s="6"/>
       <c r="F753" s="6"/>
       <c r="G753" s="6"/>
@@ -10793,6 +11009,7 @@
       <c r="A754" s="3"/>
       <c r="B754" s="4"/>
       <c r="C754" s="5"/>
+      <c r="D754" s="6"/>
       <c r="E754" s="6"/>
       <c r="F754" s="6"/>
     </row>
@@ -10800,7 +11017,6 @@
       <c r="A755" s="3"/>
       <c r="B755" s="4"/>
       <c r="C755" s="5"/>
-      <c r="D755" s="6"/>
       <c r="E755" s="6"/>
       <c r="F755" s="6"/>
       <c r="G755" s="6"/>
@@ -10809,6 +11025,7 @@
       <c r="A756" s="3"/>
       <c r="B756" s="4"/>
       <c r="C756" s="5"/>
+      <c r="D756" s="6"/>
       <c r="E756" s="6"/>
       <c r="F756" s="6"/>
     </row>
@@ -10816,7 +11033,6 @@
       <c r="A757" s="3"/>
       <c r="B757" s="4"/>
       <c r="C757" s="5"/>
-      <c r="D757" s="6"/>
       <c r="E757" s="6"/>
       <c r="F757" s="6"/>
       <c r="G757" s="6"/>
@@ -10825,6 +11041,7 @@
       <c r="A758" s="3"/>
       <c r="B758" s="4"/>
       <c r="C758" s="5"/>
+      <c r="D758" s="6"/>
       <c r="E758" s="6"/>
       <c r="F758" s="6"/>
     </row>
@@ -10832,7 +11049,6 @@
       <c r="A759" s="3"/>
       <c r="B759" s="4"/>
       <c r="C759" s="5"/>
-      <c r="D759" s="6"/>
       <c r="E759" s="6"/>
       <c r="F759" s="6"/>
       <c r="G759" s="6"/>
@@ -10841,6 +11057,7 @@
       <c r="A760" s="3"/>
       <c r="B760" s="4"/>
       <c r="C760" s="5"/>
+      <c r="D760" s="6"/>
       <c r="E760" s="6"/>
       <c r="F760" s="6"/>
     </row>
@@ -10848,7 +11065,6 @@
       <c r="A761" s="3"/>
       <c r="B761" s="4"/>
       <c r="C761" s="5"/>
-      <c r="D761" s="6"/>
       <c r="E761" s="6"/>
       <c r="F761" s="6"/>
       <c r="G761" s="6"/>
@@ -10857,6 +11073,7 @@
       <c r="A762" s="3"/>
       <c r="B762" s="4"/>
       <c r="C762" s="5"/>
+      <c r="D762" s="6"/>
       <c r="E762" s="6"/>
       <c r="F762" s="6"/>
     </row>
@@ -10864,7 +11081,6 @@
       <c r="A763" s="3"/>
       <c r="B763" s="4"/>
       <c r="C763" s="5"/>
-      <c r="D763" s="6"/>
       <c r="E763" s="6"/>
       <c r="F763" s="6"/>
       <c r="G763" s="6"/>
@@ -10873,6 +11089,7 @@
       <c r="A764" s="3"/>
       <c r="B764" s="4"/>
       <c r="C764" s="5"/>
+      <c r="D764" s="6"/>
       <c r="E764" s="6"/>
       <c r="F764" s="6"/>
     </row>
@@ -10880,7 +11097,6 @@
       <c r="A765" s="3"/>
       <c r="B765" s="4"/>
       <c r="C765" s="5"/>
-      <c r="D765" s="6"/>
       <c r="E765" s="6"/>
       <c r="F765" s="6"/>
       <c r="G765" s="6"/>
@@ -10889,6 +11105,7 @@
       <c r="A766" s="3"/>
       <c r="B766" s="4"/>
       <c r="C766" s="5"/>
+      <c r="D766" s="6"/>
       <c r="E766" s="6"/>
       <c r="F766" s="6"/>
     </row>
@@ -10896,7 +11113,6 @@
       <c r="A767" s="3"/>
       <c r="B767" s="4"/>
       <c r="C767" s="5"/>
-      <c r="D767" s="6"/>
       <c r="E767" s="6"/>
       <c r="F767" s="6"/>
       <c r="G767" s="6"/>
@@ -10905,6 +11121,7 @@
       <c r="A768" s="3"/>
       <c r="B768" s="4"/>
       <c r="C768" s="5"/>
+      <c r="D768" s="6"/>
       <c r="E768" s="6"/>
       <c r="F768" s="6"/>
     </row>
@@ -10912,7 +11129,6 @@
       <c r="A769" s="3"/>
       <c r="B769" s="4"/>
       <c r="C769" s="5"/>
-      <c r="D769" s="6"/>
       <c r="E769" s="6"/>
       <c r="F769" s="6"/>
       <c r="G769" s="6"/>
@@ -10921,6 +11137,7 @@
       <c r="A770" s="3"/>
       <c r="B770" s="4"/>
       <c r="C770" s="5"/>
+      <c r="D770" s="6"/>
       <c r="E770" s="6"/>
       <c r="F770" s="6"/>
     </row>
@@ -10928,15 +11145,12 @@
       <c r="A771" s="3"/>
       <c r="B771" s="4"/>
       <c r="C771" s="5"/>
-      <c r="D771" s="6"/>
       <c r="E771" s="6"/>
       <c r="F771" s="6"/>
       <c r="G771" s="6"/>
     </row>
     <row r="772" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="3"/>
-      <c r="B772" s="4"/>
-      <c r="C772" s="5"/>
       <c r="E772" s="6"/>
       <c r="F772" s="6"/>
     </row>
@@ -11111,5 +11325,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>